--- a/data/reduced_data.xlsx
+++ b/data/reduced_data.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\clusterGUI\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1EA231-ECC1-4714-AB27-8A6CFA517739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>Mouse_RFID</t>
   </si>
@@ -267,22 +274,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,222 +309,535 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.85546875" customWidth="true"/>
-    <col min="3" max="3" width="6.28515625" customWidth="true"/>
-    <col min="4" max="4" width="10.140625" customWidth="true"/>
-    <col min="5" max="5" width="11.28515625" customWidth="true"/>
-    <col min="6" max="6" width="4.28515625" customWidth="true"/>
-    <col min="7" max="7" width="7.5703125" customWidth="true"/>
-    <col min="8" max="8" width="11.28515625" customWidth="true"/>
-    <col min="9" max="9" width="12.140625" customWidth="true"/>
-    <col min="10" max="10" width="11.42578125" customWidth="true"/>
-    <col min="11" max="11" width="13.28515625" customWidth="true"/>
-    <col min="12" max="12" width="13.42578125" customWidth="true"/>
-    <col min="13" max="13" width="15.7109375" customWidth="true"/>
-    <col min="14" max="14" width="14.140625" customWidth="true"/>
-    <col min="15" max="15" width="14.42578125" customWidth="true"/>
-    <col min="16" max="16" width="14.42578125" customWidth="true"/>
-    <col min="17" max="17" width="25.42578125" customWidth="true"/>
-    <col min="18" max="18" width="23.5703125" customWidth="true"/>
-    <col min="19" max="19" width="41.85546875" customWidth="true"/>
-    <col min="20" max="20" width="44" customWidth="true"/>
-    <col min="21" max="21" width="15.42578125" customWidth="true"/>
-    <col min="22" max="22" width="15.42578125" customWidth="true"/>
-    <col min="23" max="23" width="14.42578125" customWidth="true"/>
-    <col min="24" max="24" width="15.42578125" customWidth="true"/>
-    <col min="25" max="25" width="13.7109375" customWidth="true"/>
-    <col min="26" max="26" width="14.42578125" customWidth="true"/>
-    <col min="27" max="27" width="14.42578125" customWidth="true"/>
-    <col min="28" max="28" width="15.42578125" customWidth="true"/>
-    <col min="29" max="29" width="14.42578125" customWidth="true"/>
-    <col min="30" max="30" width="13.7109375" customWidth="true"/>
-    <col min="31" max="31" width="14.42578125" customWidth="true"/>
-    <col min="32" max="32" width="15.42578125" customWidth="true"/>
-    <col min="33" max="33" width="14.7109375" customWidth="true"/>
-    <col min="34" max="34" width="22" customWidth="true"/>
-    <col min="35" max="35" width="36.28515625" customWidth="true"/>
-    <col min="36" max="36" width="32.42578125" customWidth="true"/>
-    <col min="37" max="37" width="20.85546875" customWidth="true"/>
-    <col min="38" max="38" width="20.85546875" customWidth="true"/>
-    <col min="39" max="39" width="20.85546875" customWidth="true"/>
-    <col min="40" max="40" width="20.85546875" customWidth="true"/>
-    <col min="41" max="41" width="20.85546875" customWidth="true"/>
-    <col min="42" max="42" width="20.85546875" customWidth="true"/>
-    <col min="43" max="43" width="20.85546875" customWidth="true"/>
-    <col min="44" max="44" width="20.85546875" customWidth="true"/>
-    <col min="45" max="45" width="20.85546875" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="19" max="19" width="41.85546875" customWidth="1"/>
+    <col min="20" max="20" width="44" customWidth="1"/>
+    <col min="21" max="22" width="15.42578125" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" customWidth="1"/>
+    <col min="33" max="33" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="22" style="5" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" customWidth="1"/>
+    <col min="36" max="36" width="32.42578125" customWidth="1"/>
+    <col min="37" max="45" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -527,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.920000000000002</v>
+        <v>25.92</v>
       </c>
       <c r="I2">
         <v>24.82</v>
@@ -554,7 +886,7 @@
         <v>0.67591708666838812</v>
       </c>
       <c r="Q2">
-        <v>0.028074726935057276</v>
+        <v>2.8074726935057276E-2</v>
       </c>
       <c r="R2">
         <v>0.15000000000000002</v>
@@ -604,7 +936,7 @@
       <c r="AG2">
         <v>0.66704876434684135</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="5">
         <v>5186.6711111111081</v>
       </c>
       <c r="AI2">
@@ -641,8 +973,8 @@
         <v>0.34948246529047805</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:45">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -664,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>31.460000000000001</v>
+        <v>31.46</v>
       </c>
       <c r="I3">
-        <v>32.640000000000001</v>
+        <v>32.64</v>
       </c>
       <c r="J3">
         <v>1.1799999999999997</v>
@@ -741,7 +1073,7 @@
       <c r="AG3">
         <v>0.88370551361174254</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="5">
         <v>3852.7288888888875</v>
       </c>
       <c r="AI3">
@@ -778,8 +1110,8 @@
         <v>1.5468236302370428</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:45">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -804,7 +1136,7 @@
         <v>31.68</v>
       </c>
       <c r="I4">
-        <v>31.109999999999999</v>
+        <v>31.11</v>
       </c>
       <c r="J4">
         <v>-0.57000000000000028</v>
@@ -828,10 +1160,10 @@
         <v>0.78348891652387764</v>
       </c>
       <c r="Q4">
-        <v>-0.056336426870844551</v>
+        <v>-5.6336426870844551E-2</v>
       </c>
       <c r="R4">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S4">
         <v>1.1666666666666665</v>
@@ -878,7 +1210,7 @@
       <c r="AG4">
         <v>1.5406903869536879</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="5">
         <v>2326.6022222222227</v>
       </c>
       <c r="AI4">
@@ -915,8 +1247,8 @@
         <v>-0.40827656418750669</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:45">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -938,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>32.579999999999998</v>
+        <v>32.58</v>
       </c>
       <c r="I5">
         <v>33.979999999999997</v>
@@ -986,7 +1318,7 @@
         <v>-1.1601705787452199</v>
       </c>
       <c r="X5">
-        <v>0.04292091584212878</v>
+        <v>4.292091584212878E-2</v>
       </c>
       <c r="Y5">
         <v>7.1746813581098241</v>
@@ -1015,7 +1347,7 @@
       <c r="AG5">
         <v>0.82347808598417249</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="5">
         <v>4803.8088888888879</v>
       </c>
       <c r="AI5">
@@ -1052,282 +1384,282 @@
         <v>-1.3168224775611159</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:45" s="3" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>23</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>57</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>32.710000000000001</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>32.71</v>
+      </c>
+      <c r="I6" s="3">
         <v>33.979999999999997</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>1.269999999999996</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>17.666666666666668</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>7.8630644717601257</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>2.1365103789854469</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>1.0693175088061515</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>0.71989909100637894</v>
       </c>
-      <c r="R6">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="S6">
+      <c r="R6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="3">
         <v>1.3333333333333335</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>1.1666666666666667</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>-1.9259502618856044</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="3">
         <v>0.12583495182967788</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
         <v>-1.6208335462396188</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="3">
         <v>0.24502285955661873</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="3">
         <v>2.2932327225291642</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="3">
         <v>3.2069135079441851</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="3">
         <v>0.14553169018086567</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="3">
         <v>3.1351162252380163</v>
       </c>
-      <c r="AC6">
-        <v>-0.076767386630186132</v>
-      </c>
-      <c r="AD6">
+      <c r="AC6" s="3">
+        <v>-7.6767386630186132E-2</v>
+      </c>
+      <c r="AD6" s="3">
         <v>-2.0031400658951291</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="3">
         <v>-1.5572881454785688</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="3">
         <v>0.85088390816787152</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="3">
         <v>1.3000577375420503</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="5">
         <v>9067.1200000000008</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="3">
         <v>1.4647634137417116</v>
       </c>
-      <c r="AJ6">
-        <v>0.091151079700916932</v>
-      </c>
-      <c r="AK6">
+      <c r="AJ6" s="3">
+        <v>9.1151079700916932E-2</v>
+      </c>
+      <c r="AK6" s="3">
         <v>6.6747145001146695</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="3">
         <v>-0.85221746461946424</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="3">
         <v>2.8008645281667941</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="3">
         <v>-0.9886930046359419</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="3">
         <v>-0.83679947404251165</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="3">
         <v>-0.52164648072605835</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="3">
         <v>0.25226370315421665</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="3">
         <v>-0.97839146736168869</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="3">
         <v>-0.52028715878154586</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:45" s="3" customFormat="1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>55</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>33.590000000000003</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>33.340000000000003</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>-0.25</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>4</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>2.7777777777777786</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>7.8193046333975857</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>2.5313286897854232</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>0.70184494854380686</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>0.34878440776541553</v>
       </c>
-      <c r="R7">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="S7">
+      <c r="R7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="S7" s="3">
         <v>0.71428571428571419</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
         <v>-1.4686433312669964</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="3">
         <v>-0.94418976852853864</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="3">
         <v>-2.5612080318000858</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="3">
         <v>0.27551249417154056</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="3">
         <v>5.3566787148560318</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="3">
         <v>0.91097289236864643</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="3">
         <v>-0.21867742058045836</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="3">
         <v>-1.0782986320840133</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="3">
         <v>-1.1179258765989262</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="3">
         <v>-2.2590392748586088</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="3">
         <v>2.5011755753436895</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="3">
         <v>-1.886381149534043</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="3">
         <v>-0.27955926016001426</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="5">
         <v>8459.2377777777783</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="3">
         <v>1.2783152173678893</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="3">
         <v>0.10199789474071344</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="3">
         <v>7.6186384609309892</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="3">
         <v>-0.69132535741211443</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="3">
         <v>0.8496950414632406</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="3">
         <v>-1.3393219920040327</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="3">
         <v>-0.75081593990053541</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="3">
         <v>-0.1346631350314344</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="3">
         <v>-0.23338238095033156</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="3">
         <v>0.34925748824569075</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="3">
         <v>-0.84186745867216695</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:45">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1349,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.359999999999999</v>
+        <v>34.36</v>
       </c>
       <c r="I8">
-        <v>34.689999999999998</v>
+        <v>34.69</v>
       </c>
       <c r="J8">
         <v>0.32999999999999829</v>
@@ -1385,7 +1717,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="T8">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="U8">
         <v>-1.5455596605124819</v>
@@ -1426,7 +1758,7 @@
       <c r="AG8">
         <v>2.7771463132744336</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="5">
         <v>3262.6711111111103</v>
       </c>
       <c r="AI8">
@@ -1454,7 +1786,7 @@
         <v>-3.3606060622250942</v>
       </c>
       <c r="AQ8">
-        <v>-0.040497332804971586</v>
+        <v>-4.0497332804971586E-2</v>
       </c>
       <c r="AR8">
         <v>0.49507030456140466</v>
@@ -1463,8 +1795,8 @@
         <v>-0.83843962932386018</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:45">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1486,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>36.420000000000002</v>
+        <v>36.42</v>
       </c>
       <c r="I9">
-        <v>37.810000000000002</v>
+        <v>37.81</v>
       </c>
       <c r="J9">
         <v>1.3900000000000006</v>
@@ -1516,7 +1848,7 @@
         <v>0.27521101676174525</v>
       </c>
       <c r="R9">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S9">
         <v>1.1666666666666667</v>
@@ -1543,7 +1875,7 @@
         <v>2.8545896489841089</v>
       </c>
       <c r="AA9">
-        <v>-0.087366038427527729</v>
+        <v>-8.7366038427527729E-2</v>
       </c>
       <c r="AB9">
         <v>1.7787892304519131</v>
@@ -1563,14 +1895,14 @@
       <c r="AG9">
         <v>1.501351573088809</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="5">
         <v>3344.8066666666668</v>
       </c>
       <c r="AI9">
         <v>1.2561828528953816</v>
       </c>
       <c r="AJ9">
-        <v>0.064708606310412892</v>
+        <v>6.4708606310412892E-2</v>
       </c>
       <c r="AK9">
         <v>-7.2787139953652673</v>
@@ -1600,8 +1932,8 @@
         <v>-0.1025026531927859</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:45">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1623,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>36.460000000000001</v>
+        <v>36.46</v>
       </c>
       <c r="I10">
-        <v>37.530000000000001</v>
+        <v>37.53</v>
       </c>
       <c r="J10">
         <v>1.0700000000000003</v>
@@ -1665,7 +1997,7 @@
         <v>-1.9649223910851015</v>
       </c>
       <c r="V10">
-        <v>-0.003062392097401969</v>
+        <v>-3.062392097401969E-3</v>
       </c>
       <c r="W10">
         <v>-0.42012214080926619</v>
@@ -1700,7 +2032,7 @@
       <c r="AG10">
         <v>-1.0765938612733195</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="5">
         <v>3438.528888888889</v>
       </c>
       <c r="AI10">
@@ -1737,282 +2069,282 @@
         <v>1.683982158454314</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>28</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>55</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>36.890000000000001</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="7">
+        <v>36.89</v>
+      </c>
+      <c r="I11" s="7">
         <v>37.75</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <v>0.85999999999999943</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="7">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <v>-16.916666666666668</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
         <v>10.209952653543358</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="7">
         <v>-1.9904837908998214</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <v>-2.5924610089169242</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="7">
         <v>0.43219643374566763</v>
       </c>
-      <c r="R11">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="S11">
+      <c r="R11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="S11" s="7">
         <v>1.5000000000000002</v>
       </c>
-      <c r="T11">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="U11">
+      <c r="T11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="U11" s="7">
         <v>-1.6966732107425146</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="7">
         <v>0.18176730585235226</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="7">
         <v>1.4629881837865657</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="7">
         <v>3.1528091153494744</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="7">
         <v>-3.2034671892600954</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="7">
         <v>2.7897237962938131</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="7">
         <v>-0.26560799393589501</v>
       </c>
-      <c r="AB11">
-        <v>-0.011457370535099728</v>
-      </c>
-      <c r="AC11">
+      <c r="AB11" s="7">
+        <v>-1.1457370535099728E-2</v>
+      </c>
+      <c r="AC11" s="7">
         <v>-0.26854775573439521</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="7">
         <v>1.0435418227993001</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="7">
         <v>-0.82652631553392852</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="7">
         <v>1.9130141859698284</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="7">
         <v>1.2217060601689009</v>
       </c>
-      <c r="AH11">
-        <v>4711.2399999999998</v>
-      </c>
-      <c r="AI11">
+      <c r="AH11" s="8">
+        <v>4711.24</v>
+      </c>
+      <c r="AI11" s="7">
         <v>1.8630457934718827</v>
       </c>
-      <c r="AJ11">
-        <v>0.092649352046028921</v>
-      </c>
-      <c r="AK11">
+      <c r="AJ11" s="7">
+        <v>9.2649352046028921E-2</v>
+      </c>
+      <c r="AK11" s="7">
         <v>-1.0871036328625197</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="7">
         <v>-0.20029775695653526</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="7">
         <v>2.8833422061305871</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="7">
         <v>1.306710715192916</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="7">
         <v>-1.50992336348005</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="7">
         <v>-2.9550407087420374</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="7">
         <v>0.19804873220889066</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="7">
         <v>1.3324216353762366</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="7">
         <v>-0.53416634287655096</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:45" s="3" customFormat="1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>56</v>
       </c>
-      <c r="G12" t="b">
+      <c r="G12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>27.190000000000001</v>
-      </c>
-      <c r="I12">
-        <v>26.739999999999998</v>
-      </c>
-      <c r="J12">
+      <c r="H12" s="3">
+        <v>27.19</v>
+      </c>
+      <c r="I12" s="3">
+        <v>26.74</v>
+      </c>
+      <c r="J12" s="3">
         <v>-0.45000000000000284</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>8</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>-15.433333333333328</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>10</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>-27.59090909090909</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>-1.932332797481114</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>1.9734613792942597</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>-0.15103663075324514</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="3">
         <v>0.85810196137694139</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="3">
         <v>-0.26071427905970468</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="3">
         <v>2.269979159324103</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="3">
         <v>-0.42109227328783699</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="3">
         <v>0.63856539347744112</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="3">
         <v>-3.4223178979406428</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="3">
         <v>-1.998178123482697</v>
       </c>
-      <c r="AB12">
-        <v>0.093154324409804146</v>
-      </c>
-      <c r="AC12">
+      <c r="AB12" s="3">
+        <v>9.3154324409804146E-2</v>
+      </c>
+      <c r="AC12" s="3">
         <v>1.6201444668560696</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="3">
         <v>-0.74581027752686246</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="3">
         <v>0.57147659086681657</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="3">
         <v>-1.8064568667295893</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="3">
         <v>-1.0491245712246609</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="5">
         <v>16292.339999999995</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="3">
         <v>1.1258317602195844</v>
       </c>
-      <c r="AJ12">
-        <v>0.071362097498306257</v>
-      </c>
-      <c r="AK12">
+      <c r="AJ12" s="3">
+        <v>7.1362097498306257E-2</v>
+      </c>
+      <c r="AK12" s="3">
         <v>3.4069189162404574</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="3">
         <v>4.247888014871263</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="3">
         <v>-0.67614624147592695</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="3">
         <v>0.32453412606368387</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="3">
         <v>-1.0493273011980766</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="3">
         <v>0.90108816786241219</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="3">
         <v>3.5529409666540843</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="3">
         <v>1.7499009642095873</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="3">
         <v>2.0552231043316693</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:45">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2034,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>30.710000000000001</v>
+        <v>30.71</v>
       </c>
       <c r="I13">
-        <v>29.960000000000001</v>
+        <v>29.96</v>
       </c>
       <c r="J13">
         <v>-0.75</v>
@@ -2076,7 +2408,7 @@
         <v>-1.961305337347039</v>
       </c>
       <c r="V13">
-        <v>-0.083449011153151093</v>
+        <v>-8.3449011153151093E-2</v>
       </c>
       <c r="W13">
         <v>-1.4922742082245062</v>
@@ -2111,14 +2443,14 @@
       <c r="AG13">
         <v>0.44629571579501232</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="5">
         <v>1965.1444444444455</v>
       </c>
       <c r="AI13">
         <v>2.3391621939053833</v>
       </c>
       <c r="AJ13">
-        <v>0.06794411493641965</v>
+        <v>6.794411493641965E-2</v>
       </c>
       <c r="AK13">
         <v>-4.7747422800751647</v>
@@ -2148,282 +2480,282 @@
         <v>0.9667014755664155</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:45" s="3" customFormat="1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>75</v>
       </c>
-      <c r="G14" t="b">
+      <c r="G14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>32.32</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>31.82</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>-0.5</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>26.499999999999996</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
         <v>16.888735326906684</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>2.5519499806093289</v>
       </c>
-      <c r="P14">
-        <v>0.013147040610845333</v>
-      </c>
-      <c r="Q14">
+      <c r="P14" s="3">
+        <v>1.3147040610845333E-2</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1.1907804886224469</v>
       </c>
-      <c r="R14">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
+      <c r="R14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
         <v>1.2857142857142856</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="3">
         <v>3.0181920905929083</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="3">
         <v>-0.80838972552325339</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="3">
         <v>1.6678163959160091</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="3">
         <v>-1.4045934605830919</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="3">
         <v>1.0438739244731692</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="3">
         <v>-2.3767374445351468</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="3">
         <v>-0.20910417290846325</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="3">
         <v>-3.3808603391072918</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="3">
         <v>-1.9045826829184629</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="3">
         <v>-2.8007397549677973</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="3">
         <v>2.2598026305395629</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="3">
         <v>-0.50039528857851689</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="3">
         <v>-1.1609485982077783</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="5">
         <v>6761.722222222219</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="3">
         <v>1.0959439710270247</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="3">
         <v>0.12284411433641999</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="3">
         <v>4.0472258802399823</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="3">
         <v>4.1108558919480727</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="3">
         <v>-0.9306124464508696</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" s="3">
         <v>-0.29036316665645612</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" s="3">
         <v>-1.8875246154495533</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" s="3">
         <v>-0.32882268745085985</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" s="3">
         <v>2.2673585755400105</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" s="3">
         <v>3.3560394780652221</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" s="3">
         <v>-0.44788644212468565</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:45" s="3" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>37</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>75</v>
       </c>
-      <c r="G15" t="b">
+      <c r="G15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>32.920000000000002</v>
-      </c>
-      <c r="I15">
-        <v>33.719999999999999</v>
-      </c>
-      <c r="J15">
+      <c r="H15" s="3">
+        <v>32.92</v>
+      </c>
+      <c r="I15" s="3">
+        <v>33.72</v>
+      </c>
+      <c r="J15" s="3">
         <v>0.79999999999999716</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>14.999999999999998</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>5</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>2.6078722002635057</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>1.6448138881484369</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>-0.23993383839529517</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="3">
         <v>-0.13782739559106813</v>
       </c>
-      <c r="R15">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="S15">
+      <c r="R15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S15" s="3">
         <v>0.875</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>-0.0020071195857735823</v>
-      </c>
-      <c r="V15">
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
+        <v>-2.0071195857735823E-3</v>
+      </c>
+      <c r="V15" s="3">
         <v>0.1571244662175322</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="3">
         <v>-0.95003352186591505</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="3">
         <v>0.29484995805955139</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="3">
         <v>-2.2430149976884839</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="3">
         <v>-4.7000594761702015</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="3">
         <v>-2.1162989696460421</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="3">
         <v>0.74098275451490769</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="3">
         <v>0.14720083561580613</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="3">
         <v>0.33209062122566729</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="3">
         <v>-2.9260329875007036</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="3">
         <v>3.4832556529331016</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="3">
         <v>0.58806375032683877</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="5">
         <v>5220.4022222222202</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="3">
         <v>1.1746185561051377</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="3">
         <v>0.10604844837413557</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="3">
         <v>4.3846100503951391</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="3">
         <v>2.3410792229601132</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="3">
         <v>0.77784389223473849</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="3">
         <v>1.2405914202238055</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" s="3">
         <v>-2.2102429647723265</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" s="3">
         <v>-1.4262165853277102</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="3">
         <v>2.2611499008724185</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="3">
         <v>1.0282781747277632</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="3">
         <v>-0.9754904143948252</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:45">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2517,19 +2849,19 @@
         <v>0.59832453266723273</v>
       </c>
       <c r="AF16">
-        <v>-0.064048314987959001</v>
+        <v>-6.4048314987959001E-2</v>
       </c>
       <c r="AG16">
         <v>1.2612934236283893</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="5">
         <v>5632.1911111111112</v>
       </c>
       <c r="AI16">
         <v>1.5664704928296731</v>
       </c>
       <c r="AJ16">
-        <v>0.060579541571742779</v>
+        <v>6.0579541571742779E-2</v>
       </c>
       <c r="AK16">
         <v>-6.7660508672731128</v>
@@ -2559,8 +2891,8 @@
         <v>-2.5318163406889607</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:45">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2585,7 +2917,7 @@
         <v>33.909999999999997</v>
       </c>
       <c r="I17">
-        <v>32.579999999999998</v>
+        <v>32.58</v>
       </c>
       <c r="J17">
         <v>-1.3299999999999983</v>
@@ -2612,7 +2944,7 @@
         <v>0.4586128774583258</v>
       </c>
       <c r="R17">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -2657,16 +2989,16 @@
         <v>-0.43750365639040961</v>
       </c>
       <c r="AG17">
-        <v>0.095233141011465947</v>
-      </c>
-      <c r="AH17">
+        <v>9.5233141011465947E-2</v>
+      </c>
+      <c r="AH17" s="5">
         <v>5103.4822222222228</v>
       </c>
       <c r="AI17">
         <v>1.2476082995178057</v>
       </c>
       <c r="AJ17">
-        <v>0.078821562793508743</v>
+        <v>7.8821562793508743E-2</v>
       </c>
       <c r="AK17">
         <v>4.5359188934362829</v>
@@ -2696,8 +3028,8 @@
         <v>-0.69254294620224599</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:45">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2719,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35.990000000000002</v>
+        <v>35.99</v>
       </c>
       <c r="I18">
         <v>35.409999999999997</v>
@@ -2749,7 +3081,7 @@
         <v>0.62171678524480556</v>
       </c>
       <c r="R18">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S18">
         <v>0.5</v>
@@ -2796,14 +3128,14 @@
       <c r="AG18">
         <v>1.1355531075992678</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="5">
         <v>1378.7755555555557</v>
       </c>
       <c r="AI18">
         <v>2.327096296062638</v>
       </c>
       <c r="AJ18">
-        <v>0.068825963133150342</v>
+        <v>6.8825963133150342E-2</v>
       </c>
       <c r="AK18">
         <v>-2.262920693693256</v>
@@ -2833,8 +3165,8 @@
         <v>-2.1806177213128044</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:45">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2856,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36.039999999999999</v>
+        <v>36.04</v>
       </c>
       <c r="I19">
         <v>35.07</v>
@@ -2913,7 +3245,7 @@
         <v>-1.1248598078989682</v>
       </c>
       <c r="AA19">
-        <v>-0.017461070494809886</v>
+        <v>-1.7461070494809886E-2</v>
       </c>
       <c r="AB19">
         <v>-1.3537848863830222</v>
@@ -2933,14 +3265,14 @@
       <c r="AG19">
         <v>1.552790969748566</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="5">
         <v>3973.1355555555551</v>
       </c>
       <c r="AI19">
         <v>1.3300235008509032</v>
       </c>
       <c r="AJ19">
-        <v>0.066945166733690872</v>
+        <v>6.6945166733690872E-2</v>
       </c>
       <c r="AK19">
         <v>4.8055864760162521</v>
@@ -2970,8 +3302,8 @@
         <v>-0.42964906455375212</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:45">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2993,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36.689999999999998</v>
+        <v>36.69</v>
       </c>
       <c r="I20">
         <v>34.700000000000003</v>
@@ -3023,7 +3355,7 @@
         <v>0.2878762584835251</v>
       </c>
       <c r="R20">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S20">
         <v>1.1111111111111112</v>
@@ -3035,7 +3367,7 @@
         <v>-1.2126086285849096</v>
       </c>
       <c r="V20">
-        <v>0.0141810643314811</v>
+        <v>1.41810643314811E-2</v>
       </c>
       <c r="W20">
         <v>0.48555534645015253</v>
@@ -3050,7 +3382,7 @@
         <v>-1.6247343387466264</v>
       </c>
       <c r="AA20">
-        <v>-0.026712873221181405</v>
+        <v>-2.6712873221181405E-2</v>
       </c>
       <c r="AB20">
         <v>-2.0989246437322895</v>
@@ -3070,14 +3402,14 @@
       <c r="AG20">
         <v>-0.18240496813473811</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="5">
         <v>1040.8933333333337</v>
       </c>
       <c r="AI20">
         <v>2.7473356183145068</v>
       </c>
       <c r="AJ20">
-        <v>0.075168338307692942</v>
+        <v>7.5168338307692942E-2</v>
       </c>
       <c r="AK20">
         <v>-12.285251915929125</v>
@@ -3092,7 +3424,7 @@
         <v>-1.9821486115969102</v>
       </c>
       <c r="AO20">
-        <v>0.061104032694974629</v>
+        <v>6.1104032694974629E-2</v>
       </c>
       <c r="AP20">
         <v>-1.4967867158491739</v>
@@ -3107,145 +3439,145 @@
         <v>1.1292254059619942</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>14</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
         <v>5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>56</v>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>40.030000000000001</v>
-      </c>
-      <c r="I21">
-        <v>37.210000000000001</v>
-      </c>
-      <c r="J21">
+      <c r="G21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>40.03</v>
+      </c>
+      <c r="I21" s="7">
+        <v>37.21</v>
+      </c>
+      <c r="J21" s="7">
         <v>-2.8200000000000003</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7">
         <v>28.388095238095232</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="7">
         <v>8</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="7">
         <v>-6.5142855796679733</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="7">
         <v>-6.3466827565585682</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="7">
         <v>0.3155484498587125</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="7">
         <v>0.11938281314771498</v>
       </c>
-      <c r="R21">
-        <v>0.45000000000000001</v>
-      </c>
-      <c r="S21">
+      <c r="R21" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="S21" s="7">
         <v>3.333333333333333</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="7">
         <v>0.33333333333333337</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="7">
         <v>-0.76646697002727371</v>
       </c>
-      <c r="V21">
-        <v>0.090879086493732372</v>
-      </c>
-      <c r="W21">
+      <c r="V21" s="7">
+        <v>9.0879086493732372E-2</v>
+      </c>
+      <c r="W21" s="7">
         <v>0.84764323758665583</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="7">
         <v>0.1603369458270702</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="7">
         <v>-2.5086680459283111</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="7">
         <v>0.63650436161992618</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="7">
         <v>1.6795703106043514</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="7">
         <v>1.7355098987829412</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="7">
         <v>-0.61560481870956385</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="7">
         <v>-2.4910837548167599</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="7">
         <v>-1.6232172248853869</v>
       </c>
-      <c r="AF21">
-        <v>-0.084774814247426111</v>
-      </c>
-      <c r="AG21">
+      <c r="AF21" s="7">
+        <v>-8.4774814247426111E-2</v>
+      </c>
+      <c r="AG21" s="7">
         <v>1.7251925386802727</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="8">
         <v>3782.1733333333323</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="7">
         <v>1.3585664344646942</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="7">
         <v>0.12938181339594282</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="7">
         <v>-4.2960531707346146</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="7">
         <v>2.6649032630872993</v>
       </c>
-      <c r="AM21">
-        <v>-0.098141269753580451</v>
-      </c>
-      <c r="AN21">
+      <c r="AM21" s="7">
+        <v>-9.8141269753580451E-2</v>
+      </c>
+      <c r="AN21" s="7">
         <v>-5.643345172116887</v>
       </c>
-      <c r="AO21">
+      <c r="AO21" s="7">
         <v>-0.55331202770744448</v>
       </c>
-      <c r="AP21">
+      <c r="AP21" s="7">
         <v>1.2207380312761957</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="7">
         <v>0.86986195623529361</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" s="7">
         <v>-0.90297588628152059</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" s="7">
         <v>-0.16584066964212993</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:45">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3267,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28.629999999999999</v>
+        <v>28.63</v>
       </c>
       <c r="I22">
-        <v>29.170000000000002</v>
+        <v>29.17</v>
       </c>
       <c r="J22">
         <v>0.5400000000000027</v>
@@ -3297,13 +3629,13 @@
         <v>-0.72792106857176997</v>
       </c>
       <c r="R22">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="U22">
         <v>1.1841521070792485</v>
@@ -3345,8 +3677,8 @@
         <v>-1.7121074454103868</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:45">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3368,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.829999999999998</v>
+        <v>29.83</v>
       </c>
       <c r="I23">
-        <v>28.940000000000001</v>
+        <v>28.94</v>
       </c>
       <c r="J23">
         <v>-0.88999999999999702</v>
@@ -3413,7 +3745,7 @@
         <v>0.3280614347660667</v>
       </c>
       <c r="W23">
-        <v>0.047540128508039813</v>
+        <v>4.7540128508039813E-2</v>
       </c>
       <c r="X23">
         <v>-1.1869890946694055</v>
@@ -3445,7 +3777,7 @@
       <c r="AG23">
         <v>-0.4786663020700474</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="5">
         <v>3009.0999999999995</v>
       </c>
       <c r="AI23">
@@ -3482,8 +3814,8 @@
         <v>1.5466140507312964</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:45">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3505,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31.690000000000001</v>
+        <v>31.69</v>
       </c>
       <c r="I24">
-        <v>30.960000000000001</v>
+        <v>30.96</v>
       </c>
       <c r="J24">
         <v>-0.73000000000000043</v>
@@ -3550,7 +3882,7 @@
         <v>0.43111901141149167</v>
       </c>
       <c r="W24">
-        <v>-0.022129537235449512</v>
+        <v>-2.2129537235449512E-2</v>
       </c>
       <c r="X24">
         <v>-1.1618730836937294</v>
@@ -3582,7 +3914,7 @@
       <c r="AG24">
         <v>-2.3083101222904889</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="5">
         <v>9189.1282051282178</v>
       </c>
       <c r="AI24">
@@ -3616,285 +3948,285 @@
         <v>0.24706948216852045</v>
       </c>
       <c r="AS24">
-        <v>-0.013009329464230408</v>
+        <v>-1.3009329464230408E-2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:45" s="3" customFormat="1">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>32</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>9</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>61</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G25" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>32.409999999999997</v>
       </c>
-      <c r="I25">
-        <v>31.719999999999999</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="3">
+        <v>31.72</v>
+      </c>
+      <c r="J25" s="3">
         <v>-0.68999999999999773</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>10</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>-18.938095238095237</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
         <v>10.441666666666663</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>0.23278572022155961</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>-1.6159960769066375</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>0.3769505690082513</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="3">
         <v>0.5</v>
       </c>
-      <c r="S25">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="T25">
+      <c r="S25" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T25" s="3">
         <v>0.90909090909090906</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="3">
         <v>-1.0563210935658944</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="3">
         <v>0.92494158611758082</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="3">
         <v>-2.0323660946031161</v>
       </c>
-      <c r="X25">
-        <v>-0.0054337464181153233</v>
-      </c>
-      <c r="Y25">
+      <c r="X25" s="3">
+        <v>-5.4337464181153233E-3</v>
+      </c>
+      <c r="Y25" s="3">
         <v>1.7841262355497096</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="3">
         <v>0.96775610336201412</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="3">
         <v>-0.67471160337613911</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="3">
         <v>1.7313850653296012</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="3">
         <v>1.0118457997073778</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="3">
         <v>-0.93996607883773409</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="3">
         <v>-0.32214486166627504</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="3">
         <v>-1.2390614100780908</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="3">
         <v>3.6950751687964614</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="5">
         <v>13468.974358974352</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" s="3">
         <v>1.8848312905883053</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="3">
         <v>0.11312665384835054</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="3">
         <v>5.5563192617895165</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" s="3">
         <v>-0.82358227036618981</v>
       </c>
-      <c r="AM25">
+      <c r="AM25" s="3">
         <v>-2.8953706662021044</v>
       </c>
-      <c r="AN25">
+      <c r="AN25" s="3">
         <v>0.95465113010142244</v>
       </c>
-      <c r="AO25">
+      <c r="AO25" s="3">
         <v>-0.80167234787234887</v>
       </c>
-      <c r="AP25">
+      <c r="AP25" s="3">
         <v>0.22941200414797927</v>
       </c>
-      <c r="AQ25">
+      <c r="AQ25" s="3">
         <v>0.14415884221224678</v>
       </c>
-      <c r="AR25">
+      <c r="AR25" s="3">
         <v>0.33358910655988849</v>
       </c>
-      <c r="AS25">
-        <v>0.08878426731065539</v>
+      <c r="AS25" s="3">
+        <v>8.878426731065539E-2</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:45" s="3" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
         <v>7</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>78</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>32.710000000000001</v>
-      </c>
-      <c r="I26">
-        <v>32.560000000000002</v>
-      </c>
-      <c r="J26">
+      <c r="H26" s="3">
+        <v>32.71</v>
+      </c>
+      <c r="I26" s="3">
+        <v>32.56</v>
+      </c>
+      <c r="J26" s="3">
         <v>-0.14999999999999858</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>8.9547619047619023</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>2</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>9.591666666666665</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>1.7981099396288658</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>-1.4600362817519923</v>
       </c>
-      <c r="Q26">
-        <v>0.038179993526897146</v>
-      </c>
-      <c r="R26">
-        <v>0.45000000000000001</v>
-      </c>
-      <c r="S26">
+      <c r="Q26" s="3">
+        <v>3.8179993526897146E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="S26" s="3">
         <v>2.5</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="3">
         <v>0.5</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="3">
         <v>-0.44585504122410125</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="3">
         <v>0.37617069257925501</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="3">
         <v>-1.8719214839433804</v>
       </c>
-      <c r="X26">
-        <v>-0.0096730186868708157</v>
-      </c>
-      <c r="Y26">
+      <c r="X26" s="3">
+        <v>-9.6730186868708157E-3</v>
+      </c>
+      <c r="Y26" s="3">
         <v>0.55969670795592485</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="3">
         <v>1.6391159931000658</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="3">
         <v>-0.18982377782840873</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="3">
         <v>2.4499327202113101</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="3">
         <v>-4.4200526213626361</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="3">
         <v>-1.3042305992180729</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="3">
         <v>-0.93014449068947169</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="3">
         <v>0.7436439765117846</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="3">
         <v>0.25214646030579707</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="5">
         <v>11803.271794871798</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="3">
         <v>1.3804769538702819</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="3">
         <v>0.15494552140692847</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="3">
         <v>5.496135534039186</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="3">
         <v>2.8667390597057256</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" s="3">
         <v>-2.0478123284408905</v>
       </c>
-      <c r="AN26">
+      <c r="AN26" s="3">
         <v>-1.4211751130760231</v>
       </c>
-      <c r="AO26">
-        <v>-0.086707237826158287</v>
-      </c>
-      <c r="AP26">
+      <c r="AO26" s="3">
+        <v>-8.6707237826158287E-2</v>
+      </c>
+      <c r="AP26" s="3">
         <v>-0.35016227756466556</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ26" s="3">
         <v>-1.3270340557530431</v>
       </c>
-      <c r="AR26">
+      <c r="AR26" s="3">
         <v>0.72991912513971013</v>
       </c>
-      <c r="AS26">
+      <c r="AS26" s="3">
         <v>-0.47635450245024213</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:45">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
@@ -3994,8 +4326,8 @@
         <v>1.9520240499640036</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:45">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
@@ -4017,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>34.189999999999998</v>
+        <v>34.19</v>
       </c>
       <c r="I28">
-        <v>32.359999999999999</v>
+        <v>32.36</v>
       </c>
       <c r="J28">
         <v>-1.8299999999999983</v>
@@ -4047,13 +4379,13 @@
         <v>-0.24534200359585878</v>
       </c>
       <c r="R28">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S28">
         <v>0.77777777777777779</v>
       </c>
       <c r="T28">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="U28">
         <v>0.12035119766731461</v>
@@ -4094,7 +4426,7 @@
       <c r="AG28">
         <v>1.6958273807694353</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="5">
         <v>5224.6564102564071</v>
       </c>
       <c r="AI28">
@@ -4131,8 +4463,8 @@
         <v>-0.85408735988100781</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:45">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29">
@@ -4154,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34.469999999999999</v>
+        <v>34.47</v>
       </c>
       <c r="I29">
-        <v>36.170000000000002</v>
+        <v>36.17</v>
       </c>
       <c r="J29">
         <v>1.7000000000000028</v>
@@ -4184,7 +4516,7 @@
         <v>-1.1484319905878024</v>
       </c>
       <c r="R29">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S29">
         <v>0.90909090909090906</v>
@@ -4214,10 +4546,10 @@
         <v>-0.45763485926372505</v>
       </c>
       <c r="AB29">
-        <v>-0.070847581747914126</v>
+        <v>-7.0847581747914126E-2</v>
       </c>
       <c r="AC29">
-        <v>-0.014217905676736659</v>
+        <v>-1.4217905676736659E-2</v>
       </c>
       <c r="AD29">
         <v>-0.31070712082712221</v>
@@ -4231,14 +4563,14 @@
       <c r="AG29">
         <v>0.39062701939998101</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="5">
         <v>2623.5846153846146</v>
       </c>
       <c r="AI29">
         <v>1.6473269222555884</v>
       </c>
       <c r="AJ29">
-        <v>0.058930920506099507</v>
+        <v>5.8930920506099507E-2</v>
       </c>
       <c r="AK29">
         <v>-12.570166361971754</v>
@@ -4268,8 +4600,8 @@
         <v>-0.38047516046763663</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:45">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B30">
@@ -4291,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35.509999999999998</v>
+        <v>35.51</v>
       </c>
       <c r="I30">
-        <v>33.640000000000001</v>
+        <v>33.64</v>
       </c>
       <c r="J30">
         <v>-1.8699999999999974</v>
@@ -4368,7 +4700,7 @@
       <c r="AG30">
         <v>1.4943818054405094</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="5">
         <v>8245.3025641025579</v>
       </c>
       <c r="AI30">
@@ -4405,145 +4737,145 @@
         <v>-1.832495606181747</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:45" s="10" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="10">
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="10">
         <v>3</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
         <v>8</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="10">
         <v>59</v>
       </c>
-      <c r="G31" t="b">
+      <c r="G31" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>37.509999999999998</v>
-      </c>
-      <c r="I31">
-        <v>33.420000000000002</v>
-      </c>
-      <c r="J31">
+      <c r="H31" s="10">
+        <v>37.51</v>
+      </c>
+      <c r="I31" s="10">
+        <v>33.42</v>
+      </c>
+      <c r="J31" s="10">
         <v>-4.0899999999999963</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
         <v>17.416666666666664</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="10">
         <v>4</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="10">
         <v>7.0833333333333357</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="10">
         <v>0.77704722382606828</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="10">
         <v>-1.4362298385615373</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="10">
         <v>-0.68493085174950219</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="10">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="10">
         <v>1.1428571428571428</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="10">
         <v>0.5714285714285714</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="10">
         <v>0.64906991928755153</v>
       </c>
-      <c r="V31">
-        <v>-0.0060034675498069068</v>
-      </c>
-      <c r="W31">
+      <c r="V31" s="10">
+        <v>-6.0034675498069068E-3</v>
+      </c>
+      <c r="W31" s="10">
         <v>0.37165924260305516</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="10">
         <v>0.56490892295246409</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="10">
         <v>2.6016473577835173</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="10">
         <v>0.68847902434021746</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="10">
         <v>-2.1549462958360661</v>
       </c>
-      <c r="AB31">
+      <c r="AB31" s="10">
         <v>-0.41591453277189122</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" s="10">
         <v>-0.36555449277272106</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" s="10">
         <v>-1.1056256829626927</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="10">
         <v>1.4576790124251111</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" s="10">
         <v>2.6725783724823153</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="10">
         <v>0.36256055787979752</v>
       </c>
-      <c r="AH31">
+      <c r="AH31" s="8">
         <v>10424.417948717957</v>
       </c>
-      <c r="AI31">
+      <c r="AI31" s="10">
         <v>2.0491031016896186</v>
       </c>
-      <c r="AJ31">
+      <c r="AJ31" s="10">
         <v>0.16599783102936558</v>
       </c>
-      <c r="AK31">
+      <c r="AK31" s="10">
         <v>4.210576881916535</v>
       </c>
-      <c r="AL31">
+      <c r="AL31" s="10">
         <v>4.2976034297481984</v>
       </c>
-      <c r="AM31">
+      <c r="AM31" s="10">
         <v>-2.3127659747791092</v>
       </c>
-      <c r="AN31">
+      <c r="AN31" s="10">
         <v>-1.4901823477088572</v>
       </c>
-      <c r="AO31">
+      <c r="AO31" s="10">
         <v>-0.55453826367066983</v>
       </c>
-      <c r="AP31">
+      <c r="AP31" s="10">
         <v>-1.1335276291163765</v>
       </c>
-      <c r="AQ31">
+      <c r="AQ31" s="10">
         <v>-1.6573708021164808</v>
       </c>
-      <c r="AR31">
+      <c r="AR31" s="10">
         <v>1.3976824616999264</v>
       </c>
-      <c r="AS31">
+      <c r="AS31" s="10">
         <v>0.36820732001139567</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:45">
+      <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B32">
@@ -4565,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30.890000000000001</v>
+        <v>30.89</v>
       </c>
       <c r="I32">
         <v>27.91</v>
@@ -4595,7 +4927,7 @@
         <v>-0.26121303980774419</v>
       </c>
       <c r="R32">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S32">
         <v>1.25</v>
@@ -4631,7 +4963,7 @@
         <v>-0.25687013251134572</v>
       </c>
       <c r="AD32">
-        <v>0.053603481764330649</v>
+        <v>5.3603481764330649E-2</v>
       </c>
       <c r="AE32">
         <v>-2.7129341556969222</v>
@@ -4642,7 +4974,7 @@
       <c r="AG32">
         <v>-0.17808436836196137</v>
       </c>
-      <c r="AH32">
+      <c r="AH32" s="5">
         <v>743.90256410256416</v>
       </c>
       <c r="AI32">
@@ -4679,8 +5011,8 @@
         <v>-0.4602472125773438</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:45">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B33">
@@ -4705,7 +5037,7 @@
         <v>32.479999999999997</v>
       </c>
       <c r="I33">
-        <v>30.890000000000001</v>
+        <v>30.89</v>
       </c>
       <c r="J33">
         <v>-1.5899999999999963</v>
@@ -4732,7 +5064,7 @@
         <v>0.3771462128958073</v>
       </c>
       <c r="R33">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S33">
         <v>1.1428571428571428</v>
@@ -4779,14 +5111,14 @@
       <c r="AG33">
         <v>-0.39561462220078703</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="5">
         <v>3224.666666666667</v>
       </c>
       <c r="AI33">
         <v>1.5166521997331046</v>
       </c>
       <c r="AJ33">
-        <v>0.083954612681096052</v>
+        <v>8.3954612681096052E-2</v>
       </c>
       <c r="AK33">
         <v>2.094674284355428</v>
@@ -4816,282 +5148,282 @@
         <v>1.0998529620778026</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:45" s="3" customFormat="1">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
         <v>10</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>79</v>
       </c>
-      <c r="G34" t="b">
+      <c r="G34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>32.689999999999998</v>
-      </c>
-      <c r="I34">
-        <v>31.109999999999999</v>
-      </c>
-      <c r="J34">
+      <c r="H34" s="3">
+        <v>32.69</v>
+      </c>
+      <c r="I34" s="3">
+        <v>31.11</v>
+      </c>
+      <c r="J34" s="3">
         <v>-1.5799999999999983</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>8</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>-12.833333333333332</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <v>7</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <v>-6.8413729128014831</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="3">
         <v>2.2842154750118859</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <v>0.36666886949504091</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="3">
         <v>-0.30814630543280369</v>
       </c>
-      <c r="R34">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34">
+      <c r="R34" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S34" s="3">
+        <v>1</v>
+      </c>
+      <c r="T34" s="3">
         <v>1.1428571428571428</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="3">
         <v>0.33500132606503108</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="3">
         <v>-0.56604095212391958</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="3">
         <v>-2.3935835200756608</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="3">
         <v>-0.75943533954401798</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="3">
         <v>-1.2810628248602518</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="3">
         <v>-0.65097879859387486</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="3">
         <v>-2.1613937226519218</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="3">
         <v>-0.89843731156132289</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="3">
         <v>-1.1126292430293745</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="3">
         <v>-0.24200683541096168</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="3">
         <v>1.129925613172635</v>
       </c>
-      <c r="AF34">
-        <v>-0.03400269898106742</v>
-      </c>
-      <c r="AG34">
+      <c r="AF34" s="3">
+        <v>-3.400269898106742E-2</v>
+      </c>
+      <c r="AG34" s="3">
         <v>0.77088716534562385</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="5">
         <v>5363.1820512820514</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" s="3">
         <v>1.5864488267770036</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ34" s="3">
         <v>0.10278484692162754</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" s="3">
         <v>-0.75899511354533378</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" s="3">
         <v>1.4866651645478268</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" s="3">
         <v>5.3614234181588616</v>
       </c>
-      <c r="AN34">
+      <c r="AN34" s="3">
         <v>0.75679961398369044</v>
       </c>
-      <c r="AO34">
+      <c r="AO34" s="3">
         <v>1.5462775202701022</v>
       </c>
-      <c r="AP34">
+      <c r="AP34" s="3">
         <v>1.1156215624661696</v>
       </c>
-      <c r="AQ34">
+      <c r="AQ34" s="3">
         <v>-2.3040091677574459</v>
       </c>
-      <c r="AR34">
+      <c r="AR34" s="3">
         <v>-0.18534206423072733</v>
       </c>
-      <c r="AS34">
+      <c r="AS34" s="3">
         <v>-0.28974637402891923</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:45" s="3" customFormat="1">
+      <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>17</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>4</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>61</v>
       </c>
-      <c r="G35" t="b">
+      <c r="G35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>32.780000000000001</v>
-      </c>
-      <c r="I35">
-        <v>33.789999999999999</v>
-      </c>
-      <c r="J35">
+      <c r="H35" s="3">
+        <v>32.78</v>
+      </c>
+      <c r="I35" s="3">
+        <v>33.79</v>
+      </c>
+      <c r="J35" s="3">
         <v>1.009999999999998</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>2</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>11.21428571428571</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <v>4</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <v>6.1689961838393881</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="3">
         <v>1.2044858647382868</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <v>0.85010110740734646</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="3">
         <v>0.7417662902582659</v>
       </c>
-      <c r="R35">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="S35">
+      <c r="R35" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S35" s="3">
         <v>1.375</v>
       </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
+      <c r="T35" s="3">
+        <v>1</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1.9025361354721608</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="3">
         <v>-0.25712540778093818</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="3">
         <v>-1.7099505716855996</v>
       </c>
-      <c r="X35">
-        <v>-0.078246992466941973</v>
-      </c>
-      <c r="Y35">
+      <c r="X35" s="3">
+        <v>-7.8246992466941973E-2</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-6.3667877752283539</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="3">
         <v>-0.8226516132203805</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="3">
         <v>0.67886652667999403</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" s="3">
         <v>-0.86277257930456785</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="3">
         <v>0.36614061735663905</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="3">
         <v>0.13440090966027063</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="3">
         <v>0.54940988557095904</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="3">
         <v>-2.8178132974623686</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="3">
         <v>-0.75014648097659331</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="5">
         <v>6550.6307692307728</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" s="3">
         <v>1.3545295878397221</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ35" s="3">
         <v>0.10239295804749282</v>
       </c>
-      <c r="AK35">
+      <c r="AK35" s="3">
         <v>3.626182361662166</v>
       </c>
-      <c r="AL35">
+      <c r="AL35" s="3">
         <v>3.0951967365126647</v>
       </c>
-      <c r="AM35">
+      <c r="AM35" s="3">
         <v>0.63632152026276534</v>
       </c>
-      <c r="AN35">
+      <c r="AN35" s="3">
         <v>-0.46525703850924444</v>
       </c>
-      <c r="AO35">
+      <c r="AO35" s="3">
         <v>-1.4483010205948321</v>
       </c>
-      <c r="AP35">
+      <c r="AP35" s="3">
         <v>1.2814682652794775</v>
       </c>
-      <c r="AQ35">
+      <c r="AQ35" s="3">
         <v>-0.5698705574111762</v>
       </c>
-      <c r="AR35">
+      <c r="AR35" s="3">
         <v>1.0056749389876545</v>
       </c>
-      <c r="AS35">
+      <c r="AS35" s="3">
         <v>0.84116388945701237</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:45">
+      <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B36">
@@ -5113,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>33.030000000000001</v>
+        <v>33.03</v>
       </c>
       <c r="I36">
-        <v>33.920000000000002</v>
+        <v>33.92</v>
       </c>
       <c r="J36">
         <v>0.89000000000000057</v>
@@ -5176,7 +5508,7 @@
         <v>-0.95768839184515131</v>
       </c>
       <c r="AC36">
-        <v>0.02564887477131169</v>
+        <v>2.564887477131169E-2</v>
       </c>
       <c r="AD36">
         <v>1.8632372308158827</v>
@@ -5190,7 +5522,7 @@
       <c r="AG36">
         <v>-1.3104796149997553</v>
       </c>
-      <c r="AH36">
+      <c r="AH36" s="5">
         <v>5069.5333333333347</v>
       </c>
       <c r="AI36">
@@ -5212,7 +5544,7 @@
         <v>-2.5035165206890935</v>
       </c>
       <c r="AO36">
-        <v>-0.046701619067589947</v>
+        <v>-4.6701619067589947E-2</v>
       </c>
       <c r="AP36">
         <v>3.9383884574204893</v>
@@ -5227,8 +5559,8 @@
         <v>2.4213295006572375</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:45">
+      <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B37">
@@ -5253,7 +5585,7 @@
         <v>35.07</v>
       </c>
       <c r="I37">
-        <v>33.109999999999999</v>
+        <v>33.11</v>
       </c>
       <c r="J37">
         <v>-1.9600000000000009</v>
@@ -5280,7 +5612,7 @@
         <v>-0.2338183933386549</v>
       </c>
       <c r="R37">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S37">
         <v>0.88888888888888895</v>
@@ -5327,7 +5659,7 @@
       <c r="AG37">
         <v>-0.81939267798844984</v>
       </c>
-      <c r="AH37">
+      <c r="AH37" s="5">
         <v>3444.7666666666669</v>
       </c>
       <c r="AI37">
@@ -5364,8 +5696,8 @@
         <v>2.3927825936011313</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:45">
+      <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B38">
@@ -5387,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>35.460000000000001</v>
+        <v>35.46</v>
       </c>
       <c r="I38">
-        <v>34.210000000000001</v>
+        <v>34.21</v>
       </c>
       <c r="J38">
         <v>-1.25</v>
@@ -5464,14 +5796,14 @@
       <c r="AG38">
         <v>-1.3277453498981384</v>
       </c>
-      <c r="AH38">
+      <c r="AH38" s="5">
         <v>1788.9128205128206</v>
       </c>
       <c r="AI38">
         <v>1.4600521192392346</v>
       </c>
       <c r="AJ38">
-        <v>0.079360620115927746</v>
+        <v>7.9360620115927746E-2</v>
       </c>
       <c r="AK38">
         <v>-2.2533884003475042</v>
@@ -5501,8 +5833,8 @@
         <v>1.3690578250979659</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:45">
+      <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B39">
@@ -5524,10 +5856,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>37.219999999999999</v>
+        <v>37.22</v>
       </c>
       <c r="I39">
-        <v>35.719999999999999</v>
+        <v>35.72</v>
       </c>
       <c r="J39">
         <v>-1.5</v>
@@ -5554,7 +5886,7 @@
         <v>0.69601185068102311</v>
       </c>
       <c r="R39">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S39">
         <v>1.2857142857142856</v>
@@ -5572,7 +5904,7 @@
         <v>-3.6612292522984284</v>
       </c>
       <c r="X39">
-        <v>-0.019175352954366606</v>
+        <v>-1.9175352954366606E-2</v>
       </c>
       <c r="Y39">
         <v>-7.7988052885268209</v>
@@ -5601,7 +5933,7 @@
       <c r="AG39">
         <v>-0.56606109935680626</v>
       </c>
-      <c r="AH39">
+      <c r="AH39" s="5">
         <v>3598.3179487179505</v>
       </c>
       <c r="AI39">
@@ -5614,7 +5946,7 @@
         <v>0.7463493127010068</v>
       </c>
       <c r="AL39">
-        <v>-0.052610609235655303</v>
+        <v>-5.2610609235655303E-2</v>
       </c>
       <c r="AM39">
         <v>0.51214562140581721</v>
@@ -5638,8 +5970,8 @@
         <v>3.7644763729008273</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:45">
+      <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B40">
@@ -5664,7 +5996,7 @@
         <v>37.409999999999997</v>
       </c>
       <c r="I40">
-        <v>35.149999999999999</v>
+        <v>35.15</v>
       </c>
       <c r="J40">
         <v>-2.259999999999998</v>
@@ -5691,7 +6023,7 @@
         <v>0.71492600752980273</v>
       </c>
       <c r="R40">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -5733,19 +6065,19 @@
         <v>-1.380094653667471</v>
       </c>
       <c r="AF40">
-        <v>-0.0037451609077537406</v>
+        <v>-3.7451609077537406E-3</v>
       </c>
       <c r="AG40">
         <v>-0.23125235491271109</v>
       </c>
-      <c r="AH40">
+      <c r="AH40" s="5">
         <v>4299.0230769230766</v>
       </c>
       <c r="AI40">
         <v>2.0855304404124198</v>
       </c>
       <c r="AJ40">
-        <v>0.096231165220005313</v>
+        <v>9.6231165220005313E-2</v>
       </c>
       <c r="AK40">
         <v>5.0134314183299065</v>
@@ -5775,145 +6107,145 @@
         <v>2.6884802587229593</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>20</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="7">
         <v>2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>2</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="7">
         <v>62</v>
       </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>38.560000000000002</v>
-      </c>
-      <c r="I41">
-        <v>35.789999999999999</v>
-      </c>
-      <c r="J41">
+      <c r="G41" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>38.56</v>
+      </c>
+      <c r="I41" s="7">
+        <v>35.79</v>
+      </c>
+      <c r="J41" s="7">
         <v>-2.7700000000000031</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" s="7">
         <v>18.433333333333334</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7">
         <v>17.523809523809526</v>
       </c>
-      <c r="O41">
-        <v>-0.06846716864913982</v>
-      </c>
-      <c r="P41">
+      <c r="O41" s="7">
+        <v>-6.846716864913982E-2</v>
+      </c>
+      <c r="P41" s="7">
         <v>-3.5656797622859031</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="7">
         <v>0.56173955051796776</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="7">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41">
+      <c r="S41" s="7">
+        <v>1</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1</v>
+      </c>
+      <c r="U41" s="7">
         <v>-1.5633903397083768</v>
       </c>
-      <c r="V41">
-        <v>0.071730576711918168</v>
-      </c>
-      <c r="W41">
+      <c r="V41" s="7">
+        <v>7.1730576711918168E-2</v>
+      </c>
+      <c r="W41" s="7">
         <v>-2.0473444870635169</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="7">
         <v>0.54880177283793996</v>
       </c>
-      <c r="Y41">
+      <c r="Y41" s="7">
         <v>-5.6968909344648875</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="7">
         <v>-0.50638748223795205</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="7">
         <v>1.3248371560170031</v>
       </c>
-      <c r="AB41">
+      <c r="AB41" s="7">
         <v>-0.10435433812955246</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="7">
         <v>2.6032729663368652</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="7">
         <v>1.3593479522029488</v>
       </c>
-      <c r="AE41">
+      <c r="AE41" s="7">
         <v>-2.6785549669610664</v>
       </c>
-      <c r="AF41">
+      <c r="AF41" s="7">
         <v>-0.59775399898526405</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" s="7">
         <v>-0.39751244962858934</v>
       </c>
-      <c r="AH41">
+      <c r="AH41" s="8">
         <v>2882.0794871794869</v>
       </c>
-      <c r="AI41">
+      <c r="AI41" s="7">
         <v>1.4914872741450593</v>
       </c>
-      <c r="AJ41">
-        <v>0.09636204627890653</v>
-      </c>
-      <c r="AK41">
+      <c r="AJ41" s="7">
+        <v>9.636204627890653E-2</v>
+      </c>
+      <c r="AK41" s="7">
         <v>1.7126216971923849</v>
       </c>
-      <c r="AL41">
+      <c r="AL41" s="7">
         <v>-1.890986769992365</v>
       </c>
-      <c r="AM41">
+      <c r="AM41" s="7">
         <v>2.4716902396747047</v>
       </c>
-      <c r="AN41">
+      <c r="AN41" s="7">
         <v>0.21701344295992187</v>
       </c>
-      <c r="AO41">
+      <c r="AO41" s="7">
         <v>-0.59149842984609302</v>
       </c>
-      <c r="AP41">
+      <c r="AP41" s="7">
         <v>2.9711028627803575</v>
       </c>
-      <c r="AQ41">
+      <c r="AQ41" s="7">
         <v>-0.28378848430081577</v>
       </c>
-      <c r="AR41">
+      <c r="AR41" s="7">
         <v>-0.45027268857655217</v>
       </c>
-      <c r="AS41">
-        <v>-0.038966810695426714</v>
+      <c r="AS41" s="7">
+        <v>-3.8966810695426714E-2</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:45">
+      <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B42">
@@ -5938,7 +6270,7 @@
         <v>28.41</v>
       </c>
       <c r="I42">
-        <v>29.129999999999999</v>
+        <v>29.13</v>
       </c>
       <c r="J42">
         <v>0.71999999999999886</v>
@@ -5965,7 +6297,7 @@
         <v>-0.33543480492080802</v>
       </c>
       <c r="R42">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -5977,7 +6309,7 @@
         <v>0.16071333425891043</v>
       </c>
       <c r="V42">
-        <v>0.075894626933563067</v>
+        <v>7.5894626933563067E-2</v>
       </c>
       <c r="W42">
         <v>-1.5864616764825259</v>
@@ -6010,16 +6342,16 @@
         <v>0.32085497666767576</v>
       </c>
       <c r="AG42">
-        <v>-0.024546425607876673</v>
-      </c>
-      <c r="AH42">
+        <v>-2.4546425607876673E-2</v>
+      </c>
+      <c r="AH42" s="5">
         <v>3005.4666666666667</v>
       </c>
       <c r="AI42">
         <v>3.5434564642861486</v>
       </c>
       <c r="AJ42">
-        <v>0.093508970954514617</v>
+        <v>9.3508970954514617E-2</v>
       </c>
       <c r="AK42">
         <v>1.2383637741340527</v>
@@ -6043,14 +6375,14 @@
         <v>1.2908757480558819</v>
       </c>
       <c r="AR42">
-        <v>-0.078486134701028817</v>
+        <v>-7.8486134701028817E-2</v>
       </c>
       <c r="AS42">
         <v>0.93645320018107092</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:45">
+      <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B43">
@@ -6072,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>31.289999999999999</v>
+        <v>31.29</v>
       </c>
       <c r="I43">
-        <v>30.859999999999999</v>
+        <v>30.86</v>
       </c>
       <c r="J43">
         <v>-0.42999999999999972</v>
@@ -6149,7 +6481,7 @@
       <c r="AG43">
         <v>-3.0559165391550964</v>
       </c>
-      <c r="AH43">
+      <c r="AH43" s="5">
         <v>1551.2523809523809</v>
       </c>
       <c r="AI43">
@@ -6165,7 +6497,7 @@
         <v>0.19628091196506092</v>
       </c>
       <c r="AM43">
-        <v>-0.043561648753264286</v>
+        <v>-4.3561648753264286E-2</v>
       </c>
       <c r="AN43">
         <v>-0.98473054330624021</v>
@@ -6177,7 +6509,7 @@
         <v>2.0666651365457125</v>
       </c>
       <c r="AQ43">
-        <v>-0.034981184491871528</v>
+        <v>-3.4981184491871528E-2</v>
       </c>
       <c r="AR43">
         <v>-0.60238186808701555</v>
@@ -6186,8 +6518,8 @@
         <v>-0.9850741442965758</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:45">
+      <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44">
@@ -6209,10 +6541,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>31.309999999999999</v>
+        <v>31.31</v>
       </c>
       <c r="I44">
-        <v>32.859999999999999</v>
+        <v>32.86</v>
       </c>
       <c r="J44">
         <v>1.5500000000000007</v>
@@ -6286,14 +6618,14 @@
       <c r="AG44">
         <v>1.0460827803922177</v>
       </c>
-      <c r="AH44">
+      <c r="AH44" s="5">
         <v>12572.833333333332</v>
       </c>
       <c r="AI44">
         <v>1.8438824264529101</v>
       </c>
       <c r="AJ44">
-        <v>0.094442098326134039</v>
+        <v>9.4442098326134039E-2</v>
       </c>
       <c r="AK44">
         <v>5.4696837015517339</v>
@@ -6311,7 +6643,7 @@
         <v>0.58020316074997558</v>
       </c>
       <c r="AP44">
-        <v>-0.043735098259143255</v>
+        <v>-4.3735098259143255E-2</v>
       </c>
       <c r="AQ44">
         <v>0.29493690214453966</v>
@@ -6323,145 +6655,145 @@
         <v>0.64150730179007787</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:45" s="3" customFormat="1">
+      <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>33</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>5</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>2</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>4</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>81</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>31.390000000000001</v>
-      </c>
-      <c r="I45">
-        <v>31.640000000000001</v>
-      </c>
-      <c r="J45">
+      <c r="H45" s="3">
+        <v>31.39</v>
+      </c>
+      <c r="I45" s="3">
+        <v>31.64</v>
+      </c>
+      <c r="J45" s="3">
         <v>0.25</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>6</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>-3.6643939393939391</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="3">
         <v>2</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <v>10.815086652477952</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="3">
         <v>2.0775184120536743</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="3">
         <v>1.9776246896719398</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="3">
         <v>-0.99988463421849993</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="3">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="3">
         <v>0.875</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="3">
         <v>1.1666666666666667</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="3">
         <v>1.0702000390513964</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="3">
         <v>0.46956274634617023</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="3">
         <v>2.391825514438723</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="3">
         <v>0.13086483002638227</v>
       </c>
-      <c r="Y45">
+      <c r="Y45" s="3">
         <v>7.5160314472372836</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="3">
         <v>0.39926428202849251</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="3">
         <v>-1.693620758897636</v>
       </c>
-      <c r="AB45">
+      <c r="AB45" s="3">
         <v>-0.45538964346520572</v>
       </c>
-      <c r="AC45">
+      <c r="AC45" s="3">
         <v>-1.2493391097998874</v>
       </c>
-      <c r="AD45">
+      <c r="AD45" s="3">
         <v>2.5368266479393418</v>
       </c>
-      <c r="AE45">
+      <c r="AE45" s="3">
         <v>2.7553448560224401</v>
       </c>
-      <c r="AF45">
-        <v>-0.050627644461546446</v>
-      </c>
-      <c r="AG45">
+      <c r="AF45" s="3">
+        <v>-5.0627644461546446E-2</v>
+      </c>
+      <c r="AG45" s="3">
         <v>-2.3927579117305018</v>
       </c>
-      <c r="AH45">
+      <c r="AH45" s="5">
         <v>4716.5809523809512</v>
       </c>
-      <c r="AI45">
+      <c r="AI45" s="3">
         <v>1.0941221742274929</v>
       </c>
-      <c r="AJ45">
+      <c r="AJ45" s="3">
         <v>0.19123719562798733</v>
       </c>
-      <c r="AK45">
+      <c r="AK45" s="3">
         <v>4.3825235833399274</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" s="3">
         <v>1.4427857169683411</v>
       </c>
-      <c r="AM45">
+      <c r="AM45" s="3">
         <v>-0.8931671212324106</v>
       </c>
-      <c r="AN45">
+      <c r="AN45" s="3">
         <v>-2.6724436973126879</v>
       </c>
-      <c r="AO45">
+      <c r="AO45" s="3">
         <v>-0.99240624476695682</v>
       </c>
-      <c r="AP45">
+      <c r="AP45" s="3">
         <v>0.56542945900109842</v>
       </c>
-      <c r="AQ45">
+      <c r="AQ45" s="3">
         <v>-0.47436432000526663</v>
       </c>
-      <c r="AR45">
+      <c r="AR45" s="3">
         <v>1.0433851732246482</v>
       </c>
-      <c r="AS45">
+      <c r="AS45" s="3">
         <v>-1.7775359248502711</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:45">
+      <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B46">
@@ -6486,7 +6818,7 @@
         <v>31.82</v>
       </c>
       <c r="I46">
-        <v>31.129999999999999</v>
+        <v>31.13</v>
       </c>
       <c r="J46">
         <v>-0.69000000000000128</v>
@@ -6560,7 +6892,7 @@
       <c r="AG46">
         <v>-1.0214358522969065</v>
       </c>
-      <c r="AH46">
+      <c r="AH46" s="5">
         <v>5581.4880952380945</v>
       </c>
       <c r="AI46">
@@ -6594,11 +6926,11 @@
         <v>4.0668536076381061</v>
       </c>
       <c r="AS46">
-        <v>-0.078471239574960799</v>
+        <v>-7.8471239574960799E-2</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:45">
+      <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B47">
@@ -6650,7 +6982,7 @@
         <v>0.70754903856071272</v>
       </c>
       <c r="R47">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S47">
         <v>1.2</v>
@@ -6662,7 +6994,7 @@
         <v>-1.9906144206640866</v>
       </c>
       <c r="V47">
-        <v>-0.033122950826338517</v>
+        <v>-3.3122950826338517E-2</v>
       </c>
       <c r="W47">
         <v>-2.0477212416960864</v>
@@ -6697,7 +7029,7 @@
       <c r="AG47">
         <v>0.57972491497044121</v>
       </c>
-      <c r="AH47">
+      <c r="AH47" s="5">
         <v>7560.2595238095246</v>
       </c>
       <c r="AI47">
@@ -6713,7 +7045,7 @@
         <v>-0.61879827969991807</v>
       </c>
       <c r="AM47">
-        <v>0.014501991645131239</v>
+        <v>1.4501991645131239E-2</v>
       </c>
       <c r="AN47">
         <v>-1.9236940530651776</v>
@@ -6722,7 +7054,7 @@
         <v>1.0693991970038523</v>
       </c>
       <c r="AP47">
-        <v>0.056391764803456326</v>
+        <v>5.6391764803456326E-2</v>
       </c>
       <c r="AQ47">
         <v>0.54742616467880945</v>
@@ -6734,8 +7066,8 @@
         <v>-0.7176826165849074</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:45">
+      <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B48">
@@ -6757,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>32.789999999999999</v>
+        <v>32.79</v>
       </c>
       <c r="I48">
-        <v>32.289999999999999</v>
+        <v>32.29</v>
       </c>
       <c r="J48">
         <v>-0.5</v>
@@ -6834,7 +7166,7 @@
       <c r="AG48">
         <v>-2.3333968217697834</v>
       </c>
-      <c r="AH48">
+      <c r="AH48" s="5">
         <v>4744.2023809523798</v>
       </c>
       <c r="AI48">
@@ -6871,8 +7203,8 @@
         <v>-1.3960209518734064</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:45">
+      <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B49">
@@ -6894,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>34.509999999999998</v>
+        <v>34.51</v>
       </c>
       <c r="I49">
-        <v>32.810000000000002</v>
+        <v>32.81</v>
       </c>
       <c r="J49">
         <v>-1.6999999999999957</v>
@@ -6924,7 +7256,7 @@
         <v>-1.2749943200340113</v>
       </c>
       <c r="R49">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -6954,7 +7286,7 @@
         <v>1.2442194070914541</v>
       </c>
       <c r="AB49">
-        <v>0.0081382564551009031</v>
+        <v>8.1382564551009031E-3</v>
       </c>
       <c r="AC49">
         <v>1.6837645702285711</v>
@@ -6966,19 +7298,19 @@
         <v>-1.5621911201785605</v>
       </c>
       <c r="AF49">
-        <v>-0.037234553586157945</v>
+        <v>-3.7234553586157945E-2</v>
       </c>
       <c r="AG49">
         <v>-4.0142315896533072</v>
       </c>
-      <c r="AH49">
+      <c r="AH49" s="5">
         <v>5214.5023809523818</v>
       </c>
       <c r="AI49">
         <v>1.5827726603174614</v>
       </c>
       <c r="AJ49">
-        <v>0.096337092842260844</v>
+        <v>9.6337092842260844E-2</v>
       </c>
       <c r="AK49">
         <v>-0.50051006859392455</v>
@@ -7008,8 +7340,8 @@
         <v>0.9762635434307072</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:45">
+      <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B50">
@@ -7031,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>35.939999999999998</v>
+        <v>35.94</v>
       </c>
       <c r="I50">
         <v>34.909999999999997</v>
@@ -7108,7 +7440,7 @@
       <c r="AG50">
         <v>-1.6318986967647677</v>
       </c>
-      <c r="AH50">
+      <c r="AH50" s="5">
         <v>6103.0928571428567</v>
       </c>
       <c r="AI50">
@@ -7145,145 +7477,145 @@
         <v>0.14580691061534123</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="7">
         <v>14</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="7">
         <v>5</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="7">
         <v>2</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="7">
         <v>5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="7">
         <v>62</v>
       </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7">
         <v>36.619999999999997</v>
       </c>
-      <c r="I51">
-        <v>34.640000000000001</v>
-      </c>
-      <c r="J51">
+      <c r="I51" s="7">
+        <v>34.64</v>
+      </c>
+      <c r="J51" s="7">
         <v>-1.9799999999999969</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="7">
         <v>2</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="7">
         <v>19.316666666666663</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="7">
         <v>5</v>
       </c>
-      <c r="N51">
-        <v>0.033942052099947162</v>
-      </c>
-      <c r="O51">
+      <c r="N51" s="7">
+        <v>3.3942052099947162E-2</v>
+      </c>
+      <c r="O51" s="7">
         <v>-2.3872474885248423</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="7">
         <v>-1.2774911448401778</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="7">
         <v>-0.72991207031632432</v>
       </c>
-      <c r="R51">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="S51">
+      <c r="R51" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="S51" s="7">
         <v>1.1428571428571428</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="7">
         <v>1.2</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="7">
         <v>0.67813229184312906</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="7">
         <v>0.42227366889750889</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="7">
         <v>3.4335488409534789</v>
       </c>
-      <c r="X51">
-        <v>0.063936925793816296</v>
-      </c>
-      <c r="Y51">
+      <c r="X51" s="7">
+        <v>6.3936925793816296E-2</v>
+      </c>
+      <c r="Y51" s="7">
         <v>14.14959213720204</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="7">
         <v>-3.6748209106602747</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="7">
         <v>4.8336958559999017</v>
       </c>
-      <c r="AB51">
+      <c r="AB51" s="7">
         <v>-0.58254779906394305</v>
       </c>
-      <c r="AC51">
+      <c r="AC51" s="7">
         <v>-1.3565622001237132</v>
       </c>
-      <c r="AD51">
+      <c r="AD51" s="7">
         <v>3.5412535823781175</v>
       </c>
-      <c r="AE51">
+      <c r="AE51" s="7">
         <v>1.1085835938860327</v>
       </c>
-      <c r="AF51">
+      <c r="AF51" s="7">
         <v>1.4135428389510241</v>
       </c>
-      <c r="AG51">
+      <c r="AG51" s="7">
         <v>-3.5582722078487792</v>
       </c>
-      <c r="AH51">
+      <c r="AH51" s="8">
         <v>1718.516666666666</v>
       </c>
-      <c r="AI51">
+      <c r="AI51" s="7">
         <v>1.3887423797329339</v>
       </c>
-      <c r="AJ51">
-        <v>0.091288583592993466</v>
-      </c>
-      <c r="AK51">
+      <c r="AJ51" s="7">
+        <v>9.1288583592993466E-2</v>
+      </c>
+      <c r="AK51" s="7">
         <v>-9.5030809940182266</v>
       </c>
-      <c r="AL51">
+      <c r="AL51" s="7">
         <v>0.2496295651466065</v>
       </c>
-      <c r="AM51">
+      <c r="AM51" s="7">
         <v>1.9106126257982619</v>
       </c>
-      <c r="AN51">
+      <c r="AN51" s="7">
         <v>-1.1124887431834061</v>
       </c>
-      <c r="AO51">
+      <c r="AO51" s="7">
         <v>-1.6244106262768916</v>
       </c>
-      <c r="AP51">
+      <c r="AP51" s="7">
         <v>0.24565337354828334</v>
       </c>
-      <c r="AQ51">
+      <c r="AQ51" s="7">
         <v>-1.1874042495553356</v>
       </c>
-      <c r="AR51">
-        <v>-0.091737927350307877</v>
-      </c>
-      <c r="AS51">
+      <c r="AR51" s="7">
+        <v>-9.1737927350307877E-2</v>
+      </c>
+      <c r="AS51" s="7">
         <v>-3.1226968601109926</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:45">
+      <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B52">
@@ -7308,7 +7640,7 @@
         <v>27.82</v>
       </c>
       <c r="I52">
-        <v>28.559999999999999</v>
+        <v>28.56</v>
       </c>
       <c r="J52">
         <v>0.73999999999999844</v>
@@ -7335,7 +7667,7 @@
         <v>-1.1368451697306552</v>
       </c>
       <c r="R52">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S52">
         <v>0.85714285714285698</v>
@@ -7382,14 +7714,14 @@
       <c r="AG52">
         <v>-2.3401142884250317</v>
       </c>
-      <c r="AH52">
+      <c r="AH52" s="5">
         <v>249.09166666666661</v>
       </c>
       <c r="AI52">
         <v>1.2709622066592803</v>
       </c>
       <c r="AJ52">
-        <v>0.06980919563302225</v>
+        <v>6.980919563302225E-2</v>
       </c>
       <c r="AK52">
         <v>-3.7553206167576287</v>
@@ -7419,145 +7751,145 @@
         <v>-5.6781626813899004</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:45" s="3" customFormat="1">
+      <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>16</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>6</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>2</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>73</v>
       </c>
-      <c r="G53" t="b">
+      <c r="G53" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>29.18</v>
       </c>
-      <c r="I53">
-        <v>28.920000000000002</v>
-      </c>
-      <c r="J53">
+      <c r="I53" s="3">
+        <v>28.92</v>
+      </c>
+      <c r="J53" s="3">
         <v>-0.25999999999999801</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>5</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="3">
         <v>-7.6666666666666679</v>
       </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
+      <c r="M53" s="3">
+        <v>1</v>
+      </c>
+      <c r="N53" s="3">
         <v>23.01125816741267</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="3">
         <v>2.2468789472161661</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="3">
         <v>2.2296379912771624</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="3">
         <v>0.34381624670889077</v>
       </c>
-      <c r="R53">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="S53">
+      <c r="R53" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S53" s="3">
         <v>2.9999999999999996</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="3">
         <v>0.88888888888888895</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="3">
         <v>-0.89393122825640403</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="3">
         <v>0.19493699991003169</v>
       </c>
-      <c r="W53">
-        <v>0.056687643307355623</v>
-      </c>
-      <c r="X53">
+      <c r="W53" s="3">
+        <v>5.6687643307355623E-2</v>
+      </c>
+      <c r="X53" s="3">
         <v>-0.18094995126065655</v>
       </c>
-      <c r="Y53">
+      <c r="Y53" s="3">
         <v>-5.3223537044972264</v>
       </c>
-      <c r="Z53">
+      <c r="Z53" s="3">
         <v>2.1328435405515842</v>
       </c>
-      <c r="AA53">
+      <c r="AA53" s="3">
         <v>1.2335171730948782</v>
       </c>
-      <c r="AB53">
+      <c r="AB53" s="3">
         <v>-2.0404166637097942</v>
       </c>
-      <c r="AC53">
+      <c r="AC53" s="3">
         <v>1.0189456934710344</v>
       </c>
-      <c r="AD53">
+      <c r="AD53" s="3">
         <v>1.9399745606783463</v>
       </c>
-      <c r="AE53">
+      <c r="AE53" s="3">
         <v>1.1506332117816662</v>
       </c>
-      <c r="AF53">
+      <c r="AF53" s="3">
         <v>-0.81596487924362637</v>
       </c>
-      <c r="AG53">
+      <c r="AG53" s="3">
         <v>-1.3754362829078985</v>
       </c>
-      <c r="AH53">
+      <c r="AH53" s="5">
         <v>5040.5138888888887</v>
       </c>
-      <c r="AI53">
+      <c r="AI53" s="3">
         <v>1.5087706071218641</v>
       </c>
-      <c r="AJ53">
-        <v>0.089946737132732824</v>
-      </c>
-      <c r="AK53">
+      <c r="AJ53" s="3">
+        <v>8.9946737132732824E-2</v>
+      </c>
+      <c r="AK53" s="3">
         <v>1.6621394706198862</v>
       </c>
-      <c r="AL53">
+      <c r="AL53" s="3">
         <v>4.2523525357834906</v>
       </c>
-      <c r="AM53">
+      <c r="AM53" s="3">
         <v>-2.4669853013607388</v>
       </c>
-      <c r="AN53">
+      <c r="AN53" s="3">
         <v>0.34342577571998145</v>
       </c>
-      <c r="AO53">
+      <c r="AO53" s="3">
         <v>1.8305238473628747</v>
       </c>
-      <c r="AP53">
+      <c r="AP53" s="3">
         <v>3.0475253150491852</v>
       </c>
-      <c r="AQ53">
+      <c r="AQ53" s="3">
         <v>2.2198351792633124</v>
       </c>
-      <c r="AR53">
+      <c r="AR53" s="3">
         <v>0.99441069565846552</v>
       </c>
-      <c r="AS53">
+      <c r="AS53" s="3">
         <v>0.10723883756532922</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:45">
+      <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B54">
@@ -7579,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>30.010000000000002</v>
+        <v>30.01</v>
       </c>
       <c r="I54">
         <v>29.52</v>
@@ -7621,7 +7953,7 @@
         <v>-1.3468873890936477</v>
       </c>
       <c r="V54">
-        <v>0.074720958190435768</v>
+        <v>7.4720958190435768E-2</v>
       </c>
       <c r="W54">
         <v>-1.9818985086555538</v>
@@ -7642,7 +7974,7 @@
         <v>0.3664820914701698</v>
       </c>
       <c r="AC54">
-        <v>0.063080223528541174</v>
+        <v>6.3080223528541174E-2</v>
       </c>
       <c r="AD54">
         <v>0.48461476717777979</v>
@@ -7651,12 +7983,12 @@
         <v>-2.4237014310670069</v>
       </c>
       <c r="AF54">
-        <v>0.0033685146086688466</v>
+        <v>3.3685146086688466E-3</v>
       </c>
       <c r="AG54">
         <v>-0.58236262157236152</v>
       </c>
-      <c r="AH54">
+      <c r="AH54" s="5">
         <v>1994.8555555555547</v>
       </c>
       <c r="AI54">
@@ -7693,8 +8025,8 @@
         <v>3.5262671468445119</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:45">
+      <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B55">
@@ -7716,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>31.390000000000001</v>
+        <v>31.39</v>
       </c>
       <c r="I55">
         <v>30.82</v>
@@ -7746,10 +8078,10 @@
         <v>-0.93958468445743293</v>
       </c>
       <c r="R55">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S55">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="T55">
         <v>1</v>
@@ -7761,7 +8093,7 @@
         <v>-0.83563924328709249</v>
       </c>
       <c r="W55">
-        <v>-0.038768670223254004</v>
+        <v>-3.8768670223254004E-2</v>
       </c>
       <c r="X55">
         <v>-1.1518364295831487</v>
@@ -7793,7 +8125,7 @@
       <c r="AG55">
         <v>-2.4373888813454156</v>
       </c>
-      <c r="AH55">
+      <c r="AH55" s="5">
         <v>103.64444444444443</v>
       </c>
       <c r="AI55">
@@ -7830,8 +8162,8 @@
         <v>-3.4173949813885214</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:45">
+      <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B56">
@@ -7853,10 +8185,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>31.609999999999999</v>
+        <v>31.61</v>
       </c>
       <c r="I56">
-        <v>31.879999999999999</v>
+        <v>31.88</v>
       </c>
       <c r="J56">
         <v>0.26999999999999957</v>
@@ -7874,7 +8206,7 @@
         <v>-19.042857142857141</v>
       </c>
       <c r="O56">
-        <v>0.037144594485758103</v>
+        <v>3.7144594485758103E-2</v>
       </c>
       <c r="P56">
         <v>1.0554275043237813</v>
@@ -7930,7 +8262,7 @@
       <c r="AG56">
         <v>-1.3348533512945508</v>
       </c>
-      <c r="AH56">
+      <c r="AH56" s="5">
         <v>306.64722222222224</v>
       </c>
       <c r="AI56">
@@ -7967,8 +8299,8 @@
         <v>-1.1165572573528868</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:45">
+      <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B57">
@@ -7990,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>32.579999999999998</v>
+        <v>32.58</v>
       </c>
       <c r="I57">
-        <v>32.460000000000001</v>
+        <v>32.46</v>
       </c>
       <c r="J57">
         <v>-0.11999999999999744</v>
@@ -8029,7 +8361,7 @@
         <v>1.9999999999999996</v>
       </c>
       <c r="U57">
-        <v>-0.041830887212853586</v>
+        <v>-4.1830887212853586E-2</v>
       </c>
       <c r="V57">
         <v>-0.21433911781435763</v>
@@ -8038,7 +8370,7 @@
         <v>-0.16905247821683156</v>
       </c>
       <c r="X57">
-        <v>-0.090919267354040198</v>
+        <v>-9.0919267354040198E-2</v>
       </c>
       <c r="Y57">
         <v>-4.1671602576112612</v>
@@ -8067,7 +8399,7 @@
       <c r="AG57">
         <v>-1.4808519599175907</v>
       </c>
-      <c r="AH57">
+      <c r="AH57" s="5">
         <v>2521.9555555555553</v>
       </c>
       <c r="AI57">
@@ -8104,8 +8436,8 @@
         <v>-0.33423823756240972</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:45">
+      <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B58">
@@ -8127,10 +8459,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>32.670000000000002</v>
+        <v>32.67</v>
       </c>
       <c r="I58">
-        <v>31.879999999999999</v>
+        <v>31.88</v>
       </c>
       <c r="J58">
         <v>-0.7900000000000027</v>
@@ -8169,7 +8501,7 @@
         <v>-1.0182257488897719</v>
       </c>
       <c r="V58">
-        <v>0.059887707063300571</v>
+        <v>5.9887707063300571E-2</v>
       </c>
       <c r="W58">
         <v>-1.4793723406109451</v>
@@ -8204,7 +8536,7 @@
       <c r="AG58">
         <v>-1.8059858523716201</v>
       </c>
-      <c r="AH58">
+      <c r="AH58" s="5">
         <v>2591.1277777777777</v>
       </c>
       <c r="AI58">
@@ -8241,145 +8573,145 @@
         <v>1.2774778727675618</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:45" s="3" customFormat="1">
+      <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>17</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>6</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>3</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>4</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>74</v>
       </c>
-      <c r="G59" t="b">
+      <c r="G59" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>33.630000000000003</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>33.82</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>0.18999999999999773</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>3</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="3">
         <v>16.75</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="3">
         <v>2</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="3">
         <v>19.566957026713119</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="3">
         <v>2.2754462210373712</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="3">
         <v>0.86466143724627953</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="3">
         <v>0.28692574953516659</v>
       </c>
-      <c r="R59">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="T59">
+      <c r="R59" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1</v>
+      </c>
+      <c r="T59" s="3">
         <v>1.1428571428571428</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="3">
         <v>-0.96086242674071831</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="3">
         <v>0.1030319804253156</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="3">
         <v>-2.7572816795991768</v>
       </c>
-      <c r="X59">
+      <c r="X59" s="3">
         <v>0.21687422290265046</v>
       </c>
-      <c r="Y59">
+      <c r="Y59" s="3">
         <v>-2.1192734142210821</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="3">
         <v>-2.0760375531261404</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="3">
         <v>0.15756710947468802</v>
       </c>
-      <c r="AB59">
+      <c r="AB59" s="3">
         <v>0.7669873038843168</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" s="3">
         <v>0.59465416295568874</v>
       </c>
-      <c r="AD59">
+      <c r="AD59" s="3">
         <v>-0.23786448930366449</v>
       </c>
-      <c r="AE59">
+      <c r="AE59" s="3">
         <v>-0.46613249790893357</v>
       </c>
-      <c r="AF59">
+      <c r="AF59" s="3">
         <v>-3.2846339486607672</v>
       </c>
-      <c r="AG59">
+      <c r="AG59" s="3">
         <v>-2.2861477712418141</v>
       </c>
-      <c r="AH59">
+      <c r="AH59" s="5">
         <v>1654.2888888888881</v>
       </c>
-      <c r="AI59">
+      <c r="AI59" s="3">
         <v>1.4383445241647266</v>
       </c>
-      <c r="AJ59">
+      <c r="AJ59" s="3">
         <v>0.13160068777453893</v>
       </c>
-      <c r="AK59">
+      <c r="AK59" s="3">
         <v>4.8842091809578845</v>
       </c>
-      <c r="AL59">
+      <c r="AL59" s="3">
         <v>2.3391808285544466</v>
       </c>
-      <c r="AM59">
+      <c r="AM59" s="3">
         <v>1.7576520856627385</v>
       </c>
-      <c r="AN59">
+      <c r="AN59" s="3">
         <v>3.0479929593204651</v>
       </c>
-      <c r="AO59">
+      <c r="AO59" s="3">
         <v>-1.4216671678811212</v>
       </c>
-      <c r="AP59">
+      <c r="AP59" s="3">
         <v>2.9803954427910884</v>
       </c>
-      <c r="AQ59">
+      <c r="AQ59" s="3">
         <v>2.352224729667423</v>
       </c>
-      <c r="AR59">
+      <c r="AR59" s="3">
         <v>-2.8188262342448263</v>
       </c>
-      <c r="AS59">
+      <c r="AS59" s="3">
         <v>-2.378598969961113</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:45">
+      <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B60">
@@ -8404,7 +8736,7 @@
         <v>34.07</v>
       </c>
       <c r="I60">
-        <v>33.259999999999998</v>
+        <v>33.26</v>
       </c>
       <c r="J60">
         <v>-0.81000000000000227</v>
@@ -8478,14 +8810,14 @@
       <c r="AG60">
         <v>-1.9286286149870098</v>
       </c>
-      <c r="AH60">
+      <c r="AH60" s="5">
         <v>1129.1305555555552</v>
       </c>
       <c r="AI60">
         <v>2.0514095865494704</v>
       </c>
       <c r="AJ60">
-        <v>0.090426016084155306</v>
+        <v>9.0426016084155306E-2</v>
       </c>
       <c r="AK60">
         <v>-9.4132648091747519</v>
@@ -8515,145 +8847,145 @@
         <v>-1.5271317091886794</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="7">
         <v>28</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="7">
         <v>6</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="7">
         <v>3</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="7">
         <v>8</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="7">
         <v>73</v>
       </c>
-      <c r="G61" t="b">
+      <c r="G61" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="7">
         <v>36.979999999999997</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="7">
         <v>34.869999999999997</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="7">
         <v>-2.1099999999999994</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="7">
         <v>6</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="7">
         <v>-8.8666666666666671</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="7">
         <v>4</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="7">
         <v>5.7189393939393938</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="7">
         <v>0.86886490348857925</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="7">
         <v>-1.2513635338262268</v>
       </c>
-      <c r="Q61">
-        <v>-0.046662821951612962</v>
-      </c>
-      <c r="R61">
+      <c r="Q61" s="7">
+        <v>-4.6662821951612962E-2</v>
+      </c>
+      <c r="R61" s="7">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61">
+      <c r="S61" s="7">
+        <v>1</v>
+      </c>
+      <c r="T61" s="7">
         <v>1.1666666666666667</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="7">
         <v>-0.47219837939107562</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="7">
         <v>0.2933624599743766</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="7">
         <v>-2.6939553891494952</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="7">
         <v>0.25974242458830482</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="7">
         <v>-4.237233889722777</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="7">
         <v>-1.6737474228216858</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="7">
         <v>-1.9995006093210954</v>
       </c>
-      <c r="AB61">
+      <c r="AB61" s="7">
         <v>-1.99922099355315</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="7">
         <v>-2.4853080698225902</v>
       </c>
-      <c r="AD61">
+      <c r="AD61" s="7">
         <v>0.20447974704046681</v>
       </c>
-      <c r="AE61">
+      <c r="AE61" s="7">
         <v>2.5052836589243337</v>
       </c>
-      <c r="AF61">
+      <c r="AF61" s="7">
         <v>1.7678356974413212</v>
       </c>
-      <c r="AG61">
+      <c r="AG61" s="7">
         <v>0.30770883121745485</v>
       </c>
-      <c r="AH61">
+      <c r="AH61" s="8">
         <v>1295.5555555555554</v>
       </c>
-      <c r="AI61">
+      <c r="AI61" s="7">
         <v>3.0620337190677493</v>
       </c>
-      <c r="AJ61">
+      <c r="AJ61" s="7">
         <v>0.12813036020583193</v>
       </c>
-      <c r="AK61">
+      <c r="AK61" s="7">
         <v>-7.8668136918158593</v>
       </c>
-      <c r="AL61">
+      <c r="AL61" s="7">
         <v>1.5150965594266654</v>
       </c>
-      <c r="AM61">
-        <v>-0.066994012995740773</v>
-      </c>
-      <c r="AN61">
+      <c r="AM61" s="7">
+        <v>-6.6994012995740773E-2</v>
+      </c>
+      <c r="AN61" s="7">
         <v>1.027230181795119</v>
       </c>
-      <c r="AO61">
+      <c r="AO61" s="7">
         <v>4.3087427827770304</v>
       </c>
-      <c r="AP61">
+      <c r="AP61" s="7">
         <v>-0.7586888798792254</v>
       </c>
-      <c r="AQ61">
+      <c r="AQ61" s="7">
         <v>0.67990115560535291</v>
       </c>
-      <c r="AR61">
+      <c r="AR61" s="7">
         <v>0.88541683021956985</v>
       </c>
-      <c r="AS61">
+      <c r="AS61" s="7">
         <v>-0.28257843674281974</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:45">
+      <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B62">
@@ -8675,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>29.609999999999999</v>
+        <v>29.61</v>
       </c>
       <c r="I62">
-        <v>28.629999999999999</v>
+        <v>28.63</v>
       </c>
       <c r="J62">
         <v>-0.98000000000000043</v>
@@ -8696,7 +9028,7 @@
         <v>1.9285714285714288</v>
       </c>
       <c r="O62">
-        <v>-0.041488339977270215</v>
+        <v>-4.1488339977270215E-2</v>
       </c>
       <c r="P62">
         <v>0.53141001735607429</v>
@@ -8705,7 +9037,7 @@
         <v>-0.15717459294643499</v>
       </c>
       <c r="R62">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S62">
         <v>0.50000000000000011</v>
@@ -8714,7 +9046,7 @@
         <v>0.85714285714285698</v>
       </c>
       <c r="U62">
-        <v>-0.091484529415791438</v>
+        <v>-9.1484529415791438E-2</v>
       </c>
       <c r="V62">
         <v>0.16594786407140011</v>
@@ -8723,10 +9055,10 @@
         <v>1.0461715687266457</v>
       </c>
       <c r="X62">
-        <v>-0.050407099533598482</v>
+        <v>-5.0407099533598482E-2</v>
       </c>
       <c r="Y62">
-        <v>0.081005173943035483</v>
+        <v>8.1005173943035483E-2</v>
       </c>
       <c r="Z62">
         <v>-1.7141130040888395</v>
@@ -8752,7 +9084,7 @@
       <c r="AG62">
         <v>-0.54979192338207339</v>
       </c>
-      <c r="AH62">
+      <c r="AH62" s="5">
         <v>2111.8904761904755</v>
       </c>
       <c r="AI62">
@@ -8789,8 +9121,8 @@
         <v>1.8007747279807815</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:45">
+      <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B63">
@@ -8812,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>30.449999999999999</v>
+        <v>30.45</v>
       </c>
       <c r="I63">
         <v>30.25</v>
@@ -8836,7 +9168,7 @@
         <v>1.8703161981496161</v>
       </c>
       <c r="P63">
-        <v>0.055191814023060455</v>
+        <v>5.5191814023060455E-2</v>
       </c>
       <c r="Q63">
         <v>-0.11291316012162232</v>
@@ -8889,7 +9221,7 @@
       <c r="AG63">
         <v>-0.81745969479213731</v>
       </c>
-      <c r="AH63">
+      <c r="AH63" s="5">
         <v>2194.071428571428</v>
       </c>
       <c r="AI63">
@@ -8926,8 +9258,8 @@
         <v>1.5695172950748446</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:45">
+      <c r="A64" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B64">
@@ -8949,10 +9281,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>31.379999999999999</v>
+        <v>31.38</v>
       </c>
       <c r="I64">
-        <v>30.829999999999998</v>
+        <v>30.83</v>
       </c>
       <c r="J64">
         <v>-0.55000000000000071</v>
@@ -8979,7 +9311,7 @@
         <v>-0.57357835864307671</v>
       </c>
       <c r="R64">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -9026,7 +9358,7 @@
       <c r="AG64">
         <v>2.2617153455339798</v>
       </c>
-      <c r="AH64">
+      <c r="AH64" s="5">
         <v>3316.6595238095251</v>
       </c>
       <c r="AI64">
@@ -9063,8 +9395,8 @@
         <v>0.75593869364718802</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:45">
+      <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B65">
@@ -9086,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>31.609999999999999</v>
+        <v>31.61</v>
       </c>
       <c r="I65">
-        <v>30.059999999999999</v>
+        <v>30.06</v>
       </c>
       <c r="J65">
         <v>-1.5500000000000007</v>
@@ -9140,7 +9472,7 @@
         <v>3.0162816135204138</v>
       </c>
       <c r="Z65">
-        <v>-0.062053053877127486</v>
+        <v>-6.2053053877127486E-2</v>
       </c>
       <c r="AA65">
         <v>-2.6942646263365848</v>
@@ -9163,7 +9495,7 @@
       <c r="AG65">
         <v>1.4875558308020298</v>
       </c>
-      <c r="AH65">
+      <c r="AH65" s="5">
         <v>1795.6047619047629</v>
       </c>
       <c r="AI65">
@@ -9185,7 +9517,7 @@
         <v>1.5817712549658689</v>
       </c>
       <c r="AO65">
-        <v>0.047018415901390789</v>
+        <v>4.7018415901390789E-2</v>
       </c>
       <c r="AP65">
         <v>0.44194341235536899</v>
@@ -9200,8 +9532,8 @@
         <v>-2.0867608939811682</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:45">
+      <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B66">
@@ -9223,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>33.789999999999999</v>
+        <v>33.79</v>
       </c>
       <c r="I66">
         <v>33.270000000000003</v>
@@ -9265,7 +9597,7 @@
         <v>3.4015385342994309</v>
       </c>
       <c r="V66">
-        <v>0.045416456901968251</v>
+        <v>4.5416456901968251E-2</v>
       </c>
       <c r="W66">
         <v>1.7253476438622104</v>
@@ -9298,9 +9630,9 @@
         <v>0.50092047125103067</v>
       </c>
       <c r="AG66">
-        <v>-0.083044917328344736</v>
-      </c>
-      <c r="AH66">
+        <v>-8.3044917328344736E-2</v>
+      </c>
+      <c r="AH66" s="5">
         <v>3228.416666666667</v>
       </c>
       <c r="AI66">
@@ -9337,145 +9669,145 @@
         <v>4.0065984348087227</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:45" s="3" customFormat="1">
+      <c r="A67" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>25</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>7</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>2</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>5</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>66</v>
       </c>
-      <c r="G67" t="b">
+      <c r="G67" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>34.289999999999999</v>
-      </c>
-      <c r="I67">
+      <c r="H67" s="3">
+        <v>34.29</v>
+      </c>
+      <c r="I67" s="3">
         <v>33.049999999999997</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>-1.240000000000002</v>
       </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+      <c r="L67" s="3">
         <v>39.190476190476197</v>
       </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
+      <c r="M67" s="3">
+        <v>1</v>
+      </c>
+      <c r="N67" s="3">
         <v>19.134088417975889</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="3">
         <v>1.6964923486264814</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="3">
         <v>0.76712345828728801</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="3">
         <v>0.10425291688463958</v>
       </c>
-      <c r="R67">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67">
+      <c r="R67" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="S67" s="3">
+        <v>1</v>
+      </c>
+      <c r="T67" s="3">
         <v>1.9999999999999996</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="3">
         <v>-0.76781205141628284</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="3">
         <v>-0.32055600065515039</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="3">
         <v>0.32197107236284073</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="3">
         <v>0.11523998035872937</v>
       </c>
-      <c r="Y67">
+      <c r="Y67" s="3">
         <v>-3.9106234888057965</v>
       </c>
-      <c r="Z67">
+      <c r="Z67" s="3">
         <v>-1.700737276186475</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" s="3">
         <v>-1.8152509636769105</v>
       </c>
-      <c r="AB67">
+      <c r="AB67" s="3">
         <v>1.2581278918400876</v>
       </c>
-      <c r="AC67">
+      <c r="AC67" s="3">
         <v>0.99426327931249092</v>
       </c>
-      <c r="AD67">
+      <c r="AD67" s="3">
         <v>0.81702408817733096</v>
       </c>
-      <c r="AE67">
+      <c r="AE67" s="3">
         <v>-2.5870144141951172</v>
       </c>
-      <c r="AF67">
+      <c r="AF67" s="3">
         <v>1.7705820125042644</v>
       </c>
-      <c r="AG67">
+      <c r="AG67" s="3">
         <v>1.5129647894325537</v>
       </c>
-      <c r="AH67">
+      <c r="AH67" s="5">
         <v>2557.9809523809527</v>
       </c>
-      <c r="AI67">
+      <c r="AI67" s="3">
         <v>1.4749352814514061</v>
       </c>
-      <c r="AJ67">
+      <c r="AJ67" s="3">
         <v>0.23138691974324976</v>
       </c>
-      <c r="AK67">
+      <c r="AK67" s="3">
         <v>3.7275446290400884</v>
       </c>
-      <c r="AL67">
+      <c r="AL67" s="3">
         <v>1.2141010512687374</v>
       </c>
-      <c r="AM67">
+      <c r="AM67" s="3">
         <v>-1.8912376970314551</v>
       </c>
-      <c r="AN67">
+      <c r="AN67" s="3">
         <v>-2.7204240972521494</v>
       </c>
-      <c r="AO67">
+      <c r="AO67" s="3">
         <v>1.9089460121169977</v>
       </c>
-      <c r="AP67">
+      <c r="AP67" s="3">
         <v>1.6038137996868127</v>
       </c>
-      <c r="AQ67">
+      <c r="AQ67" s="3">
         <v>0.64604537242246141</v>
       </c>
-      <c r="AR67">
+      <c r="AR67" s="3">
         <v>0.86979305739300561</v>
       </c>
-      <c r="AS67">
+      <c r="AS67" s="3">
         <v>-2.3259443875727803</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:45">
+      <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B68">
@@ -9527,7 +9859,7 @@
         <v>-0.2834743962615639</v>
       </c>
       <c r="R68">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S68">
         <v>1.4285714285714284</v>
@@ -9545,7 +9877,7 @@
         <v>1.209929711496275</v>
       </c>
       <c r="X68">
-        <v>0.040231573714500243</v>
+        <v>4.0231573714500243E-2</v>
       </c>
       <c r="Y68">
         <v>1.1273682721825999</v>
@@ -9574,7 +9906,7 @@
       <c r="AG68">
         <v>0.63284011677932528</v>
       </c>
-      <c r="AH68">
+      <c r="AH68" s="5">
         <v>1514.2714285714287</v>
       </c>
       <c r="AI68">
@@ -9611,282 +9943,282 @@
         <v>0.17834989861328551</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:45" s="3" customFormat="1">
+      <c r="A69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>21</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>7</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>3</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>85</v>
       </c>
-      <c r="G69" t="b">
+      <c r="G69" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>34.390000000000001</v>
-      </c>
-      <c r="I69">
-        <v>32.719999999999999</v>
-      </c>
-      <c r="J69">
+      <c r="H69" s="3">
+        <v>34.39</v>
+      </c>
+      <c r="I69" s="3">
+        <v>32.72</v>
+      </c>
+      <c r="J69" s="3">
         <v>-1.6700000000000017</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <v>5</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="3">
         <v>-0.40656565656565746</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="3">
         <v>4</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="3">
         <v>5.217948717948719</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="3">
         <v>2.308815612581173</v>
       </c>
-      <c r="P69">
-        <v>-0.074233849893212356</v>
-      </c>
-      <c r="Q69">
+      <c r="P69" s="3">
+        <v>-7.4233849893212356E-2</v>
+      </c>
+      <c r="Q69" s="3">
         <v>-0.29663802648356985</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="3">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S69">
-        <v>1</v>
-      </c>
-      <c r="T69">
+      <c r="S69" s="3">
+        <v>1</v>
+      </c>
+      <c r="T69" s="3">
         <v>2.5</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="3">
         <v>-0.47681440451031115</v>
       </c>
-      <c r="V69">
-        <v>0.0098438721598281525</v>
-      </c>
-      <c r="W69">
+      <c r="V69" s="3">
+        <v>9.8438721598281525E-3</v>
+      </c>
+      <c r="W69" s="3">
         <v>2.4126274962452006</v>
       </c>
-      <c r="X69">
+      <c r="X69" s="3">
         <v>0.37752995441673709</v>
       </c>
-      <c r="Y69">
+      <c r="Y69" s="3">
         <v>2.6811864779466807</v>
       </c>
-      <c r="Z69">
+      <c r="Z69" s="3">
         <v>2.5332111371190047</v>
       </c>
-      <c r="AA69">
+      <c r="AA69" s="3">
         <v>-0.81269471691217232</v>
       </c>
-      <c r="AB69">
+      <c r="AB69" s="3">
         <v>-1.0696077601090148</v>
       </c>
-      <c r="AC69">
+      <c r="AC69" s="3">
         <v>-1.2018864946206913</v>
       </c>
-      <c r="AD69">
+      <c r="AD69" s="3">
         <v>-1.310836677651094</v>
       </c>
-      <c r="AE69">
+      <c r="AE69" s="3">
         <v>1.9080987005050689</v>
       </c>
-      <c r="AF69">
+      <c r="AF69" s="3">
         <v>0.49096925072650122</v>
       </c>
-      <c r="AG69">
+      <c r="AG69" s="3">
         <v>-0.26968300084754693</v>
       </c>
-      <c r="AH69">
+      <c r="AH69" s="5">
         <v>3109.9285714285716</v>
       </c>
-      <c r="AI69">
+      <c r="AI69" s="3">
         <v>1.3385201326879179</v>
       </c>
-      <c r="AJ69">
+      <c r="AJ69" s="3">
         <v>0.29194591821891497</v>
       </c>
-      <c r="AK69">
+      <c r="AK69" s="3">
         <v>1.0430094542097468</v>
       </c>
-      <c r="AL69">
+      <c r="AL69" s="3">
         <v>5.4486650196979598</v>
       </c>
-      <c r="AM69">
+      <c r="AM69" s="3">
         <v>-1.4506686316421484</v>
       </c>
-      <c r="AN69">
+      <c r="AN69" s="3">
         <v>-1.718760456973264</v>
       </c>
-      <c r="AO69">
+      <c r="AO69" s="3">
         <v>4.6499008506582014</v>
       </c>
-      <c r="AP69">
+      <c r="AP69" s="3">
         <v>-1.7333549041500367</v>
       </c>
-      <c r="AQ69">
+      <c r="AQ69" s="3">
         <v>-0.74595865811516227</v>
       </c>
-      <c r="AR69">
+      <c r="AR69" s="3">
         <v>2.3170503028769009</v>
       </c>
-      <c r="AS69">
+      <c r="AS69" s="3">
         <v>-1.2703905026003313</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:45" s="3" customFormat="1">
+      <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>18</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>7</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>2</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>4</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>66</v>
       </c>
-      <c r="G70" t="b">
+      <c r="G70" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>34.850000000000001</v>
-      </c>
-      <c r="I70">
-        <v>34.780000000000001</v>
-      </c>
-      <c r="J70">
-        <v>-0.070000000000000284</v>
-      </c>
-      <c r="K70">
+      <c r="H70" s="3">
+        <v>34.85</v>
+      </c>
+      <c r="I70" s="3">
+        <v>34.78</v>
+      </c>
+      <c r="J70" s="3">
+        <v>-7.0000000000000284E-2</v>
+      </c>
+      <c r="K70" s="3">
         <v>2</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="3">
         <v>31.333333333333339</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="3">
         <v>6</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="3">
         <v>-2.2424015724931063</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="3">
         <v>1.1065890794898954</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="3">
         <v>0.26953181470633003</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="3">
         <v>-0.51941553871092316</v>
       </c>
-      <c r="R70">
+      <c r="R70" s="3">
         <v>0.25</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="3">
         <v>0.55555555555555558</v>
       </c>
-      <c r="T70">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="U70">
+      <c r="T70" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="U70" s="3">
         <v>0.29960451640291647</v>
       </c>
-      <c r="V70">
-        <v>0.010010863035844766</v>
-      </c>
-      <c r="W70">
+      <c r="V70" s="3">
+        <v>1.0010863035844766E-2</v>
+      </c>
+      <c r="W70" s="3">
         <v>1.3685139789220742</v>
       </c>
-      <c r="X70">
+      <c r="X70" s="3">
         <v>0.36602268416168787</v>
       </c>
-      <c r="Y70">
+      <c r="Y70" s="3">
         <v>1.4841152970376208</v>
       </c>
-      <c r="Z70">
+      <c r="Z70" s="3">
         <v>-2.6274590541739209</v>
       </c>
-      <c r="AA70">
+      <c r="AA70" s="3">
         <v>-1.4099017960367264</v>
       </c>
-      <c r="AB70">
+      <c r="AB70" s="3">
         <v>0.30380258753274114</v>
       </c>
-      <c r="AC70">
+      <c r="AC70" s="3">
         <v>-2.1220255851581942</v>
       </c>
-      <c r="AD70">
+      <c r="AD70" s="3">
         <v>-1.3734654082603217</v>
       </c>
-      <c r="AE70">
+      <c r="AE70" s="3">
         <v>0.5622713371477811</v>
       </c>
-      <c r="AF70">
+      <c r="AF70" s="3">
         <v>0.64786662258346095</v>
       </c>
-      <c r="AG70">
-        <v>0.0045027567409247401</v>
-      </c>
-      <c r="AH70">
+      <c r="AG70" s="3">
+        <v>4.5027567409247401E-3</v>
+      </c>
+      <c r="AH70" s="5">
         <v>2836.9380952380939</v>
       </c>
-      <c r="AI70">
+      <c r="AI70" s="3">
         <v>1.3025544498108006</v>
       </c>
-      <c r="AJ70">
+      <c r="AJ70" s="3">
         <v>0.23483735818462903</v>
       </c>
-      <c r="AK70">
+      <c r="AK70" s="3">
         <v>5.3425845738493543</v>
       </c>
-      <c r="AL70">
+      <c r="AL70" s="3">
         <v>0.77463997966277331</v>
       </c>
-      <c r="AM70">
+      <c r="AM70" s="3">
         <v>1.1444154938924083</v>
       </c>
-      <c r="AN70">
+      <c r="AN70" s="3">
         <v>2.6083800110167097</v>
       </c>
-      <c r="AO70">
+      <c r="AO70" s="3">
         <v>-0.23273334639918347</v>
       </c>
-      <c r="AP70">
+      <c r="AP70" s="3">
         <v>0.34013972987710567</v>
       </c>
-      <c r="AQ70">
+      <c r="AQ70" s="3">
         <v>2.5550623485540704</v>
       </c>
-      <c r="AR70">
+      <c r="AR70" s="3">
         <v>-0.52052593939438052</v>
       </c>
-      <c r="AS70">
+      <c r="AS70" s="3">
         <v>-1.1819566350730759</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:45">
+      <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B71">
@@ -9908,10 +10240,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>35.719999999999999</v>
+        <v>35.72</v>
       </c>
       <c r="I71">
-        <v>35.439999999999998</v>
+        <v>35.44</v>
       </c>
       <c r="J71">
         <v>-0.28000000000000114</v>
@@ -9932,10 +10264,10 @@
         <v>-2.9669905374375101</v>
       </c>
       <c r="P71">
-        <v>-0.079364279853945563</v>
+        <v>-7.9364279853945563E-2</v>
       </c>
       <c r="Q71">
-        <v>0.071504736964123822</v>
+        <v>7.1504736964123822E-2</v>
       </c>
       <c r="R71">
         <v>0.5</v>
@@ -9985,7 +10317,7 @@
       <c r="AG71">
         <v>0.51545334661974118</v>
       </c>
-      <c r="AH71">
+      <c r="AH71" s="5">
         <v>1078.5071428571434</v>
       </c>
       <c r="AI71">
@@ -10022,8 +10354,8 @@
         <v>-0.57468699327680639</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:45">
+      <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B72">
@@ -10045,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>25.469999999999999</v>
+        <v>25.47</v>
       </c>
       <c r="I72">
         <v>23.07</v>
@@ -10084,7 +10416,7 @@
         <v>1.5714285714285714</v>
       </c>
       <c r="U72">
-        <v>-0.07841806462101876</v>
+        <v>-7.841806462101876E-2</v>
       </c>
       <c r="V72">
         <v>1.149111040449426</v>
@@ -10122,7 +10454,7 @@
       <c r="AG72">
         <v>-0.52276450096455784</v>
       </c>
-      <c r="AH72">
+      <c r="AH72" s="5">
         <v>3469.1222222222223</v>
       </c>
       <c r="AI72">
@@ -10159,8 +10491,8 @@
         <v>2.2926386819995743</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:45">
+      <c r="A73" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B73">
@@ -10185,7 +10517,7 @@
         <v>30.41</v>
       </c>
       <c r="I73">
-        <v>30.109999999999999</v>
+        <v>30.11</v>
       </c>
       <c r="J73">
         <v>-0.30000000000000071</v>
@@ -10209,10 +10541,10 @@
         <v>2.5535876045182473</v>
       </c>
       <c r="Q73">
-        <v>0.00093676497365302298</v>
+        <v>9.3676497365302298E-4</v>
       </c>
       <c r="R73">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -10259,7 +10591,7 @@
       <c r="AG73">
         <v>0.50410797234964866</v>
       </c>
-      <c r="AH73">
+      <c r="AH73" s="5">
         <v>2795.9400000000014</v>
       </c>
       <c r="AI73">
@@ -10296,8 +10628,8 @@
         <v>-0.77699151457384019</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:45">
+      <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B74">
@@ -10319,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>31.559999999999999</v>
+        <v>31.56</v>
       </c>
       <c r="I74">
         <v>30.48</v>
@@ -10349,7 +10681,7 @@
         <v>-0.796666824847858</v>
       </c>
       <c r="R74">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -10396,7 +10728,7 @@
       <c r="AG74">
         <v>1.8881513234481118</v>
       </c>
-      <c r="AH74">
+      <c r="AH74" s="5">
         <v>5640.94888888889</v>
       </c>
       <c r="AI74">
@@ -10433,8 +10765,8 @@
         <v>0.72494861681445966</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:45">
+      <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B75">
@@ -10456,10 +10788,10 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>31.920000000000002</v>
+        <v>31.92</v>
       </c>
       <c r="I75">
-        <v>30.559999999999999</v>
+        <v>30.56</v>
       </c>
       <c r="J75">
         <v>-1.360000000000003</v>
@@ -10525,7 +10857,7 @@
         <v>2.5635570088620785</v>
       </c>
       <c r="AE75">
-        <v>0.052596276648391567</v>
+        <v>5.2596276648391567E-2</v>
       </c>
       <c r="AF75">
         <v>1.2319631973809255</v>
@@ -10533,7 +10865,7 @@
       <c r="AG75">
         <v>0.80654603993056184</v>
       </c>
-      <c r="AH75">
+      <c r="AH75" s="5">
         <v>9815.5644444444497</v>
       </c>
       <c r="AI75">
@@ -10564,151 +10896,151 @@
         <v>-1.8990071512472075</v>
       </c>
       <c r="AR75">
-        <v>-0.0071245356807683865</v>
+        <v>-7.1245356807683865E-3</v>
       </c>
       <c r="AS75">
-        <v>0.088543920985754976</v>
+        <v>8.8543920985754976E-2</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:45" s="3" customFormat="1">
+      <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>32</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>8</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>4</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>9</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>70</v>
       </c>
-      <c r="G76" t="b">
+      <c r="G76" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>32.509999999999998</v>
-      </c>
-      <c r="I76">
-        <v>31.550000000000001</v>
-      </c>
-      <c r="J76">
+      <c r="H76" s="3">
+        <v>32.51</v>
+      </c>
+      <c r="I76" s="3">
+        <v>31.55</v>
+      </c>
+      <c r="J76" s="3">
         <v>-0.9599999999999973</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <v>2</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="3">
         <v>22.875000000000004</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="3">
         <v>5</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="3">
         <v>9.5748663101604272</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="3">
         <v>1.7837019271389671</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="3">
         <v>0.79202110160293926</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="3">
         <v>0.98501907327031257</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="3">
         <v>0.65000000000000013</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="3">
         <v>0.76923076923076905</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="3">
         <v>-2.0598950275272583</v>
       </c>
-      <c r="V76">
-        <v>0.017010330346034056</v>
-      </c>
-      <c r="W76">
+      <c r="V76" s="3">
+        <v>1.7010330346034056E-2</v>
+      </c>
+      <c r="W76" s="3">
         <v>-0.80916594373976469</v>
       </c>
-      <c r="X76">
+      <c r="X76" s="3">
         <v>2.8771278371920661</v>
       </c>
-      <c r="Y76">
+      <c r="Y76" s="3">
         <v>-7.6417086019508309</v>
       </c>
-      <c r="Z76">
+      <c r="Z76" s="3">
         <v>0.74598481521279081</v>
       </c>
-      <c r="AA76">
+      <c r="AA76" s="3">
         <v>0.60047287948340689</v>
       </c>
-      <c r="AB76">
+      <c r="AB76" s="3">
         <v>-0.26816231930186624</v>
       </c>
-      <c r="AC76">
+      <c r="AC76" s="3">
         <v>0.41851521479262033</v>
       </c>
-      <c r="AD76">
+      <c r="AD76" s="3">
         <v>0.96097320309262479</v>
       </c>
-      <c r="AE76">
+      <c r="AE76" s="3">
         <v>-0.9668560715766471</v>
       </c>
-      <c r="AF76">
+      <c r="AF76" s="3">
         <v>-1.072877213404501</v>
       </c>
-      <c r="AG76">
+      <c r="AG76" s="3">
         <v>2.650399554720734</v>
       </c>
-      <c r="AH76">
+      <c r="AH76" s="5">
         <v>10464.924444444447</v>
       </c>
-      <c r="AI76">
+      <c r="AI76" s="3">
         <v>1.7130727203328178</v>
       </c>
-      <c r="AJ76">
+      <c r="AJ76" s="3">
         <v>0.13564635811990783</v>
       </c>
-      <c r="AK76">
+      <c r="AK76" s="3">
         <v>2.5746797721392438</v>
       </c>
-      <c r="AL76">
-        <v>-0.035054662331562333</v>
-      </c>
-      <c r="AM76">
+      <c r="AL76" s="3">
+        <v>-3.5054662331562333E-2</v>
+      </c>
+      <c r="AM76" s="3">
         <v>2.4958588165610736</v>
       </c>
-      <c r="AN76">
+      <c r="AN76" s="3">
         <v>-0.61392034356928915</v>
       </c>
-      <c r="AO76">
+      <c r="AO76" s="3">
         <v>1.5735681770418006</v>
       </c>
-      <c r="AP76">
+      <c r="AP76" s="3">
         <v>-0.72067751056445939</v>
       </c>
-      <c r="AQ76">
+      <c r="AQ76" s="3">
         <v>-3.4103510708259099</v>
       </c>
-      <c r="AR76">
+      <c r="AR76" s="3">
         <v>0.99045900455500013</v>
       </c>
-      <c r="AS76">
+      <c r="AS76" s="3">
         <v>0.82605563398743442</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:45">
+      <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B77">
@@ -10730,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>32.670000000000002</v>
+        <v>32.67</v>
       </c>
       <c r="I77">
-        <v>32.689999999999998</v>
+        <v>32.69</v>
       </c>
       <c r="J77">
-        <v>0.019999999999996021</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="K77">
         <v>9</v>
@@ -10807,7 +11139,7 @@
       <c r="AG77">
         <v>1.1928824500660644</v>
       </c>
-      <c r="AH77">
+      <c r="AH77" s="5">
         <v>743.48444444444408</v>
       </c>
       <c r="AI77">
@@ -10844,145 +11176,145 @@
         <v>0.30800568287283636</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:45" s="3" customFormat="1">
+      <c r="A78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>26</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>8</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>2</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>7</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>87</v>
       </c>
-      <c r="G78" t="b">
+      <c r="G78" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>32.68</v>
       </c>
-      <c r="I78">
-        <v>32.530000000000001</v>
-      </c>
-      <c r="J78">
+      <c r="I78" s="3">
+        <v>32.53</v>
+      </c>
+      <c r="J78" s="3">
         <v>-0.14999999999999858</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
+      <c r="K78" s="3">
+        <v>1</v>
+      </c>
+      <c r="L78" s="3">
         <v>30.238095238095237</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="3">
         <v>6</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="3">
         <v>3.041396103896103</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="3">
         <v>0.95338841899400462</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="3">
         <v>0.18846396214902955</v>
       </c>
-      <c r="Q78">
-        <v>-0.075297692652033968</v>
-      </c>
-      <c r="R78">
+      <c r="Q78" s="3">
+        <v>-7.5297692652033968E-2</v>
+      </c>
+      <c r="R78" s="3">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="3">
         <v>1.1666666666666667</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="3">
         <v>1.1666666666666667</v>
       </c>
-      <c r="U78">
+      <c r="U78" s="3">
         <v>-0.24032408996151389</v>
       </c>
-      <c r="V78">
-        <v>-0.062448628363477497</v>
-      </c>
-      <c r="W78">
+      <c r="V78" s="3">
+        <v>-6.2448628363477497E-2</v>
+      </c>
+      <c r="W78" s="3">
         <v>0.22049066780396884</v>
       </c>
-      <c r="X78">
+      <c r="X78" s="3">
         <v>0.34117136593526287</v>
       </c>
-      <c r="Y78">
+      <c r="Y78" s="3">
         <v>-2.9037388133054729</v>
       </c>
-      <c r="Z78">
+      <c r="Z78" s="3">
         <v>-2.5068546379610916</v>
       </c>
-      <c r="AA78">
+      <c r="AA78" s="3">
         <v>-1.2926956933172586</v>
       </c>
-      <c r="AB78">
+      <c r="AB78" s="3">
         <v>0.2755374870098195</v>
       </c>
-      <c r="AC78">
+      <c r="AC78" s="3">
         <v>-1.4867346177892113</v>
       </c>
-      <c r="AD78">
+      <c r="AD78" s="3">
         <v>0.96587800899267828</v>
       </c>
-      <c r="AE78">
+      <c r="AE78" s="3">
         <v>-1.3064162172238114</v>
       </c>
-      <c r="AF78">
+      <c r="AF78" s="3">
         <v>0.10585224971716484</v>
       </c>
-      <c r="AG78">
+      <c r="AG78" s="3">
         <v>-0.18491972384443367</v>
       </c>
-      <c r="AH78">
+      <c r="AH78" s="5">
         <v>6908.9555555555544</v>
       </c>
-      <c r="AI78">
+      <c r="AI78" s="3">
         <v>1.0237832570966316</v>
       </c>
-      <c r="AJ78">
+      <c r="AJ78" s="3">
         <v>0.1948681743180348</v>
       </c>
-      <c r="AK78">
+      <c r="AK78" s="3">
         <v>6.2859504556554944</v>
       </c>
-      <c r="AL78">
+      <c r="AL78" s="3">
         <v>-1.9136556296400391</v>
       </c>
-      <c r="AM78">
+      <c r="AM78" s="3">
         <v>3.5491715286796421</v>
       </c>
-      <c r="AN78">
-        <v>0.099757422395917797</v>
-      </c>
-      <c r="AO78">
+      <c r="AN78" s="3">
+        <v>9.9757422395917797E-2</v>
+      </c>
+      <c r="AO78" s="3">
         <v>1.4910468640786463</v>
       </c>
-      <c r="AP78">
+      <c r="AP78" s="3">
         <v>-0.60937086617574587</v>
       </c>
-      <c r="AQ78">
+      <c r="AQ78" s="3">
         <v>-2.1355020041047301</v>
       </c>
-      <c r="AR78">
+      <c r="AR78" s="3">
         <v>-0.12975817553057176</v>
       </c>
-      <c r="AS78">
+      <c r="AS78" s="3">
         <v>0.14756766189504764</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:45">
+      <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B79">
@@ -11031,10 +11363,10 @@
         <v>0.98384320573122841</v>
       </c>
       <c r="Q79">
-        <v>-0.067882100700176362</v>
+        <v>-6.7882100700176362E-2</v>
       </c>
       <c r="R79">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S79">
         <v>0.4285714285714286</v>
@@ -11081,7 +11413,7 @@
       <c r="AG79">
         <v>2.4693359069473257</v>
       </c>
-      <c r="AH79">
+      <c r="AH79" s="5">
         <v>6514.5688888888881</v>
       </c>
       <c r="AI79">
@@ -11118,8 +11450,8 @@
         <v>-1.2059324788757626</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:45">
+      <c r="A80" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B80">
@@ -11141,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>33.109999999999999</v>
+        <v>33.11</v>
       </c>
       <c r="I80">
         <v>32.68</v>
@@ -11171,7 +11503,7 @@
         <v>-0.69605318907700686</v>
       </c>
       <c r="R80">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -11183,7 +11515,7 @@
         <v>0.91301990289415813</v>
       </c>
       <c r="V80">
-        <v>0.019262386909966948</v>
+        <v>1.9262386909966948E-2</v>
       </c>
       <c r="W80">
         <v>-0.81552352711689335</v>
@@ -11207,7 +11539,7 @@
         <v>-1.6416565360546853</v>
       </c>
       <c r="AD80">
-        <v>0.069991982728059357</v>
+        <v>6.9991982728059357E-2</v>
       </c>
       <c r="AE80">
         <v>0.63408624873476416</v>
@@ -11218,7 +11550,7 @@
       <c r="AG80">
         <v>0.63352086950306485</v>
       </c>
-      <c r="AH80">
+      <c r="AH80" s="5">
         <v>6749.2688888888861</v>
       </c>
       <c r="AI80">
@@ -11255,8 +11587,8 @@
         <v>3.2461244176412865</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:45">
+      <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B81">
@@ -11278,13 +11610,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>34.240000000000002</v>
+        <v>34.24</v>
       </c>
       <c r="I81">
         <v>34.200000000000003</v>
       </c>
       <c r="J81">
-        <v>-0.039999999999999147</v>
+        <v>-3.9999999999999147E-2</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -11338,7 +11670,7 @@
         <v>0.68509234759216486</v>
       </c>
       <c r="AB81">
-        <v>-0.0074497810462187649</v>
+        <v>-7.4497810462187649E-3</v>
       </c>
       <c r="AC81">
         <v>0.47925855899757625</v>
@@ -11355,7 +11687,7 @@
       <c r="AG81">
         <v>-0.12448167715811802</v>
       </c>
-      <c r="AH81">
+      <c r="AH81" s="5">
         <v>3767.9377777777781</v>
       </c>
       <c r="AI81">
@@ -11392,8 +11724,8 @@
         <v>1.2729098049318985</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:45">
+      <c r="A82" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B82">
@@ -11415,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>25.890000000000001</v>
+        <v>25.89</v>
       </c>
       <c r="I82">
         <v>24.27</v>
@@ -11427,7 +11759,7 @@
         <v>10</v>
       </c>
       <c r="L82">
-        <v>-24.199999999999999</v>
+        <v>-24.2</v>
       </c>
       <c r="M82">
         <v>8</v>
@@ -11442,10 +11774,10 @@
         <v>1.4574479957716127</v>
       </c>
       <c r="Q82">
-        <v>0.056527819039736048</v>
+        <v>5.6527819039736048E-2</v>
       </c>
       <c r="R82">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="S82">
         <v>1.3333333333333335</v>
@@ -11492,14 +11824,14 @@
       <c r="AG82">
         <v>0.31137071796271759</v>
       </c>
-      <c r="AH82">
+      <c r="AH82" s="5">
         <v>7582.620512820512</v>
       </c>
       <c r="AI82">
         <v>1.1960055434429164</v>
       </c>
       <c r="AJ82">
-        <v>0.016193914423739585</v>
+        <v>1.6193914423739585E-2</v>
       </c>
       <c r="AK82">
         <v>1.1689230151720766</v>
@@ -11529,8 +11861,8 @@
         <v>-0.69196880090672275</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:45">
+      <c r="A83" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B83">
@@ -11552,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>28.670000000000002</v>
+        <v>28.67</v>
       </c>
       <c r="I83">
         <v>29.09</v>
@@ -11627,8 +11959,8 @@
         <v>-0.37363724284975047</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:45">
+      <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B84">
@@ -11650,10 +11982,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>29.140000000000001</v>
+        <v>29.14</v>
       </c>
       <c r="I84">
-        <v>28.760000000000002</v>
+        <v>28.76</v>
       </c>
       <c r="J84">
         <v>-0.37999999999999901</v>
@@ -11680,7 +12012,7 @@
         <v>-0.51306383053389615</v>
       </c>
       <c r="R84">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -11692,10 +12024,10 @@
         <v>0.49138529230308658</v>
       </c>
       <c r="V84">
-        <v>0.079120143374120905</v>
+        <v>7.9120143374120905E-2</v>
       </c>
       <c r="W84">
-        <v>0.06260435043800093</v>
+        <v>6.260435043800093E-2</v>
       </c>
       <c r="X84">
         <v>-1.1595755984988998</v>
@@ -11728,8 +12060,8 @@
         <v>0.40120303491222697</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:45">
+      <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B85">
@@ -11781,7 +12113,7 @@
         <v>-0.64633414081382934</v>
       </c>
       <c r="R85">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S85">
         <v>0.83333333333333337</v>
@@ -11796,7 +12128,7 @@
         <v>0.29035678593117759</v>
       </c>
       <c r="W85">
-        <v>0.022417301044718257</v>
+        <v>2.2417301044718257E-2</v>
       </c>
       <c r="X85">
         <v>0.29128616205939351</v>
@@ -11828,14 +12160,14 @@
       <c r="AG85">
         <v>2.2648970141010514</v>
       </c>
-      <c r="AH85">
+      <c r="AH85" s="5">
         <v>3717.9487179487178</v>
       </c>
       <c r="AI85">
         <v>1.2574432448522601</v>
       </c>
       <c r="AJ85">
-        <v>0.02619931034482759</v>
+        <v>2.619931034482759E-2</v>
       </c>
       <c r="AK85">
         <v>4.455077960400879</v>
@@ -11850,7 +12182,7 @@
         <v>3.9628574036297102</v>
       </c>
       <c r="AO85">
-        <v>-0.0037675311076313597</v>
+        <v>-3.7675311076313597E-3</v>
       </c>
       <c r="AP85">
         <v>0.24166429283556856</v>
@@ -11865,8 +12197,8 @@
         <v>1.4460932884609252</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:45">
+      <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B86">
@@ -11888,10 +12220,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>31.289999999999999</v>
+        <v>31.29</v>
       </c>
       <c r="I86">
-        <v>30.510000000000002</v>
+        <v>30.51</v>
       </c>
       <c r="J86">
         <v>-0.77999999999999758</v>
@@ -11918,7 +12250,7 @@
         <v>-1.7943932846073201</v>
       </c>
       <c r="R86">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S86">
         <v>0.88888888888888895</v>
@@ -11965,14 +12297,14 @@
       <c r="AG86">
         <v>-0.1818668553167625</v>
       </c>
-      <c r="AH86">
+      <c r="AH86" s="5">
         <v>2574.3435897435897</v>
       </c>
       <c r="AI86">
         <v>1.4107204214247633</v>
       </c>
       <c r="AJ86">
-        <v>0.030999189238182689</v>
+        <v>3.0999189238182689E-2</v>
       </c>
       <c r="AK86">
         <v>0.90986718527523436</v>
@@ -12002,8 +12334,8 @@
         <v>3.2534535185456801</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:45">
+      <c r="A87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B87">
@@ -12025,10 +12357,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>31.510000000000002</v>
+        <v>31.51</v>
       </c>
       <c r="I87">
-        <v>30.239999999999998</v>
+        <v>30.24</v>
       </c>
       <c r="J87">
         <v>-1.2700000000000031</v>
@@ -12055,7 +12387,7 @@
         <v>-0.45458333809658391</v>
       </c>
       <c r="R87">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S87">
         <v>0.875</v>
@@ -12064,10 +12396,10 @@
         <v>1</v>
       </c>
       <c r="U87">
-        <v>0.041122458014305197</v>
+        <v>4.1122458014305197E-2</v>
       </c>
       <c r="V87">
-        <v>-0.051897902229819118</v>
+        <v>-5.1897902229819118E-2</v>
       </c>
       <c r="W87">
         <v>1.7055893360257015</v>
@@ -12102,14 +12434,14 @@
       <c r="AG87">
         <v>-0.97769666303420444</v>
       </c>
-      <c r="AH87">
+      <c r="AH87" s="5">
         <v>1832.3538461538458</v>
       </c>
       <c r="AI87">
         <v>1.765727598264889</v>
       </c>
       <c r="AJ87">
-        <v>0.028311629429989174</v>
+        <v>2.8311629429989174E-2</v>
       </c>
       <c r="AK87">
         <v>-0.55457338005557033</v>
@@ -12139,8 +12471,8 @@
         <v>0.76093525531259421</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:45">
+      <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B88">
@@ -12162,13 +12494,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>32.149999999999999</v>
+        <v>32.15</v>
       </c>
       <c r="I88">
-        <v>32.060000000000002</v>
+        <v>32.06</v>
       </c>
       <c r="J88">
-        <v>-0.089999999999996305</v>
+        <v>-8.9999999999996305E-2</v>
       </c>
       <c r="K88">
         <v>7</v>
@@ -12195,13 +12527,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="S88">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="T88">
         <v>1.4000000000000001</v>
       </c>
       <c r="U88">
-        <v>-0.098431646479019835</v>
+        <v>-9.8431646479019835E-2</v>
       </c>
       <c r="V88">
         <v>1.1160158957298696</v>
@@ -12231,7 +12563,7 @@
         <v>-1.1802286437514817</v>
       </c>
       <c r="AE88">
-        <v>-0.056035341060622849</v>
+        <v>-5.6035341060622849E-2</v>
       </c>
       <c r="AF88">
         <v>-0.10707769865824054</v>
@@ -12240,8 +12572,8 @@
         <v>-1.1536045388779401</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:45">
+      <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B89">
@@ -12263,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>36.149999999999999</v>
+        <v>36.15</v>
       </c>
       <c r="I89">
         <v>35.18</v>
@@ -12293,7 +12625,7 @@
         <v>-0.48042924261957298</v>
       </c>
       <c r="R89">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="S89">
         <v>1.125</v>
@@ -12335,14 +12667,14 @@
         <v>-2.612778944023586</v>
       </c>
       <c r="AF89">
-        <v>-0.043193175760668362</v>
+        <v>-4.3193175760668362E-2</v>
       </c>
       <c r="AG89">
         <v>0.23969354347864913</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:45">
+      <c r="A90" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B90">
@@ -12370,7 +12702,7 @@
         <v>36.409999999999997</v>
       </c>
       <c r="J90">
-        <v>-0.070000000000000284</v>
+        <v>-7.0000000000000284E-2</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -12397,7 +12729,7 @@
         <v>0.5</v>
       </c>
       <c r="S90">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="T90">
         <v>1.2222222222222223</v>
@@ -12442,8 +12774,8 @@
         <v>1.3957687322087775</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:45">
+      <c r="A91" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B91">
@@ -12468,7 +12800,7 @@
         <v>25.77</v>
       </c>
       <c r="I91">
-        <v>21.190000000000001</v>
+        <v>21.19</v>
       </c>
       <c r="J91">
         <v>-4.5799999999999983</v>
@@ -12537,12 +12869,12 @@
         <v>2.9905452498159422</v>
       </c>
       <c r="AF91">
-        <v>0.056534625075858873</v>
+        <v>5.6534625075858873E-2</v>
       </c>
       <c r="AG91">
         <v>0.5620032770251796</v>
       </c>
-      <c r="AH91">
+      <c r="AH91" s="5">
         <v>6076.3844444444439</v>
       </c>
       <c r="AI91">
@@ -12558,7 +12890,7 @@
         <v>1.9713233676272768</v>
       </c>
       <c r="AM91">
-        <v>-0.062572443668702363</v>
+        <v>-6.2572443668702363E-2</v>
       </c>
       <c r="AN91">
         <v>-4.4630983733465843</v>
@@ -12570,17 +12902,17 @@
         <v>0.90548175948615439</v>
       </c>
       <c r="AQ91">
-        <v>-0.089066290368616546</v>
+        <v>-8.9066290368616546E-2</v>
       </c>
       <c r="AR91">
         <v>-0.60329361292555017</v>
       </c>
       <c r="AS91">
-        <v>0.045339478260516798</v>
+        <v>4.5339478260516798E-2</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:45">
+      <c r="A92" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B92">
@@ -12602,10 +12934,10 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>28.449999999999999</v>
+        <v>28.45</v>
       </c>
       <c r="I92">
-        <v>28.219999999999999</v>
+        <v>28.22</v>
       </c>
       <c r="J92">
         <v>-0.23000000000000043</v>
@@ -12626,7 +12958,7 @@
         <v>-3.3761204471070085</v>
       </c>
       <c r="P92">
-        <v>-0.031239551900715114</v>
+        <v>-3.1239551900715114E-2</v>
       </c>
       <c r="Q92">
         <v>-0.68838922100342115</v>
@@ -12641,7 +12973,7 @@
         <v>0.93750000000000011</v>
       </c>
       <c r="U92">
-        <v>-0.040176308846377386</v>
+        <v>-4.0176308846377386E-2</v>
       </c>
       <c r="V92">
         <v>3.4777457501046025</v>
@@ -12679,7 +13011,7 @@
       <c r="AG92">
         <v>0.36708062470711444</v>
       </c>
-      <c r="AH92">
+      <c r="AH92" s="5">
         <v>2337.9222222222215</v>
       </c>
       <c r="AI92">
@@ -12716,8 +13048,8 @@
         <v>0.85986487523471289</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:45">
+      <c r="A93" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B93">
@@ -12739,13 +13071,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>28.620000000000001</v>
+        <v>28.62</v>
       </c>
       <c r="I93">
-        <v>28.559999999999999</v>
+        <v>28.56</v>
       </c>
       <c r="J93">
-        <v>-0.060000000000002274</v>
+        <v>-6.0000000000002274E-2</v>
       </c>
       <c r="K93">
         <v>5</v>
@@ -12769,7 +13101,7 @@
         <v>-0.29176273383689971</v>
       </c>
       <c r="R93">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -12778,16 +13110,16 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>0.048923553349250012</v>
+        <v>4.8923553349250012E-2</v>
       </c>
       <c r="V93">
-        <v>0.061613413479986896</v>
+        <v>6.1613413479986896E-2</v>
       </c>
       <c r="W93">
         <v>-0.6585831956121817</v>
       </c>
       <c r="X93">
-        <v>0.09383340309488733</v>
+        <v>9.383340309488733E-2</v>
       </c>
       <c r="Y93">
         <v>-5.2205297599421696</v>
@@ -12816,7 +13148,7 @@
       <c r="AG93">
         <v>-0.69909293944933115</v>
       </c>
-      <c r="AH93">
+      <c r="AH93" s="5">
         <v>3973.068888888889</v>
       </c>
       <c r="AI93">
@@ -12829,7 +13161,7 @@
         <v>-1.17231326130858</v>
       </c>
       <c r="AL93">
-        <v>-0.00071128503435301227</v>
+        <v>-7.1128503435301227E-4</v>
       </c>
       <c r="AM93">
         <v>-2.5595605693086338</v>
@@ -12853,8 +13185,8 @@
         <v>0.26259528395814308</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:45">
+      <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B94">
@@ -12876,10 +13208,10 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>29.280000000000001</v>
+        <v>29.28</v>
       </c>
       <c r="I94">
-        <v>29.670000000000002</v>
+        <v>29.67</v>
       </c>
       <c r="J94">
         <v>0.39000000000000057</v>
@@ -12918,7 +13250,7 @@
         <v>-1.0645160683487167</v>
       </c>
       <c r="V94">
-        <v>0.043208957919520202</v>
+        <v>4.3208957919520202E-2</v>
       </c>
       <c r="W94">
         <v>-0.72425003803349697</v>
@@ -12927,7 +13259,7 @@
         <v>0.50048260339572692</v>
       </c>
       <c r="Y94">
-        <v>0.056137205521755211</v>
+        <v>5.6137205521755211E-2</v>
       </c>
       <c r="Z94">
         <v>2.492758320634481</v>
@@ -12953,14 +13285,14 @@
       <c r="AG94">
         <v>0.22621789454840369</v>
       </c>
-      <c r="AH94">
+      <c r="AH94" s="5">
         <v>2131.1777777777775</v>
       </c>
       <c r="AI94">
         <v>1.2296267646228465</v>
       </c>
       <c r="AJ94">
-        <v>0.090860557021156779</v>
+        <v>9.0860557021156779E-2</v>
       </c>
       <c r="AK94">
         <v>-2.2781505038281056</v>
@@ -12990,145 +13322,145 @@
         <v>-3.4183944834869502</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:45" s="3" customFormat="1">
+      <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>36</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>10</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>5</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>2</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>94</v>
       </c>
-      <c r="G95" t="b">
+      <c r="G95" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H95">
-        <v>30.079999999999998</v>
-      </c>
-      <c r="I95">
-        <v>30.579999999999998</v>
-      </c>
-      <c r="J95">
+      <c r="H95" s="3">
+        <v>30.08</v>
+      </c>
+      <c r="I95" s="3">
+        <v>30.58</v>
+      </c>
+      <c r="J95" s="3">
         <v>0.5</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>6</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="3">
         <v>-5.0833333333333348</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="3">
         <v>2</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="3">
         <v>15.337280366692132</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="3">
         <v>0.9762032145064814</v>
       </c>
-      <c r="P95">
+      <c r="P95" s="3">
         <v>-1.674503733348353</v>
       </c>
-      <c r="Q95">
+      <c r="Q95" s="3">
         <v>-1.387149233300665</v>
       </c>
-      <c r="R95">
+      <c r="R95" s="3">
         <v>0.5</v>
       </c>
-      <c r="S95">
-        <v>1</v>
-      </c>
-      <c r="T95">
+      <c r="S95" s="3">
+        <v>1</v>
+      </c>
+      <c r="T95" s="3">
         <v>0.90909090909090906</v>
       </c>
-      <c r="U95">
+      <c r="U95" s="3">
         <v>3.1810316106376151</v>
       </c>
-      <c r="V95">
+      <c r="V95" s="3">
         <v>-1.1798564903705007</v>
       </c>
-      <c r="W95">
+      <c r="W95" s="3">
         <v>3.6395228542119291</v>
       </c>
-      <c r="X95">
+      <c r="X95" s="3">
         <v>-1.7501970703528391</v>
       </c>
-      <c r="Y95">
-        <v>0.029022118930233452</v>
-      </c>
-      <c r="Z95">
+      <c r="Y95" s="3">
+        <v>2.9022118930233452E-2</v>
+      </c>
+      <c r="Z95" s="3">
         <v>-2.3501424216177846</v>
       </c>
-      <c r="AA95">
+      <c r="AA95" s="3">
         <v>0.21572133027416643</v>
       </c>
-      <c r="AB95">
+      <c r="AB95" s="3">
         <v>-0.55056277455783165</v>
       </c>
-      <c r="AC95">
+      <c r="AC95" s="3">
         <v>1.8216910452245845</v>
       </c>
-      <c r="AD95">
+      <c r="AD95" s="3">
         <v>-2.8804426790078157</v>
       </c>
-      <c r="AE95">
+      <c r="AE95" s="3">
         <v>-0.28481813251064148</v>
       </c>
-      <c r="AF95">
+      <c r="AF95" s="3">
         <v>-0.72606302705032644</v>
       </c>
-      <c r="AG95">
+      <c r="AG95" s="3">
         <v>0.2636789439908328</v>
       </c>
-      <c r="AH95">
+      <c r="AH95" s="5">
         <v>5345.7111111111117</v>
       </c>
-      <c r="AI95">
+      <c r="AI95" s="3">
         <v>1.332090886743349</v>
       </c>
-      <c r="AJ95">
+      <c r="AJ95" s="3">
         <v>0.16015247945393388</v>
       </c>
-      <c r="AK95">
+      <c r="AK95" s="3">
         <v>2.9063091689227045</v>
       </c>
-      <c r="AL95">
+      <c r="AL95" s="3">
         <v>-0.51799388686698011</v>
       </c>
-      <c r="AM95">
+      <c r="AM95" s="3">
         <v>2.5423710830825477</v>
       </c>
-      <c r="AN95">
+      <c r="AN95" s="3">
         <v>-1.5827521625915073</v>
       </c>
-      <c r="AO95">
-        <v>-0.082100409935952162</v>
-      </c>
-      <c r="AP95">
+      <c r="AO95" s="3">
+        <v>-8.2100409935952162E-2</v>
+      </c>
+      <c r="AP95" s="3">
         <v>-2.898057906394067</v>
       </c>
-      <c r="AQ95">
+      <c r="AQ95" s="3">
         <v>-0.69600271413079884</v>
       </c>
-      <c r="AR95">
+      <c r="AR95" s="3">
         <v>-0.15766916325509156</v>
       </c>
-      <c r="AS95">
+      <c r="AS95" s="3">
         <v>0.26095554216269767</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:45">
+      <c r="A96" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B96">
@@ -13150,10 +13482,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>31.289999999999999</v>
+        <v>31.29</v>
       </c>
       <c r="I96">
-        <v>31.940000000000001</v>
+        <v>31.94</v>
       </c>
       <c r="J96">
         <v>0.65000000000000213</v>
@@ -13192,7 +13524,7 @@
         <v>1.0239072423872919</v>
       </c>
       <c r="V96">
-        <v>-0.07031449671695654</v>
+        <v>-7.031449671695654E-2</v>
       </c>
       <c r="W96">
         <v>1.2890778509979188</v>
@@ -13227,7 +13559,7 @@
       <c r="AG96">
         <v>1.3365399725847373</v>
       </c>
-      <c r="AH96">
+      <c r="AH96" s="5">
         <v>3618.3355555555554</v>
       </c>
       <c r="AI96">
@@ -13264,282 +13596,282 @@
         <v>-0.13094442449868557</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:45" s="3" customFormat="1">
+      <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>32</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>10</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>5</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>9</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>77</v>
       </c>
-      <c r="G97" t="b">
+      <c r="G97" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H97">
-        <v>31.390000000000001</v>
-      </c>
-      <c r="I97">
+      <c r="H97" s="3">
+        <v>31.39</v>
+      </c>
+      <c r="I97" s="3">
         <v>32.25</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="3">
         <v>0.85999999999999943</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>2</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="3">
         <v>24.166666666666664</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="3">
         <v>3</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="3">
         <v>14.960427807486631</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="3">
         <v>1.6473296624969596</v>
       </c>
-      <c r="P97">
+      <c r="P97" s="3">
         <v>-2.5613295240497176</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" s="3">
         <v>-1.2735593968763337</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S97">
+      <c r="S97" s="3">
         <v>0.7857142857142857</v>
       </c>
-      <c r="T97">
-        <v>1</v>
-      </c>
-      <c r="U97">
+      <c r="T97" s="3">
+        <v>1</v>
+      </c>
+      <c r="U97" s="3">
         <v>3.1762164536614002</v>
       </c>
-      <c r="V97">
+      <c r="V97" s="3">
         <v>0.29819156031464894</v>
       </c>
-      <c r="W97">
+      <c r="W97" s="3">
         <v>1.3552609077214091</v>
       </c>
-      <c r="X97">
+      <c r="X97" s="3">
         <v>-1.4603823749624609</v>
       </c>
-      <c r="Y97">
+      <c r="Y97" s="3">
         <v>0.34090619146654744</v>
       </c>
-      <c r="Z97">
+      <c r="Z97" s="3">
         <v>-1.0765667928959544</v>
       </c>
-      <c r="AA97">
+      <c r="AA97" s="3">
         <v>-1.4185106173611828</v>
       </c>
-      <c r="AB97">
+      <c r="AB97" s="3">
         <v>0.33408027057591205</v>
       </c>
-      <c r="AC97">
+      <c r="AC97" s="3">
         <v>0.5399356892391094</v>
       </c>
-      <c r="AD97">
+      <c r="AD97" s="3">
         <v>-0.41609308927276367</v>
       </c>
-      <c r="AE97">
+      <c r="AE97" s="3">
         <v>0.69065522098952159</v>
       </c>
-      <c r="AF97">
+      <c r="AF97" s="3">
         <v>-0.3474970922654021</v>
       </c>
-      <c r="AG97">
+      <c r="AG97" s="3">
         <v>-0.6714557510797784</v>
       </c>
-      <c r="AH97">
+      <c r="AH97" s="5">
         <v>12595.479999999992</v>
       </c>
-      <c r="AI97">
+      <c r="AI97" s="3">
         <v>1.7044463223209452</v>
       </c>
-      <c r="AJ97">
+      <c r="AJ97" s="3">
         <v>0.10321268687920863</v>
       </c>
-      <c r="AK97">
+      <c r="AK97" s="3">
         <v>1.6457186339798375</v>
       </c>
-      <c r="AL97">
-        <v>-0.017996800929973113</v>
-      </c>
-      <c r="AM97">
+      <c r="AL97" s="3">
+        <v>-1.7996800929973113E-2</v>
+      </c>
+      <c r="AM97" s="3">
         <v>3.7495224870630071</v>
       </c>
-      <c r="AN97">
+      <c r="AN97" s="3">
         <v>-2.7160187185843876</v>
       </c>
-      <c r="AO97">
+      <c r="AO97" s="3">
         <v>1.427985467115938</v>
       </c>
-      <c r="AP97">
+      <c r="AP97" s="3">
         <v>-2.2006384432167265</v>
       </c>
-      <c r="AQ97">
+      <c r="AQ97" s="3">
         <v>0.52484597547340106</v>
       </c>
-      <c r="AR97">
+      <c r="AR97" s="3">
         <v>-1.1945848299738346</v>
       </c>
-      <c r="AS97">
+      <c r="AS97" s="3">
         <v>0.89144268955263239</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:45" s="3" customFormat="1">
+      <c r="A98" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>33</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>10</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>4</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>3</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>94</v>
       </c>
-      <c r="G98" t="b">
+      <c r="G98" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H98">
-        <v>32.490000000000002</v>
-      </c>
-      <c r="I98">
+      <c r="H98" s="3">
+        <v>32.49</v>
+      </c>
+      <c r="I98" s="3">
         <v>32.270000000000003</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>-0.21999999999999886</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <v>4</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="3">
         <v>5.6666666666666679</v>
       </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98">
+      <c r="M98" s="3">
+        <v>1</v>
+      </c>
+      <c r="N98" s="3">
         <v>20.02941176470588</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="3">
         <v>2.4710633879948349</v>
       </c>
-      <c r="P98">
+      <c r="P98" s="3">
         <v>-1.7266395125589991</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" s="3">
         <v>-0.73505640784167925</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="3">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S98">
+      <c r="S98" s="3">
         <v>1.1428571428571428</v>
       </c>
-      <c r="T98">
-        <v>1</v>
-      </c>
-      <c r="U98">
+      <c r="T98" s="3">
+        <v>1</v>
+      </c>
+      <c r="U98" s="3">
         <v>0.68703104040070073</v>
       </c>
-      <c r="V98">
-        <v>-0.08206663527775504</v>
-      </c>
-      <c r="W98">
+      <c r="V98" s="3">
+        <v>-8.206663527775504E-2</v>
+      </c>
+      <c r="W98" s="3">
         <v>2.5879123423322894</v>
       </c>
-      <c r="X98">
+      <c r="X98" s="3">
         <v>0.17286529876213985</v>
       </c>
-      <c r="Y98">
+      <c r="Y98" s="3">
         <v>2.0059214794780553</v>
       </c>
-      <c r="Z98">
+      <c r="Z98" s="3">
         <v>2.1654728872033755</v>
       </c>
-      <c r="AA98">
+      <c r="AA98" s="3">
         <v>0.62201191156626356</v>
       </c>
-      <c r="AB98">
+      <c r="AB98" s="3">
         <v>2.3045762628429975</v>
       </c>
-      <c r="AC98">
+      <c r="AC98" s="3">
         <v>0.6940870600198995</v>
       </c>
-      <c r="AD98">
+      <c r="AD98" s="3">
         <v>-1.1358726794358924</v>
       </c>
-      <c r="AE98">
+      <c r="AE98" s="3">
         <v>-0.67546429840042732</v>
       </c>
-      <c r="AF98">
+      <c r="AF98" s="3">
         <v>-0.62412943946086397</v>
       </c>
-      <c r="AG98">
+      <c r="AG98" s="3">
         <v>0.16886442155986578</v>
       </c>
-      <c r="AH98">
+      <c r="AH98" s="5">
         <v>7097.1044444444442</v>
       </c>
-      <c r="AI98">
+      <c r="AI98" s="3">
         <v>1.4480942258326137</v>
       </c>
-      <c r="AJ98">
+      <c r="AJ98" s="3">
         <v>0.15612032074426602</v>
       </c>
-      <c r="AK98">
+      <c r="AK98" s="3">
         <v>4.7802517113884786</v>
       </c>
-      <c r="AL98">
+      <c r="AL98" s="3">
         <v>0.39406524612563171</v>
       </c>
-      <c r="AM98">
+      <c r="AM98" s="3">
         <v>4.5569301159512028</v>
       </c>
-      <c r="AN98">
+      <c r="AN98" s="3">
         <v>0.49838112047219224</v>
       </c>
-      <c r="AO98">
+      <c r="AO98" s="3">
         <v>0.31152165853583924</v>
       </c>
-      <c r="AP98">
+      <c r="AP98" s="3">
         <v>-3.3778043077114934</v>
       </c>
-      <c r="AQ98">
+      <c r="AQ98" s="3">
         <v>-0.89993330967721641</v>
       </c>
-      <c r="AR98">
+      <c r="AR98" s="3">
         <v>1.7448570197590567</v>
       </c>
-      <c r="AS98">
+      <c r="AS98" s="3">
         <v>-0.46992908504836128</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:45">
+      <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B99">
@@ -13564,7 +13896,7 @@
         <v>35.770000000000003</v>
       </c>
       <c r="I99">
-        <v>35.939999999999998</v>
+        <v>35.94</v>
       </c>
       <c r="J99">
         <v>0.1699999999999946</v>
@@ -13606,7 +13938,7 @@
         <v>-1.2812432273560141</v>
       </c>
       <c r="W99">
-        <v>0.086691994170402215</v>
+        <v>8.6691994170402215E-2</v>
       </c>
       <c r="X99">
         <v>-1.1389443461224238</v>
@@ -13638,7 +13970,7 @@
       <c r="AG99">
         <v>1.8780374039412855</v>
       </c>
-      <c r="AH99">
+      <c r="AH99" s="5">
         <v>4696.4955555555534</v>
       </c>
       <c r="AI99">
@@ -13666,7 +13998,7 @@
         <v>-0.51498008763557412</v>
       </c>
       <c r="AQ99">
-        <v>-0.067219557006810329</v>
+        <v>-6.7219557006810329E-2</v>
       </c>
       <c r="AR99">
         <v>-0.70282831293252046</v>
@@ -13675,8 +14007,8 @@
         <v>-0.78909983358457769</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:45">
+      <c r="A100" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B100">
@@ -13698,13 +14030,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>35.969999999999999</v>
+        <v>35.97</v>
       </c>
       <c r="I100">
         <v>35.950000000000003</v>
       </c>
       <c r="J100">
-        <v>-0.019999999999996021</v>
+        <v>-1.9999999999996021E-2</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -13728,7 +14060,7 @@
         <v>-1.2806101298095254</v>
       </c>
       <c r="R100">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="S100">
         <v>1.125</v>
@@ -13770,12 +14102,12 @@
         <v>-6.4739880315854768</v>
       </c>
       <c r="AF100">
-        <v>0.051062541199010637</v>
+        <v>5.1062541199010637E-2</v>
       </c>
       <c r="AG100">
         <v>-1.6042558552265676</v>
       </c>
-      <c r="AH100">
+      <c r="AH100" s="5">
         <v>6233.0088888888868</v>
       </c>
       <c r="AI100">
@@ -13813,5 +14145,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/reduced_data.xlsx
+++ b/data/reduced_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\clusterGUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1EA231-ECC1-4714-AB27-8A6CFA517739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D3AD5-7A65-4499-8908-C4106A2AA7B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,7 +281,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -341,6 +347,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1795,140 +1805,140 @@
         <v>-0.83843962932386018</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:45" s="14" customFormat="1">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <v>20</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="14">
         <v>57</v>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
         <v>36.42</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="14">
         <v>37.81</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="14">
         <v>1.3900000000000006</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="14">
         <v>7</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="14">
         <v>-6.8944444444444422</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="14">
         <v>5</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="14">
         <v>6.2857142857142838</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="14">
         <v>-1.6780893191586832</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="14">
         <v>-1.2563530047157403</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="14">
         <v>0.27521101676174525</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="14">
         <v>0.3</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="14">
         <v>1.1666666666666667</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="14">
         <v>0.625</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="14">
         <v>-1.1645541710344021</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="14">
         <v>0.14596996987058533</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="14">
         <v>-0.26481065508593993</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="14">
         <v>0.49126422538640818</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="14">
         <v>-1.1863556829625073</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="14">
         <v>2.8545896489841089</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="14">
         <v>-8.7366038427527729E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="14">
         <v>1.7787892304519131</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="14">
         <v>-0.97299929978157607</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="14">
         <v>1.0907342416139534</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="14">
         <v>-1.0539027311953224</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="14">
         <v>1.0861993399623471</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="14">
         <v>1.501351573088809</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AH9" s="14">
         <v>3344.8066666666668</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="14">
         <v>1.2561828528953816</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="14">
         <v>6.4708606310412892E-2</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="14">
         <v>-7.2787139953652673</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="14">
         <v>-0.70577329315187731</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="14">
         <v>1.0905951228461077</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="14">
         <v>-0.95050644659159278</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" s="14">
         <v>-3.5852813423651888</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="14">
         <v>1.6083260697992368</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="14">
         <v>0.24372415098572162</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="14">
         <v>-0.41060157576701273</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="14">
         <v>-0.1025026531927859</v>
       </c>
     </row>
@@ -2343,140 +2353,140 @@
         <v>2.0552231043316693</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:45" s="14" customFormat="1">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
         <v>34</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="14">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>58</v>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
         <v>30.71</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="14">
         <v>29.96</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="14">
         <v>-0.75</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="14">
         <v>6</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="14">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="14">
         <v>6</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="14">
         <v>-0.23058416915153401</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="14">
         <v>1.7902283346024677</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="14">
         <v>0.31722440272433705</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="14">
         <v>0.66560510877248391</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="14">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
+      <c r="S13" s="14">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14">
+        <v>1</v>
+      </c>
+      <c r="U13" s="14">
         <v>-1.961305337347039</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="14">
         <v>-8.3449011153151093E-2</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="14">
         <v>-1.4922742082245062</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="14">
         <v>0.4631722050098655</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="14">
         <v>-1.8346249105713324</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="14">
         <v>5.9566982014839374</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="14">
         <v>-0.1384542857775562</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="14">
         <v>1.3707505473532302</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="14">
         <v>1.1930437662880597</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="14">
         <v>2.3858704666469412</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="14">
         <v>1.3517009268540019</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="14">
         <v>-4.019156746520979</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="14">
         <v>0.44629571579501232</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AH13" s="14">
         <v>1965.1444444444455</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="14">
         <v>2.3391621939053833</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="14">
         <v>6.794411493641965E-2</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="14">
         <v>-4.7747422800751647</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="14">
         <v>-3.2727934106143102</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="14">
         <v>1.2884335804789675</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="14">
         <v>0.93197265957042452</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" s="14">
         <v>-0.64375393975972428</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" s="14">
         <v>-1.6449344195097404</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="14">
         <v>2.6241227754255028</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="14">
         <v>-1.0331989957778924</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="14">
         <v>0.9667014755664155</v>
       </c>
     </row>
@@ -3439,140 +3449,140 @@
         <v>1.1292254059619942</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:45" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="12">
         <v>14</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="12">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
         <v>5</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="12">
         <v>56</v>
       </c>
-      <c r="G21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
         <v>40.03</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="12">
         <v>37.21</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="12">
         <v>-2.8200000000000003</v>
       </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="K21" s="12">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12">
         <v>28.388095238095232</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="12">
         <v>8</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="12">
         <v>-6.5142855796679733</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="12">
         <v>-6.3466827565585682</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="12">
         <v>0.3155484498587125</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="12">
         <v>0.11938281314771498</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="12">
         <v>0.45</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="12">
         <v>3.333333333333333</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="12">
         <v>0.33333333333333337</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="12">
         <v>-0.76646697002727371</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="12">
         <v>9.0879086493732372E-2</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="12">
         <v>0.84764323758665583</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="12">
         <v>0.1603369458270702</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="12">
         <v>-2.5086680459283111</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="Z21" s="12">
         <v>0.63650436161992618</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AA21" s="12">
         <v>1.6795703106043514</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="12">
         <v>1.7355098987829412</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AC21" s="12">
         <v>-0.61560481870956385</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AD21" s="12">
         <v>-2.4910837548167599</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AE21" s="12">
         <v>-1.6232172248853869</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AF21" s="12">
         <v>-8.4774814247426111E-2</v>
       </c>
-      <c r="AG21" s="7">
+      <c r="AG21" s="12">
         <v>1.7251925386802727</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AH21" s="12">
         <v>3782.1733333333323</v>
       </c>
-      <c r="AI21" s="7">
+      <c r="AI21" s="12">
         <v>1.3585664344646942</v>
       </c>
-      <c r="AJ21" s="7">
+      <c r="AJ21" s="12">
         <v>0.12938181339594282</v>
       </c>
-      <c r="AK21" s="7">
+      <c r="AK21" s="12">
         <v>-4.2960531707346146</v>
       </c>
-      <c r="AL21" s="7">
+      <c r="AL21" s="12">
         <v>2.6649032630872993</v>
       </c>
-      <c r="AM21" s="7">
+      <c r="AM21" s="12">
         <v>-9.8141269753580451E-2</v>
       </c>
-      <c r="AN21" s="7">
+      <c r="AN21" s="12">
         <v>-5.643345172116887</v>
       </c>
-      <c r="AO21" s="7">
+      <c r="AO21" s="12">
         <v>-0.55331202770744448</v>
       </c>
-      <c r="AP21" s="7">
+      <c r="AP21" s="12">
         <v>1.2207380312761957</v>
       </c>
-      <c r="AQ21" s="7">
+      <c r="AQ21" s="12">
         <v>0.86986195623529361</v>
       </c>
-      <c r="AR21" s="7">
+      <c r="AR21" s="12">
         <v>-0.90297588628152059</v>
       </c>
-      <c r="AS21" s="7">
+      <c r="AS21" s="12">
         <v>-0.16584066964212993</v>
       </c>
     </row>
@@ -4225,241 +4235,241 @@
         <v>-0.47635450245024213</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:45" s="14" customFormat="1">
+      <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="14">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="14">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="14">
         <v>63</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
         <v>34.07</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="14">
         <v>33.520000000000003</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="14">
         <v>-0.54999999999999716</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="14">
         <v>7</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="14">
         <v>-1.9166666666666661</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="14">
         <v>8</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="14">
         <v>-7.2583333333333329</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="14">
         <v>-6.519540599508824</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="14">
         <v>-0.16331644195624301</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="14">
         <v>-0.23217686240269206</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="14">
         <v>0.60000000000000009</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
+      <c r="S27" s="14">
+        <v>1</v>
+      </c>
+      <c r="T27" s="14">
+        <v>1</v>
+      </c>
+      <c r="U27" s="14">
         <v>0.553603065866071</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="14">
         <v>0.78908888396709009</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="14">
         <v>-1.1623495771047572</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="14">
         <v>0.18282141791424844</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="14">
         <v>-0.41565064948654673</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="14">
         <v>4.1273883758361762</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="14">
         <v>0.67386400835472959</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="14">
         <v>0.58897257925527779</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="14">
         <v>-2.532806835549668</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="14">
         <v>-0.10652892314407675</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="14">
         <v>0.23591156409716094</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="14">
         <v>-0.66477855906088512</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="14">
         <v>1.9520240499640036</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:45" s="14" customFormat="1">
+      <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="14">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="14">
         <v>3</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
         <v>5</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="14">
         <v>63</v>
       </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="G28" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
         <v>34.19</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="14">
         <v>32.36</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="14">
         <v>-1.8299999999999983</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="14">
         <v>5</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="14">
         <v>3.1071428571428577</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="14">
         <v>9</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="14">
         <v>-10.625</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="14">
         <v>-6.2144541024527609</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="14">
         <v>0.36855946870482637</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="14">
         <v>-0.24534200359585878</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="14">
         <v>0.45</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="14">
         <v>0.77777777777777779</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="14">
         <v>0.9</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="14">
         <v>0.12035119766731461</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="14">
         <v>0.39294315006664299</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="14">
         <v>-2.5306348134323695</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="14">
         <v>-0.70697123925164285</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="14">
         <v>4.2806064871173755</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="14">
         <v>2.3224579836680599</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="14">
         <v>-0.99147814160014824</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="14">
         <v>-0.5587205725080856</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="14">
         <v>0.56807508294403375</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="14">
         <v>-0.89264090166397747</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="14">
         <v>1.5297409111345281</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="14">
         <v>-0.74263132579300928</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="14">
         <v>1.6958273807694353</v>
       </c>
-      <c r="AH28" s="5">
+      <c r="AH28" s="14">
         <v>5224.6564102564071</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" s="14">
         <v>2.1870971113396824</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" s="14">
         <v>0.11932719413275129</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="14">
         <v>4.3426460150725843</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" s="14">
         <v>-2.3523023265446801</v>
       </c>
-      <c r="AM28">
+      <c r="AM28" s="14">
         <v>-2.2053705877834129</v>
       </c>
-      <c r="AN28">
+      <c r="AN28" s="14">
         <v>-0.61576538571083916</v>
       </c>
-      <c r="AO28">
+      <c r="AO28" s="14">
         <v>-0.42438151701314641</v>
       </c>
-      <c r="AP28">
+      <c r="AP28" s="14">
         <v>-1.5366809349092134</v>
       </c>
-      <c r="AQ28">
+      <c r="AQ28" s="14">
         <v>0.65875324457107021</v>
       </c>
-      <c r="AR28">
+      <c r="AR28" s="14">
         <v>-0.95545721811435336</v>
       </c>
-      <c r="AS28">
+      <c r="AS28" s="14">
         <v>-0.85408735988100781</v>
       </c>
     </row>
@@ -5011,140 +5021,140 @@
         <v>-0.4602472125773438</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:45" s="14" customFormat="1">
+      <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14">
         <v>62</v>
       </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
+      <c r="G33" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14">
         <v>32.479999999999997</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="14">
         <v>30.89</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="14">
         <v>-1.5899999999999963</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="14">
         <v>9</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="14">
         <v>-13.071428571428571</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="14">
         <v>3</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="14">
         <v>10.387077861163226</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="14">
         <v>1.5961276789201737</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="14">
         <v>-0.37283442170022685</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="14">
         <v>0.3771462128958073</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="14">
         <v>0.4</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="14">
         <v>1.1428571428571428</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="14">
         <v>0.875</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="14">
         <v>-1.0638257151030286</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="14">
         <v>0.15726144377127876</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="14">
         <v>-1.7434514991506556</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="14">
         <v>0.47423541339042108</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="14">
         <v>-3.1997097977585409</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="14">
         <v>2.5060873476497281</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="14">
         <v>0.315645295993771</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" s="14">
         <v>0.98744315732286647</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="14">
         <v>1.6173015111994926</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="14">
         <v>1.5683713873871348</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="14">
         <v>0.40828610216750305</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="14">
         <v>-2.5860749010700039</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="14">
         <v>-0.39561462220078703</v>
       </c>
-      <c r="AH33" s="5">
+      <c r="AH33" s="14">
         <v>3224.666666666667</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" s="14">
         <v>1.5166521997331046</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" s="14">
         <v>8.3954612681096052E-2</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" s="14">
         <v>2.094674284355428</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" s="14">
         <v>-0.28414224479836425</v>
       </c>
-      <c r="AM33">
+      <c r="AM33" s="14">
         <v>0.26887767192571033</v>
       </c>
-      <c r="AN33">
+      <c r="AN33" s="14">
         <v>0.11881787074435814</v>
       </c>
-      <c r="AO33">
+      <c r="AO33" s="14">
         <v>0.76241802302442341</v>
       </c>
-      <c r="AP33">
+      <c r="AP33" s="14">
         <v>-0.2241849481567092</v>
       </c>
-      <c r="AQ33">
+      <c r="AQ33" s="14">
         <v>-0.70727784518213255</v>
       </c>
-      <c r="AR33">
+      <c r="AR33" s="14">
         <v>0.71629090188270972</v>
       </c>
-      <c r="AS33">
+      <c r="AS33" s="14">
         <v>1.0998529620778026</v>
       </c>
     </row>
@@ -6107,140 +6117,140 @@
         <v>2.6884802587229593</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:45" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="12">
         <v>20</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="12">
         <v>4</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="12">
         <v>2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="12">
         <v>2</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="12">
         <v>62</v>
       </c>
-      <c r="G41" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7">
+      <c r="G41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12">
         <v>38.56</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="12">
         <v>35.79</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="12">
         <v>-2.7700000000000031</v>
       </c>
-      <c r="K41" s="7">
-        <v>1</v>
-      </c>
-      <c r="L41" s="7">
+      <c r="K41" s="12">
+        <v>1</v>
+      </c>
+      <c r="L41" s="12">
         <v>18.433333333333334</v>
       </c>
-      <c r="M41" s="7">
-        <v>1</v>
-      </c>
-      <c r="N41" s="7">
+      <c r="M41" s="12">
+        <v>1</v>
+      </c>
+      <c r="N41" s="12">
         <v>17.523809523809526</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="12">
         <v>-6.846716864913982E-2</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="12">
         <v>-3.5656797622859031</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="12">
         <v>0.56173955051796776</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="12">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S41" s="7">
-        <v>1</v>
-      </c>
-      <c r="T41" s="7">
-        <v>1</v>
-      </c>
-      <c r="U41" s="7">
+      <c r="S41" s="12">
+        <v>1</v>
+      </c>
+      <c r="T41" s="12">
+        <v>1</v>
+      </c>
+      <c r="U41" s="12">
         <v>-1.5633903397083768</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="12">
         <v>7.1730576711918168E-2</v>
       </c>
-      <c r="W41" s="7">
+      <c r="W41" s="12">
         <v>-2.0473444870635169</v>
       </c>
-      <c r="X41" s="7">
+      <c r="X41" s="12">
         <v>0.54880177283793996</v>
       </c>
-      <c r="Y41" s="7">
+      <c r="Y41" s="12">
         <v>-5.6968909344648875</v>
       </c>
-      <c r="Z41" s="7">
+      <c r="Z41" s="12">
         <v>-0.50638748223795205</v>
       </c>
-      <c r="AA41" s="7">
+      <c r="AA41" s="12">
         <v>1.3248371560170031</v>
       </c>
-      <c r="AB41" s="7">
+      <c r="AB41" s="12">
         <v>-0.10435433812955246</v>
       </c>
-      <c r="AC41" s="7">
+      <c r="AC41" s="12">
         <v>2.6032729663368652</v>
       </c>
-      <c r="AD41" s="7">
+      <c r="AD41" s="12">
         <v>1.3593479522029488</v>
       </c>
-      <c r="AE41" s="7">
+      <c r="AE41" s="12">
         <v>-2.6785549669610664</v>
       </c>
-      <c r="AF41" s="7">
+      <c r="AF41" s="12">
         <v>-0.59775399898526405</v>
       </c>
-      <c r="AG41" s="7">
+      <c r="AG41" s="12">
         <v>-0.39751244962858934</v>
       </c>
-      <c r="AH41" s="8">
+      <c r="AH41" s="12">
         <v>2882.0794871794869</v>
       </c>
-      <c r="AI41" s="7">
+      <c r="AI41" s="12">
         <v>1.4914872741450593</v>
       </c>
-      <c r="AJ41" s="7">
+      <c r="AJ41" s="12">
         <v>9.636204627890653E-2</v>
       </c>
-      <c r="AK41" s="7">
+      <c r="AK41" s="12">
         <v>1.7126216971923849</v>
       </c>
-      <c r="AL41" s="7">
+      <c r="AL41" s="12">
         <v>-1.890986769992365</v>
       </c>
-      <c r="AM41" s="7">
+      <c r="AM41" s="12">
         <v>2.4716902396747047</v>
       </c>
-      <c r="AN41" s="7">
+      <c r="AN41" s="12">
         <v>0.21701344295992187</v>
       </c>
-      <c r="AO41" s="7">
+      <c r="AO41" s="12">
         <v>-0.59149842984609302</v>
       </c>
-      <c r="AP41" s="7">
+      <c r="AP41" s="12">
         <v>2.9711028627803575</v>
       </c>
-      <c r="AQ41" s="7">
+      <c r="AQ41" s="12">
         <v>-0.28378848430081577</v>
       </c>
-      <c r="AR41" s="7">
+      <c r="AR41" s="12">
         <v>-0.45027268857655217</v>
       </c>
-      <c r="AS41" s="7">
+      <c r="AS41" s="12">
         <v>-3.8966810695426714E-2</v>
       </c>
     </row>
@@ -6929,140 +6939,140 @@
         <v>-7.8471239574960799E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:45" s="14" customFormat="1">
+      <c r="A47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="14">
         <v>23</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <v>5</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="14">
         <v>2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="14">
         <v>10</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="14">
         <v>64</v>
       </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
+      <c r="G47" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="14">
         <v>32.590000000000003</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="14">
         <v>34.18</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="14">
         <v>1.5899999999999963</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
+      <c r="K47" s="14">
+        <v>1</v>
+      </c>
+      <c r="L47" s="14">
         <v>28.149999999999991</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="14">
         <v>4</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="14">
         <v>3.7386035790834509</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="14">
         <v>2.2409213069853049</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="14">
         <v>1.280476765719339</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="14">
         <v>0.70754903856071272</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="14">
         <v>0.3</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="14">
         <v>1.2</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="14">
         <v>0.83333333333333337</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="14">
         <v>-1.9906144206640866</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="14">
         <v>-3.3122950826338517E-2</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="14">
         <v>-2.0477212416960864</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="14">
         <v>-0.82484915034886019</v>
       </c>
-      <c r="Y47">
+      <c r="Y47" s="14">
         <v>8.8139243007054588</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="14">
         <v>-2.5690797186835157</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="14">
         <v>7.289265917094303</v>
       </c>
-      <c r="AB47">
+      <c r="AB47" s="14">
         <v>-0.81288854982407788</v>
       </c>
-      <c r="AC47">
+      <c r="AC47" s="14">
         <v>0.29420196797143106</v>
       </c>
-      <c r="AD47">
+      <c r="AD47" s="14">
         <v>-0.21802626078935242</v>
       </c>
-      <c r="AE47">
+      <c r="AE47" s="14">
         <v>-0.9975798283999926</v>
       </c>
-      <c r="AF47">
+      <c r="AF47" s="14">
         <v>0.44932240428723219</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="14">
         <v>0.57972491497044121</v>
       </c>
-      <c r="AH47" s="5">
+      <c r="AH47" s="14">
         <v>7560.2595238095246</v>
       </c>
-      <c r="AI47">
+      <c r="AI47" s="14">
         <v>1.5344892270986286</v>
       </c>
-      <c r="AJ47">
+      <c r="AJ47" s="14">
         <v>0.13838684676042551</v>
       </c>
-      <c r="AK47">
+      <c r="AK47" s="14">
         <v>6.47805567130571</v>
       </c>
-      <c r="AL47">
+      <c r="AL47" s="14">
         <v>-0.61879827969991807</v>
       </c>
-      <c r="AM47">
+      <c r="AM47" s="14">
         <v>1.4501991645131239E-2</v>
       </c>
-      <c r="AN47">
+      <c r="AN47" s="14">
         <v>-1.9236940530651776</v>
       </c>
-      <c r="AO47">
+      <c r="AO47" s="14">
         <v>1.0693991970038523</v>
       </c>
-      <c r="AP47">
+      <c r="AP47" s="14">
         <v>5.6391764803456326E-2</v>
       </c>
-      <c r="AQ47">
+      <c r="AQ47" s="14">
         <v>0.54742616467880945</v>
       </c>
-      <c r="AR47">
+      <c r="AR47" s="14">
         <v>-0.87076773190980505</v>
       </c>
-      <c r="AS47">
+      <c r="AS47" s="14">
         <v>-0.7176826165849074</v>
       </c>
     </row>
@@ -7477,140 +7487,140 @@
         <v>0.14580691061534123</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:45" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="12">
         <v>14</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="12">
         <v>5</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="12">
         <v>2</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="12">
         <v>5</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="12">
         <v>62</v>
       </c>
-      <c r="G51" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="G51" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="12">
         <v>36.619999999999997</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="12">
         <v>34.64</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="12">
         <v>-1.9799999999999969</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="12">
         <v>2</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="12">
         <v>19.316666666666663</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="12">
         <v>5</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="12">
         <v>3.3942052099947162E-2</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="12">
         <v>-2.3872474885248423</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="12">
         <v>-1.2774911448401778</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="12">
         <v>-0.72991207031632432</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="12">
         <v>0.3</v>
       </c>
-      <c r="S51" s="7">
+      <c r="S51" s="12">
         <v>1.1428571428571428</v>
       </c>
-      <c r="T51" s="7">
+      <c r="T51" s="12">
         <v>1.2</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="12">
         <v>0.67813229184312906</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="12">
         <v>0.42227366889750889</v>
       </c>
-      <c r="W51" s="7">
+      <c r="W51" s="12">
         <v>3.4335488409534789</v>
       </c>
-      <c r="X51" s="7">
+      <c r="X51" s="12">
         <v>6.3936925793816296E-2</v>
       </c>
-      <c r="Y51" s="7">
+      <c r="Y51" s="12">
         <v>14.14959213720204</v>
       </c>
-      <c r="Z51" s="7">
+      <c r="Z51" s="12">
         <v>-3.6748209106602747</v>
       </c>
-      <c r="AA51" s="7">
+      <c r="AA51" s="12">
         <v>4.8336958559999017</v>
       </c>
-      <c r="AB51" s="7">
+      <c r="AB51" s="12">
         <v>-0.58254779906394305</v>
       </c>
-      <c r="AC51" s="7">
+      <c r="AC51" s="12">
         <v>-1.3565622001237132</v>
       </c>
-      <c r="AD51" s="7">
+      <c r="AD51" s="12">
         <v>3.5412535823781175</v>
       </c>
-      <c r="AE51" s="7">
+      <c r="AE51" s="12">
         <v>1.1085835938860327</v>
       </c>
-      <c r="AF51" s="7">
+      <c r="AF51" s="12">
         <v>1.4135428389510241</v>
       </c>
-      <c r="AG51" s="7">
+      <c r="AG51" s="12">
         <v>-3.5582722078487792</v>
       </c>
-      <c r="AH51" s="8">
+      <c r="AH51" s="12">
         <v>1718.516666666666</v>
       </c>
-      <c r="AI51" s="7">
+      <c r="AI51" s="12">
         <v>1.3887423797329339</v>
       </c>
-      <c r="AJ51" s="7">
+      <c r="AJ51" s="12">
         <v>9.1288583592993466E-2</v>
       </c>
-      <c r="AK51" s="7">
+      <c r="AK51" s="12">
         <v>-9.5030809940182266</v>
       </c>
-      <c r="AL51" s="7">
+      <c r="AL51" s="12">
         <v>0.2496295651466065</v>
       </c>
-      <c r="AM51" s="7">
+      <c r="AM51" s="12">
         <v>1.9106126257982619</v>
       </c>
-      <c r="AN51" s="7">
+      <c r="AN51" s="12">
         <v>-1.1124887431834061</v>
       </c>
-      <c r="AO51" s="7">
+      <c r="AO51" s="12">
         <v>-1.6244106262768916</v>
       </c>
-      <c r="AP51" s="7">
+      <c r="AP51" s="12">
         <v>0.24565337354828334</v>
       </c>
-      <c r="AQ51" s="7">
+      <c r="AQ51" s="12">
         <v>-1.1874042495553356</v>
       </c>
-      <c r="AR51" s="7">
+      <c r="AR51" s="12">
         <v>-9.1737927350307877E-2</v>
       </c>
-      <c r="AS51" s="7">
+      <c r="AS51" s="12">
         <v>-3.1226968601109926</v>
       </c>
     </row>
@@ -7888,140 +7898,140 @@
         <v>0.10723883756532922</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:45" s="14" customFormat="1">
+      <c r="A54" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="14">
         <v>34</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="14">
         <v>6</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="14">
         <v>2</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="14">
         <v>10</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="14">
         <v>75</v>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
+      <c r="G54" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="14">
         <v>30.01</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="14">
         <v>29.52</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="14">
         <v>-0.49000000000000199</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="14">
         <v>10</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="14">
         <v>-17.900000000000002</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="14">
         <v>3</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="14">
         <v>12.019264069264064</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="14">
         <v>2.1437435538144443</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="14">
         <v>0.6922849700395165</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="14">
         <v>0.57903264319101533</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="14">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54">
+      <c r="S54" s="14">
+        <v>1</v>
+      </c>
+      <c r="T54" s="14">
         <v>1.1666666666666667</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="14">
         <v>-1.3468873890936477</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="14">
         <v>7.4720958190435768E-2</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="14">
         <v>-1.9818985086555538</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="14">
         <v>0.43250814826349909</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" s="14">
         <v>-4.5482321126759713</v>
       </c>
-      <c r="Z54">
+      <c r="Z54" s="14">
         <v>-1.3838480128279618</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="14">
         <v>1.2218387623089464</v>
       </c>
-      <c r="AB54">
+      <c r="AB54" s="14">
         <v>0.3664820914701698</v>
       </c>
-      <c r="AC54">
+      <c r="AC54" s="14">
         <v>6.3080223528541174E-2</v>
       </c>
-      <c r="AD54">
+      <c r="AD54" s="14">
         <v>0.48461476717777979</v>
       </c>
-      <c r="AE54">
+      <c r="AE54" s="14">
         <v>-2.4237014310670069</v>
       </c>
-      <c r="AF54">
+      <c r="AF54" s="14">
         <v>3.3685146086688466E-3</v>
       </c>
-      <c r="AG54">
+      <c r="AG54" s="14">
         <v>-0.58236262157236152</v>
       </c>
-      <c r="AH54" s="5">
+      <c r="AH54" s="14">
         <v>1994.8555555555547</v>
       </c>
-      <c r="AI54">
+      <c r="AI54" s="14">
         <v>3.2143665111918924</v>
       </c>
-      <c r="AJ54">
+      <c r="AJ54" s="14">
         <v>0.11119434991116044</v>
       </c>
-      <c r="AK54">
+      <c r="AK54" s="14">
         <v>-4.7643156922294843</v>
       </c>
-      <c r="AL54">
+      <c r="AL54" s="14">
         <v>0.18506152155960318</v>
       </c>
-      <c r="AM54">
+      <c r="AM54" s="14">
         <v>-2.5731144541175652</v>
       </c>
-      <c r="AN54">
+      <c r="AN54" s="14">
         <v>-1.9791537541781743</v>
       </c>
-      <c r="AO54">
+      <c r="AO54" s="14">
         <v>2.1105153258363809</v>
       </c>
-      <c r="AP54">
+      <c r="AP54" s="14">
         <v>1.1478355246673722</v>
       </c>
-      <c r="AQ54">
+      <c r="AQ54" s="14">
         <v>1.8038906750306967</v>
       </c>
-      <c r="AR54">
+      <c r="AR54" s="14">
         <v>-2.6679716840965293</v>
       </c>
-      <c r="AS54">
+      <c r="AS54" s="14">
         <v>3.5262671468445119</v>
       </c>
     </row>
@@ -8436,140 +8446,140 @@
         <v>-0.33423823756240972</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:45" s="14" customFormat="1">
+      <c r="A58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="14">
         <v>29</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="14">
         <v>6</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="14">
         <v>2</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="14">
         <v>9</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="14">
         <v>77</v>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
+      <c r="G58" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="14">
         <v>32.67</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="14">
         <v>31.88</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="14">
         <v>-0.7900000000000027</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="14">
         <v>2</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="14">
         <v>26.833333333333336</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="14">
         <v>5</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="14">
         <v>5.3256836659275688</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="14">
         <v>2.8895147125977498</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="14">
         <v>0.93570060435627689</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="14">
         <v>0.32469095445460466</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="14">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="14">
         <v>0.60000000000000009</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="14">
         <v>0.5714285714285714</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="14">
         <v>-1.0182257488897719</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="14">
         <v>5.9887707063300571E-2</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="14">
         <v>-1.4793723406109451</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="14">
         <v>0.11014468993694429</v>
       </c>
-      <c r="Y58">
+      <c r="Y58" s="14">
         <v>-5.8631855442198955</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" s="14">
         <v>-3.2201726290579753</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="14">
         <v>1.0294616159283243</v>
       </c>
-      <c r="AB58">
+      <c r="AB58" s="14">
         <v>-0.73131287854832328</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="14">
         <v>0.79640355024130693</v>
       </c>
-      <c r="AD58">
+      <c r="AD58" s="14">
         <v>-0.61380429276839821</v>
       </c>
-      <c r="AE58">
+      <c r="AE58" s="14">
         <v>-1.1508592180617057</v>
       </c>
-      <c r="AF58">
+      <c r="AF58" s="14">
         <v>-2.4701377388074972</v>
       </c>
-      <c r="AG58">
+      <c r="AG58" s="14">
         <v>-1.8059858523716201</v>
       </c>
-      <c r="AH58" s="5">
+      <c r="AH58" s="14">
         <v>2591.1277777777777</v>
       </c>
-      <c r="AI58">
+      <c r="AI58" s="14">
         <v>1.9343421656837301</v>
       </c>
-      <c r="AJ58">
+      <c r="AJ58" s="14">
         <v>0.10892189801523573</v>
       </c>
-      <c r="AK58">
+      <c r="AK58" s="14">
         <v>2.5043570018820098</v>
       </c>
-      <c r="AL58">
+      <c r="AL58" s="14">
         <v>1.7642052243443929</v>
       </c>
-      <c r="AM58">
+      <c r="AM58" s="14">
         <v>0.46691900868734215</v>
       </c>
-      <c r="AN58">
+      <c r="AN58" s="14">
         <v>-0.21841321907527037</v>
       </c>
-      <c r="AO58">
+      <c r="AO58" s="14">
         <v>2.6721778963249427</v>
       </c>
-      <c r="AP58">
+      <c r="AP58" s="14">
         <v>-1.2566000403421278</v>
       </c>
-      <c r="AQ58">
+      <c r="AQ58" s="14">
         <v>3.099993697754666</v>
       </c>
-      <c r="AR58">
+      <c r="AR58" s="14">
         <v>-2.168239346451359</v>
       </c>
-      <c r="AS58">
+      <c r="AS58" s="14">
         <v>1.2774778727675618</v>
       </c>
     </row>
@@ -9395,277 +9405,277 @@
         <v>0.75593869364718802</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:45" s="14" customFormat="1">
+      <c r="A65" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="14">
         <v>7</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="14">
         <v>2</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="14">
+        <v>1</v>
+      </c>
+      <c r="F65" s="14">
         <v>68</v>
       </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65">
+      <c r="G65" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="14">
         <v>31.61</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="14">
         <v>30.06</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="14">
         <v>-1.5500000000000007</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="14">
         <v>9</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="14">
         <v>-17.749999999999996</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="14">
         <v>2</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="14">
         <v>16.595238095238098</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="14">
         <v>2.0522255629717314</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="14">
         <v>-1.0653029946436914</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="14">
         <v>-1.0078805184839343</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="14">
         <v>0.65000000000000013</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="14">
         <v>1.3076923076923075</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="14">
         <v>0.75000000000000011</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="14">
         <v>2.6641586969766253</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="14">
         <v>1.5258417016890984</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="14">
         <v>0.67347500745648237</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="14">
         <v>-1.2191729257273156</v>
       </c>
-      <c r="Y65">
+      <c r="Y65" s="14">
         <v>3.0162816135204138</v>
       </c>
-      <c r="Z65">
+      <c r="Z65" s="14">
         <v>-6.2053053877127486E-2</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" s="14">
         <v>-2.6942646263365848</v>
       </c>
-      <c r="AB65">
+      <c r="AB65" s="14">
         <v>2.7986012529060491</v>
       </c>
-      <c r="AC65">
+      <c r="AC65" s="14">
         <v>-2.8250475626362812</v>
       </c>
-      <c r="AD65">
+      <c r="AD65" s="14">
         <v>1.7143202903500812</v>
       </c>
-      <c r="AE65">
+      <c r="AE65" s="14">
         <v>-0.36158761681852508</v>
       </c>
-      <c r="AF65">
+      <c r="AF65" s="14">
         <v>-0.69750469665898018</v>
       </c>
-      <c r="AG65">
+      <c r="AG65" s="14">
         <v>1.4875558308020298</v>
       </c>
-      <c r="AH65" s="5">
+      <c r="AH65" s="14">
         <v>1795.6047619047629</v>
       </c>
-      <c r="AI65">
+      <c r="AI65" s="14">
         <v>1.6823971195523317</v>
       </c>
-      <c r="AJ65">
+      <c r="AJ65" s="14">
         <v>0.20539041097706828</v>
       </c>
-      <c r="AK65">
+      <c r="AK65" s="14">
         <v>2.0019706847109262</v>
       </c>
-      <c r="AL65">
+      <c r="AL65" s="14">
         <v>3.269810765621445</v>
       </c>
-      <c r="AM65">
+      <c r="AM65" s="14">
         <v>-1.2487550331784956</v>
       </c>
-      <c r="AN65">
+      <c r="AN65" s="14">
         <v>1.5817712549658689</v>
       </c>
-      <c r="AO65">
+      <c r="AO65" s="14">
         <v>4.7018415901390789E-2</v>
       </c>
-      <c r="AP65">
+      <c r="AP65" s="14">
         <v>0.44194341235536899</v>
       </c>
-      <c r="AQ65">
+      <c r="AQ65" s="14">
         <v>2.2665852281863672</v>
       </c>
-      <c r="AR65">
+      <c r="AR65" s="14">
         <v>1.9748660884572915</v>
       </c>
-      <c r="AS65">
+      <c r="AS65" s="14">
         <v>-2.0867608939811682</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:45" s="14" customFormat="1">
+      <c r="A66" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="14">
         <v>24</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="14">
         <v>7</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="14">
         <v>2</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="14">
         <v>2</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="14">
         <v>70</v>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
+      <c r="G66" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="14">
         <v>33.79</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="14">
         <v>33.270000000000003</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="14">
         <v>-0.51999999999999602</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="14">
         <v>6</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="14">
         <v>-8.0176767676767682</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="14">
         <v>10</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="14">
         <v>-19.035283652274501</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="14">
         <v>-1.1764469424987443</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="14">
         <v>-0.10797502608860869</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="14">
         <v>-1.3531074575607058</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="14">
         <v>0.5</v>
       </c>
-      <c r="S66">
-        <v>1</v>
-      </c>
-      <c r="T66">
+      <c r="S66" s="14">
+        <v>1</v>
+      </c>
+      <c r="T66" s="14">
         <v>0.90909090909090906</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="14">
         <v>3.4015385342994309</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="14">
         <v>4.5416456901968251E-2</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="14">
         <v>1.7253476438622104</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="14">
         <v>-1.6465276881053055</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="14">
         <v>8.6972355475191367</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" s="14">
         <v>-4.0968821143132415</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="14">
         <v>1.6616388506603212</v>
       </c>
-      <c r="AB66">
+      <c r="AB66" s="14">
         <v>-2.4739876327508536</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" s="14">
         <v>0.83150392094650027</v>
       </c>
-      <c r="AD66">
+      <c r="AD66" s="14">
         <v>0.24906814687008436</v>
       </c>
-      <c r="AE66">
+      <c r="AE66" s="14">
         <v>1.7368227050938632</v>
       </c>
-      <c r="AF66">
+      <c r="AF66" s="14">
         <v>0.50092047125103067</v>
       </c>
-      <c r="AG66">
+      <c r="AG66" s="14">
         <v>-8.3044917328344736E-2</v>
       </c>
-      <c r="AH66" s="5">
+      <c r="AH66" s="14">
         <v>3228.416666666667</v>
       </c>
-      <c r="AI66">
+      <c r="AI66" s="14">
         <v>1.9773872600892597</v>
       </c>
-      <c r="AJ66">
+      <c r="AJ66" s="14">
         <v>0.1850125559116034</v>
       </c>
-      <c r="AK66">
+      <c r="AK66" s="14">
         <v>-1.2423876356011259</v>
       </c>
-      <c r="AL66">
+      <c r="AL66" s="14">
         <v>0.16028290304933454</v>
       </c>
-      <c r="AM66">
+      <c r="AM66" s="14">
         <v>-3.8145686825129004</v>
       </c>
-      <c r="AN66">
+      <c r="AN66" s="14">
         <v>-3.3757952352298979</v>
       </c>
-      <c r="AO66">
+      <c r="AO66" s="14">
         <v>1.7941269423333692</v>
       </c>
-      <c r="AP66">
+      <c r="AP66" s="14">
         <v>0.71072183633261143</v>
       </c>
-      <c r="AQ66">
+      <c r="AQ66" s="14">
         <v>1.989837741355355</v>
       </c>
-      <c r="AR66">
+      <c r="AR66" s="14">
         <v>1.0925914274758783</v>
       </c>
-      <c r="AS66">
+      <c r="AS66" s="14">
         <v>4.0065984348087227</v>
       </c>
     </row>
@@ -10491,140 +10501,140 @@
         <v>2.2926386819995743</v>
       </c>
     </row>
-    <row r="73" spans="1:45">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:45" s="14" customFormat="1">
+      <c r="A73" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="14">
         <v>8</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="14">
         <v>8</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="14">
+        <v>1</v>
+      </c>
+      <c r="E73" s="14">
         <v>8</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="14">
         <v>72</v>
       </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73">
+      <c r="G73" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="14">
         <v>30.41</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="14">
         <v>30.11</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="14">
         <v>-0.30000000000000071</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="14">
         <v>5</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="14">
         <v>-1.281944444444445</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="14">
         <v>9</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="14">
         <v>-22.533333333333331</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="14">
         <v>-5.2419844685311379</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="14">
         <v>2.5535876045182473</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="14">
         <v>9.3676497365302298E-4</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="14">
         <v>0.4</v>
       </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>1</v>
-      </c>
-      <c r="U73">
+      <c r="S73" s="14">
+        <v>1</v>
+      </c>
+      <c r="T73" s="14">
+        <v>1</v>
+      </c>
+      <c r="U73" s="14">
         <v>-0.35300624227216587</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="14">
         <v>0.2807017344422631</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="14">
         <v>-0.51031849356834003</v>
       </c>
-      <c r="X73">
+      <c r="X73" s="14">
         <v>0.54633242521245096</v>
       </c>
-      <c r="Y73">
+      <c r="Y73" s="14">
         <v>2.4583899580503261</v>
       </c>
-      <c r="Z73">
+      <c r="Z73" s="14">
         <v>2.813003090114258</v>
       </c>
-      <c r="AA73">
+      <c r="AA73" s="14">
         <v>-0.44599957644750132</v>
       </c>
-      <c r="AB73">
+      <c r="AB73" s="14">
         <v>0.38454942395461011</v>
       </c>
-      <c r="AC73">
+      <c r="AC73" s="14">
         <v>-0.44738150206481392</v>
       </c>
-      <c r="AD73">
+      <c r="AD73" s="14">
         <v>-1.4588124230137134</v>
       </c>
-      <c r="AE73">
+      <c r="AE73" s="14">
         <v>1.3060629774829986</v>
       </c>
-      <c r="AF73">
+      <c r="AF73" s="14">
         <v>2.283412084908548</v>
       </c>
-      <c r="AG73">
+      <c r="AG73" s="14">
         <v>0.50410797234964866</v>
       </c>
-      <c r="AH73" s="5">
+      <c r="AH73" s="14">
         <v>2795.9400000000014</v>
       </c>
-      <c r="AI73">
+      <c r="AI73" s="14">
         <v>1.0823892765601333</v>
       </c>
-      <c r="AJ73">
+      <c r="AJ73" s="14">
         <v>0.15187974944622076</v>
       </c>
-      <c r="AK73">
+      <c r="AK73" s="14">
         <v>4.0481694581470302</v>
       </c>
-      <c r="AL73">
+      <c r="AL73" s="14">
         <v>-3.1033092431545399</v>
       </c>
-      <c r="AM73">
+      <c r="AM73" s="14">
         <v>1.9063238469357986</v>
       </c>
-      <c r="AN73">
+      <c r="AN73" s="14">
         <v>-0.36061858685951148</v>
       </c>
-      <c r="AO73">
+      <c r="AO73" s="14">
         <v>-0.94224219411186683</v>
       </c>
-      <c r="AP73">
+      <c r="AP73" s="14">
         <v>3.6836110379425011</v>
       </c>
-      <c r="AQ73">
+      <c r="AQ73" s="14">
         <v>-1.5019970267753477</v>
       </c>
-      <c r="AR73">
+      <c r="AR73" s="14">
         <v>-0.35379509322713454</v>
       </c>
-      <c r="AS73">
+      <c r="AS73" s="14">
         <v>-0.77699151457384019</v>
       </c>
     </row>
@@ -10765,140 +10775,140 @@
         <v>0.72494861681445966</v>
       </c>
     </row>
-    <row r="75" spans="1:45">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:45" s="14" customFormat="1">
+      <c r="A75" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="14">
         <v>15</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="14">
         <v>8</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="14">
+        <v>1</v>
+      </c>
+      <c r="E75" s="14">
         <v>5</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="14">
         <v>71</v>
       </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75">
+      <c r="G75" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="14">
         <v>31.92</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="14">
         <v>30.56</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="14">
         <v>-1.360000000000003</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="14">
         <v>8</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="14">
         <v>-12.830952380952382</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="14">
         <v>4</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="14">
         <v>14.750915750915752</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="14">
         <v>1.6915765532034965</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="14">
         <v>0.30155607750645735</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="14">
         <v>-0.34459165976387257</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="14">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="14">
         <v>0.4285714285714286</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="14">
         <v>1.1666666666666667</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="14">
         <v>0.49192387868965665</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="14">
         <v>0.47983841745031358</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="14">
         <v>-1.7933638420418887</v>
       </c>
-      <c r="X75">
+      <c r="X75" s="14">
         <v>-0.81096062777737077</v>
       </c>
-      <c r="Y75">
+      <c r="Y75" s="14">
         <v>2.9533551734430015</v>
       </c>
-      <c r="Z75">
+      <c r="Z75" s="14">
         <v>-1.0965840495723653</v>
       </c>
-      <c r="AA75">
+      <c r="AA75" s="14">
         <v>-3.3119171499516669</v>
       </c>
-      <c r="AB75">
+      <c r="AB75" s="14">
         <v>0.2704909742216543</v>
       </c>
-      <c r="AC75">
+      <c r="AC75" s="14">
         <v>0.28984244673251519</v>
       </c>
-      <c r="AD75">
+      <c r="AD75" s="14">
         <v>2.5635570088620785</v>
       </c>
-      <c r="AE75">
+      <c r="AE75" s="14">
         <v>5.2596276648391567E-2</v>
       </c>
-      <c r="AF75">
+      <c r="AF75" s="14">
         <v>1.2319631973809255</v>
       </c>
-      <c r="AG75">
+      <c r="AG75" s="14">
         <v>0.80654603993056184</v>
       </c>
-      <c r="AH75" s="5">
+      <c r="AH75" s="14">
         <v>9815.5644444444497</v>
       </c>
-      <c r="AI75">
+      <c r="AI75" s="14">
         <v>1.039012333678818</v>
       </c>
-      <c r="AJ75">
+      <c r="AJ75" s="14">
         <v>0.12691543860951895</v>
       </c>
-      <c r="AK75">
+      <c r="AK75" s="14">
         <v>5.3043641021325367</v>
       </c>
-      <c r="AL75">
+      <c r="AL75" s="14">
         <v>-1.4380178982225931</v>
       </c>
-      <c r="AM75">
+      <c r="AM75" s="14">
         <v>3.0378462648223574</v>
       </c>
-      <c r="AN75">
+      <c r="AN75" s="14">
         <v>-0.97056298299798782</v>
       </c>
-      <c r="AO75">
+      <c r="AO75" s="14">
         <v>1.4810899487559599</v>
       </c>
-      <c r="AP75">
+      <c r="AP75" s="14">
         <v>0.88655636256186821</v>
       </c>
-      <c r="AQ75">
+      <c r="AQ75" s="14">
         <v>-1.8990071512472075</v>
       </c>
-      <c r="AR75">
+      <c r="AR75" s="14">
         <v>-7.1245356807683865E-3</v>
       </c>
-      <c r="AS75">
+      <c r="AS75" s="14">
         <v>8.8543920985754976E-2</v>
       </c>
     </row>
@@ -12911,140 +12921,140 @@
         <v>4.5339478260516798E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:45">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:45" s="14" customFormat="1">
+      <c r="A92" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="14">
         <v>7</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="14">
         <v>10</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="14">
         <v>2</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="14">
         <v>10</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="14">
         <v>75</v>
       </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92">
+      <c r="G92" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="14">
         <v>28.45</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="14">
         <v>28.22</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="14">
         <v>-0.23000000000000043</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="14">
         <v>8</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="14">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="14">
         <v>9</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="14">
         <v>-13</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="14">
         <v>-3.3761204471070085</v>
       </c>
-      <c r="P92">
+      <c r="P92" s="14">
         <v>-3.1239551900715114E-2</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" s="14">
         <v>-0.68838922100342115</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="14">
         <v>0.95000000000000007</v>
       </c>
-      <c r="S92">
+      <c r="S92" s="14">
         <v>1.2</v>
       </c>
-      <c r="T92">
+      <c r="T92" s="14">
         <v>0.93750000000000011</v>
       </c>
-      <c r="U92">
+      <c r="U92" s="14">
         <v>-4.0176308846377386E-2</v>
       </c>
-      <c r="V92">
+      <c r="V92" s="14">
         <v>3.4777457501046025</v>
       </c>
-      <c r="W92">
+      <c r="W92" s="14">
         <v>0.87821787854131494</v>
       </c>
-      <c r="X92">
+      <c r="X92" s="14">
         <v>0.16845673683344684</v>
       </c>
-      <c r="Y92">
+      <c r="Y92" s="14">
         <v>0.30719898030918069</v>
       </c>
-      <c r="Z92">
+      <c r="Z92" s="14">
         <v>1.9270522517051658</v>
       </c>
-      <c r="AA92">
+      <c r="AA92" s="14">
         <v>-0.90143751979254794</v>
       </c>
-      <c r="AB92">
+      <c r="AB92" s="14">
         <v>-3.4915888042808749</v>
       </c>
-      <c r="AC92">
+      <c r="AC92" s="14">
         <v>1.4888272332565431</v>
       </c>
-      <c r="AD92">
+      <c r="AD92" s="14">
         <v>-0.75857256120606953</v>
       </c>
-      <c r="AE92">
+      <c r="AE92" s="14">
         <v>4.0418601090868291</v>
       </c>
-      <c r="AF92">
+      <c r="AF92" s="14">
         <v>-1.3700561989824973</v>
       </c>
-      <c r="AG92">
+      <c r="AG92" s="14">
         <v>0.36708062470711444</v>
       </c>
-      <c r="AH92" s="5">
+      <c r="AH92" s="14">
         <v>2337.9222222222215</v>
       </c>
-      <c r="AI92">
+      <c r="AI92" s="14">
         <v>1.0648348149345379</v>
       </c>
-      <c r="AJ92">
+      <c r="AJ92" s="14">
         <v>0.11677985675789995</v>
       </c>
-      <c r="AK92">
+      <c r="AK92" s="14">
         <v>-9.9202108193812393</v>
       </c>
-      <c r="AL92">
+      <c r="AL92" s="14">
         <v>0.59542124121883688</v>
       </c>
-      <c r="AM92">
+      <c r="AM92" s="14">
         <v>-2.1095463893055739</v>
       </c>
-      <c r="AN92">
+      <c r="AN92" s="14">
         <v>2.0677706875048001</v>
       </c>
-      <c r="AO92">
+      <c r="AO92" s="14">
         <v>-4.6371313938569756</v>
       </c>
-      <c r="AP92">
+      <c r="AP92" s="14">
         <v>1.5113674694555763</v>
       </c>
-      <c r="AQ92">
+      <c r="AQ92" s="14">
         <v>1.4729564456260738</v>
       </c>
-      <c r="AR92">
+      <c r="AR92" s="14">
         <v>1.5133546941454084</v>
       </c>
-      <c r="AS92">
+      <c r="AS92" s="14">
         <v>0.85986487523471289</v>
       </c>
     </row>
@@ -13185,140 +13195,140 @@
         <v>0.26259528395814308</v>
       </c>
     </row>
-    <row r="94" spans="1:45">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:45" s="14" customFormat="1">
+      <c r="A94" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="14">
         <v>8</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="14">
         <v>10</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="14">
         <v>2</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="14">
         <v>8</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="14">
         <v>79</v>
       </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94">
+      <c r="G94" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="14">
         <v>29.28</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="14">
         <v>29.67</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="14">
         <v>0.39000000000000057</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="14">
         <v>3</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="14">
         <v>7.6833333333333318</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="14">
         <v>8</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="14">
         <v>-8.5765851795263561</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="14">
         <v>-6.3514093401674785</v>
       </c>
-      <c r="P94">
+      <c r="P94" s="14">
         <v>0.13274772965515677</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" s="14">
         <v>0.35809900883693702</v>
       </c>
-      <c r="R94">
+      <c r="R94" s="14">
         <v>0.5</v>
       </c>
-      <c r="S94">
-        <v>1</v>
-      </c>
-      <c r="T94">
-        <v>1</v>
-      </c>
-      <c r="U94">
+      <c r="S94" s="14">
+        <v>1</v>
+      </c>
+      <c r="T94" s="14">
+        <v>1</v>
+      </c>
+      <c r="U94" s="14">
         <v>-1.0645160683487167</v>
       </c>
-      <c r="V94">
+      <c r="V94" s="14">
         <v>4.3208957919520202E-2</v>
       </c>
-      <c r="W94">
+      <c r="W94" s="14">
         <v>-0.72425003803349697</v>
       </c>
-      <c r="X94">
+      <c r="X94" s="14">
         <v>0.50048260339572692</v>
       </c>
-      <c r="Y94">
+      <c r="Y94" s="14">
         <v>5.6137205521755211E-2</v>
       </c>
-      <c r="Z94">
+      <c r="Z94" s="14">
         <v>2.492758320634481</v>
       </c>
-      <c r="AA94">
+      <c r="AA94" s="14">
         <v>-0.70822507994196315</v>
       </c>
-      <c r="AB94">
+      <c r="AB94" s="14">
         <v>1.9737652550751712</v>
       </c>
-      <c r="AC94">
+      <c r="AC94" s="14">
         <v>2.253265558979344</v>
       </c>
-      <c r="AD94">
+      <c r="AD94" s="14">
         <v>0.28806623403162013</v>
       </c>
-      <c r="AE94">
+      <c r="AE94" s="14">
         <v>-0.99457291321019925</v>
       </c>
-      <c r="AF94">
+      <c r="AF94" s="14">
         <v>-2.256548388853306</v>
       </c>
-      <c r="AG94">
+      <c r="AG94" s="14">
         <v>0.22621789454840369</v>
       </c>
-      <c r="AH94" s="5">
+      <c r="AH94" s="14">
         <v>2131.1777777777775</v>
       </c>
-      <c r="AI94">
+      <c r="AI94" s="14">
         <v>1.2296267646228465</v>
       </c>
-      <c r="AJ94">
+      <c r="AJ94" s="14">
         <v>9.0860557021156779E-2</v>
       </c>
-      <c r="AK94">
+      <c r="AK94" s="14">
         <v>-2.2781505038281056</v>
       </c>
-      <c r="AL94">
+      <c r="AL94" s="14">
         <v>0.27914255794688858</v>
       </c>
-      <c r="AM94">
+      <c r="AM94" s="14">
         <v>-2.0753130431185705</v>
       </c>
-      <c r="AN94">
+      <c r="AN94" s="14">
         <v>-2.7291167172370705</v>
       </c>
-      <c r="AO94">
+      <c r="AO94" s="14">
         <v>-2.8380291403143829</v>
       </c>
-      <c r="AP94">
+      <c r="AP94" s="14">
         <v>0.55044302302324111</v>
       </c>
-      <c r="AQ94">
+      <c r="AQ94" s="14">
         <v>-0.59161007817924005</v>
       </c>
-      <c r="AR94">
+      <c r="AR94" s="14">
         <v>-0.72951236260129737</v>
       </c>
-      <c r="AS94">
+      <c r="AS94" s="14">
         <v>-3.4183944834869502</v>
       </c>
     </row>

--- a/data/reduced_data.xlsx
+++ b/data/reduced_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\clusterGUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D3AD5-7A65-4499-8908-C4106A2AA7B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABAAAC4-46B0-418D-A504-A1B6C166E3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -281,7 +281,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -351,6 +357,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1394,140 +1402,140 @@
         <v>-1.3168224775611159</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="3" customFormat="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:45" s="16" customFormat="1">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="16">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="16">
         <v>57</v>
       </c>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
         <v>32.71</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="16">
         <v>33.979999999999997</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="16">
         <v>1.269999999999996</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="16">
         <v>2</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="16">
         <v>17.666666666666668</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="16">
         <v>2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="16">
         <v>7.8630644717601257</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="16">
         <v>2.1365103789854469</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="16">
         <v>1.0693175088061515</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="16">
         <v>0.71989909100637894</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="16">
         <v>0.3</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="16">
         <v>1.3333333333333335</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="16">
         <v>1.1666666666666667</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="16">
         <v>-1.9259502618856044</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="16">
         <v>0.12583495182967788</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="16">
         <v>-1.6208335462396188</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="16">
         <v>0.24502285955661873</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="16">
         <v>2.2932327225291642</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="16">
         <v>3.2069135079441851</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="16">
         <v>0.14553169018086567</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="16">
         <v>3.1351162252380163</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="16">
         <v>-7.6767386630186132E-2</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="16">
         <v>-2.0031400658951291</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="16">
         <v>-1.5572881454785688</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="16">
         <v>0.85088390816787152</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="16">
         <v>1.3000577375420503</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AH6" s="16">
         <v>9067.1200000000008</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="16">
         <v>1.4647634137417116</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="16">
         <v>9.1151079700916932E-2</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AK6" s="16">
         <v>6.6747145001146695</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL6" s="16">
         <v>-0.85221746461946424</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="16">
         <v>2.8008645281667941</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="16">
         <v>-0.9886930046359419</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="16">
         <v>-0.83679947404251165</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="16">
         <v>-0.52164648072605835</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="16">
         <v>0.25226370315421665</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AR6" s="16">
         <v>-0.97839146736168869</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AS6" s="16">
         <v>-0.52028715878154586</v>
       </c>
     </row>

--- a/data/reduced_data.xlsx
+++ b/data/reduced_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\clusterGUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABAAAC4-46B0-418D-A504-A1B6C166E3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330D86C-0B64-4710-806B-D9DD5E1B9C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -275,10 +275,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -341,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -359,6 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1540,7 +1546,7 @@
       </c>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">

--- a/data/reduced_data.xlsx
+++ b/data/reduced_data.xlsx
@@ -1,26 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\clusterGUI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\NoSeMaze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330D86C-0B64-4710-806B-D9DD5E1B9C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B7073-D82C-43A9-9270-5312822D74C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AU$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AU$2:$AU$100</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$AV$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AW$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AX$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AX$2:$AX$100</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$AU$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$AU$2:$AU$100</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$AV$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AV$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$AW$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$AU$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$AU$2:$AU$100</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$AV$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$AW$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AW$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AX$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AX$2:$AX$100</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$AU$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$AU$2:$AU$100</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>Mouse_RFID</t>
   </si>
@@ -270,6 +300,18 @@
   <si>
     <t>social_interaction_pc9</t>
   </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Mutants</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
 </sst>
 </file>
 
@@ -286,7 +328,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +356,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -365,6 +437,28 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,6 +474,1537 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Time spent in arena</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+            </a:rPr>
+            <a:t>Time spent in arena</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{CF481420-33C5-4BEB-93CA-53BFE9ACEE07}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>RC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{70BCDA28-DBA0-4C96-B679-1D17C29C18CD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Mutants</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EA777DA6-40F3-451D-B349-E64FA6013D70}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>Others</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>aVG TIME </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>aVG TIME </a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:minorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:spPr>
+        <a:noFill/>
+      </cx:spPr>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BF8E49F0-D2BB-4AC9-AC59-3EC6F979FBC8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>RC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{387E8E70-4CBD-4B03-83A9-4BC6ADEF90F4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Mutants</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CE993892-6F5A-4607-815A-55A279CCC0B5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Others</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F51E9B6B-2EF6-40EE-BA0B-6F9B5854C7C5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>All</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Axis Title</cx:v>
+            </cx:txData>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="374">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76761</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>163885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>497541</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>168649</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57100B48-484C-4866-A131-59AD3FDEA51A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="30567967" y="19706944"/>
+              <a:ext cx="3334309" cy="3814764"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>79601</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>354465</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78241</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A7DE8F-87E7-4066-A10F-A1A5ED5BEB3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="59039351" y="4280126"/>
+              <a:ext cx="4561114" cy="2751365"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS100"/>
+  <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="AR11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG18" sqref="BG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,7 +2324,7 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="21" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="16" width="14.42578125" customWidth="1"/>
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
@@ -721,9 +2346,13 @@
     <col min="35" max="35" width="36.28515625" customWidth="1"/>
     <col min="36" max="36" width="32.42578125" customWidth="1"/>
     <col min="37" max="45" width="20.85546875" customWidth="1"/>
+    <col min="47" max="47" width="17" style="26" customWidth="1"/>
+    <col min="48" max="48" width="17.85546875" style="24" customWidth="1"/>
+    <col min="49" max="49" width="14.28515625" style="31" customWidth="1"/>
+    <col min="50" max="50" width="22" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +2389,7 @@
       <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="20" t="s">
         <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -859,8 +2488,20 @@
       <c r="AS1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="AU1" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX1" s="39" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -897,7 +2538,7 @@
       <c r="L2">
         <v>7.7142857142857135</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="21">
         <v>9</v>
       </c>
       <c r="N2">
@@ -996,8 +2637,20 @@
       <c r="AS2">
         <v>0.34948246529047805</v>
       </c>
+      <c r="AU2" s="26">
+        <v>8459.2377777777783</v>
+      </c>
+      <c r="AV2" s="24">
+        <v>3344.8066666666668</v>
+      </c>
+      <c r="AW2" s="29">
+        <v>5186.6711111111081</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>5186.6711111111081</v>
+      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:50">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +2687,7 @@
       <c r="L3">
         <v>-6.0595238095238084</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="21">
         <v>7</v>
       </c>
       <c r="N3">
@@ -1133,8 +2786,20 @@
       <c r="AS3">
         <v>1.5468236302370428</v>
       </c>
+      <c r="AU3" s="26">
+        <v>16292.339999999995</v>
+      </c>
+      <c r="AV3" s="24">
+        <v>1965.1444444444455</v>
+      </c>
+      <c r="AW3" s="29">
+        <v>3852.7288888888875</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>3852.7288888888875</v>
+      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:50">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +2836,7 @@
       <c r="L4">
         <v>-13.25</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="21">
         <v>10</v>
       </c>
       <c r="N4">
@@ -1270,8 +2935,20 @@
       <c r="AS4">
         <v>-0.40827656418750669</v>
       </c>
+      <c r="AU4" s="26">
+        <v>6761.722222222219</v>
+      </c>
+      <c r="AV4" s="24">
+        <v>5224.6564102564071</v>
+      </c>
+      <c r="AW4" s="29">
+        <v>2326.6022222222227</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>2326.6022222222227</v>
+      </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:50">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +2985,7 @@
       <c r="L5">
         <v>28.961904761904769</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="21">
         <v>4</v>
       </c>
       <c r="N5">
@@ -1407,8 +3084,20 @@
       <c r="AS5">
         <v>-1.3168224775611159</v>
       </c>
+      <c r="AU5" s="26">
+        <v>5220.4022222222202</v>
+      </c>
+      <c r="AV5" s="24">
+        <v>3224.666666666667</v>
+      </c>
+      <c r="AW5" s="29">
+        <v>4803.8088888888879</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>4803.8088888888879</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" s="16" customFormat="1">
+    <row r="6" spans="1:50" s="16" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +3134,7 @@
       <c r="L6" s="16">
         <v>17.666666666666668</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="21">
         <v>2</v>
       </c>
       <c r="N6" s="16">
@@ -1544,8 +3233,20 @@
       <c r="AS6" s="16">
         <v>-0.52028715878154586</v>
       </c>
+      <c r="AU6" s="26">
+        <v>13468.974358974352</v>
+      </c>
+      <c r="AV6" s="25">
+        <v>2882.0794871794869</v>
+      </c>
+      <c r="AW6" s="29">
+        <v>3262.6711111111103</v>
+      </c>
+      <c r="AX6" s="16">
+        <v>9067.1200000000008</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" s="3" customFormat="1">
+    <row r="7" spans="1:50" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
@@ -1582,7 +3283,7 @@
       <c r="L7" s="3">
         <v>2.7777777777777786</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="21">
         <v>3</v>
       </c>
       <c r="N7" s="3">
@@ -1681,8 +3382,20 @@
       <c r="AS7" s="3">
         <v>-0.84186745867216695</v>
       </c>
+      <c r="AU7" s="26">
+        <v>11803.271794871798</v>
+      </c>
+      <c r="AV7" s="25">
+        <v>1718.516666666666</v>
+      </c>
+      <c r="AW7" s="29">
+        <v>3438.528888888889</v>
+      </c>
+      <c r="AX7" s="5">
+        <v>8459.2377777777783</v>
+      </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:50" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1719,7 +3432,7 @@
       <c r="L8">
         <v>-11.75</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="21">
         <v>8</v>
       </c>
       <c r="N8">
@@ -1818,8 +3531,20 @@
       <c r="AS8">
         <v>-0.83843962932386018</v>
       </c>
+      <c r="AU8" s="27">
+        <v>10424.417948717957</v>
+      </c>
+      <c r="AV8" s="24">
+        <v>1994.8555555555547</v>
+      </c>
+      <c r="AW8" s="30">
+        <v>4711.24</v>
+      </c>
+      <c r="AX8" s="5">
+        <v>3262.6711111111103</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" s="14" customFormat="1">
+    <row r="9" spans="1:50" s="14" customFormat="1">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +3581,7 @@
       <c r="L9" s="14">
         <v>-6.8944444444444422</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="21">
         <v>5</v>
       </c>
       <c r="N9" s="14">
@@ -1955,8 +3680,20 @@
       <c r="AS9" s="14">
         <v>-0.1025026531927859</v>
       </c>
+      <c r="AU9" s="26">
+        <v>5363.1820512820514</v>
+      </c>
+      <c r="AV9" s="24">
+        <v>2591.1277777777777</v>
+      </c>
+      <c r="AW9" s="29">
+        <v>5632.1911111111112</v>
+      </c>
+      <c r="AX9" s="14">
+        <v>3344.8066666666668</v>
+      </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:50">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1993,7 +3730,7 @@
       <c r="L10">
         <v>-2.25</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="21">
         <v>6</v>
       </c>
       <c r="N10">
@@ -2092,8 +3829,20 @@
       <c r="AS10">
         <v>1.683982158454314</v>
       </c>
+      <c r="AU10" s="26">
+        <v>6550.6307692307728</v>
+      </c>
+      <c r="AV10" s="24">
+        <v>1795.6047619047629</v>
+      </c>
+      <c r="AW10" s="29">
+        <v>5103.4822222222228</v>
+      </c>
+      <c r="AX10" s="5">
+        <v>3438.528888888889</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:50" s="7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -2130,7 +3879,7 @@
       <c r="L11" s="7">
         <v>-16.916666666666668</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="22">
         <v>1</v>
       </c>
       <c r="N11" s="7">
@@ -2229,8 +3978,20 @@
       <c r="AS11" s="7">
         <v>-0.53416634287655096</v>
       </c>
+      <c r="AU11" s="26">
+        <v>4716.5809523809512</v>
+      </c>
+      <c r="AV11" s="24">
+        <v>3228.416666666667</v>
+      </c>
+      <c r="AW11" s="29">
+        <v>1378.7755555555557</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>4711.24</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" s="3" customFormat="1">
+    <row r="12" spans="1:50" s="3" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2267,7 +4028,7 @@
       <c r="L12" s="3">
         <v>-15.433333333333328</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="21">
         <v>10</v>
       </c>
       <c r="N12" s="3">
@@ -2366,8 +4127,20 @@
       <c r="AS12" s="3">
         <v>2.0552231043316693</v>
       </c>
+      <c r="AU12" s="28">
+        <v>7560.2595238095246</v>
+      </c>
+      <c r="AV12" s="24">
+        <v>2795.9400000000014</v>
+      </c>
+      <c r="AW12" s="29">
+        <v>3973.1355555555551</v>
+      </c>
+      <c r="AX12" s="5">
+        <v>16292.339999999995</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" s="14" customFormat="1">
+    <row r="13" spans="1:50" s="14" customFormat="1">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +4177,7 @@
       <c r="L13" s="14">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="21">
         <v>6</v>
       </c>
       <c r="N13" s="14">
@@ -2503,8 +4276,20 @@
       <c r="AS13" s="14">
         <v>0.9667014755664155</v>
       </c>
+      <c r="AU13" s="26">
+        <v>5040.5138888888887</v>
+      </c>
+      <c r="AV13" s="24">
+        <v>9815.5644444444497</v>
+      </c>
+      <c r="AW13" s="29">
+        <v>1040.8933333333337</v>
+      </c>
+      <c r="AX13" s="14">
+        <v>1965.1444444444455</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" s="3" customFormat="1">
+    <row r="14" spans="1:50" s="3" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2541,7 +4326,7 @@
       <c r="L14" s="3">
         <v>26.499999999999996</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="21">
         <v>1</v>
       </c>
       <c r="N14" s="3">
@@ -2640,8 +4425,20 @@
       <c r="AS14" s="3">
         <v>-0.44788644212468565</v>
       </c>
+      <c r="AU14" s="26">
+        <v>1654.2888888888881</v>
+      </c>
+      <c r="AV14" s="24">
+        <v>2337.9222222222215</v>
+      </c>
+      <c r="AW14" s="29">
+        <v>3009.0999999999995</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>6761.722222222219</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" s="3" customFormat="1">
+    <row r="15" spans="1:50" s="3" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2678,7 +4475,7 @@
       <c r="L15" s="3">
         <v>14.999999999999998</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="21">
         <v>5</v>
       </c>
       <c r="N15" s="3">
@@ -2777,8 +4574,20 @@
       <c r="AS15" s="3">
         <v>-0.9754904143948252</v>
       </c>
+      <c r="AU15" s="26">
+        <v>2557.9809523809527</v>
+      </c>
+      <c r="AV15" s="24">
+        <v>2131.1777777777775</v>
+      </c>
+      <c r="AW15" s="29">
+        <v>9189.1282051282178</v>
+      </c>
+      <c r="AX15" s="5">
+        <v>5220.4022222222202</v>
+      </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:50">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2815,7 +4624,7 @@
       <c r="L16">
         <v>-5.1587301587301582</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="21">
         <v>2</v>
       </c>
       <c r="N16">
@@ -2914,8 +4723,20 @@
       <c r="AS16">
         <v>-2.5318163406889607</v>
       </c>
+      <c r="AU16" s="26">
+        <v>3109.9285714285716</v>
+      </c>
+      <c r="AV16" s="24">
+        <v>9067.1200000000008</v>
+      </c>
+      <c r="AW16" s="29">
+        <v>2623.5846153846146</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>5632.1911111111112</v>
+      </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:50">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2952,7 +4773,7 @@
       <c r="L17">
         <v>-30.749999999999996</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="21">
         <v>3</v>
       </c>
       <c r="N17">
@@ -3051,8 +4872,17 @@
       <c r="AS17">
         <v>-0.69254294620224599</v>
       </c>
+      <c r="AU17" s="26">
+        <v>2836.9380952380939</v>
+      </c>
+      <c r="AW17" s="29">
+        <v>8245.3025641025579</v>
+      </c>
+      <c r="AX17" s="5">
+        <v>5103.4822222222228</v>
+      </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:50">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3089,7 +4919,7 @@
       <c r="L18">
         <v>-0.8571428571428612</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="21">
         <v>9</v>
       </c>
       <c r="N18">
@@ -3188,8 +5018,17 @@
       <c r="AS18">
         <v>-2.1806177213128044</v>
       </c>
+      <c r="AU18" s="26">
+        <v>10464.924444444447</v>
+      </c>
+      <c r="AW18" s="29">
+        <v>743.90256410256416</v>
+      </c>
+      <c r="AX18" s="5">
+        <v>1378.7755555555557</v>
+      </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:50">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3226,7 +5065,7 @@
       <c r="L19">
         <v>-25.5</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="21">
         <v>4</v>
       </c>
       <c r="N19">
@@ -3325,8 +5164,17 @@
       <c r="AS19">
         <v>-0.42964906455375212</v>
       </c>
+      <c r="AU19" s="26">
+        <v>6908.9555555555544</v>
+      </c>
+      <c r="AW19" s="29">
+        <v>5069.5333333333347</v>
+      </c>
+      <c r="AX19" s="5">
+        <v>3973.1355555555551</v>
+      </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:50">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3363,7 +5211,7 @@
       <c r="L20">
         <v>12.711111111111109</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="21">
         <v>7</v>
       </c>
       <c r="N20">
@@ -3462,8 +5310,17 @@
       <c r="AS20">
         <v>1.1292254059619942</v>
       </c>
+      <c r="AU20" s="26">
+        <v>5345.7111111111117</v>
+      </c>
+      <c r="AW20" s="29">
+        <v>3444.7666666666669</v>
+      </c>
+      <c r="AX20" s="5">
+        <v>1040.8933333333337</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" s="12" customFormat="1" ht="15.75" thickBot="1">
+    <row r="21" spans="1:50" s="12" customFormat="1" ht="15.75" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
@@ -3500,7 +5357,7 @@
       <c r="L21" s="12">
         <v>28.388095238095232</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="22">
         <v>8</v>
       </c>
       <c r="N21" s="12">
@@ -3599,8 +5456,18 @@
       <c r="AS21" s="12">
         <v>-0.16584066964212993</v>
       </c>
+      <c r="AU21" s="26">
+        <v>7097.1044444444442</v>
+      </c>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="29">
+        <v>1788.9128205128206</v>
+      </c>
+      <c r="AX21" s="12">
+        <v>3782.1733333333323</v>
+      </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:50">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3637,7 +5504,7 @@
       <c r="L22">
         <v>0.83333333333333393</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="21">
         <v>10</v>
       </c>
       <c r="N22">
@@ -3700,8 +5567,11 @@
       <c r="AG22">
         <v>-1.7121074454103868</v>
       </c>
+      <c r="AW22" s="29">
+        <v>3598.3179487179505</v>
+      </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:50">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3738,7 +5608,7 @@
       <c r="L23">
         <v>-9.5714285714285712</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="21">
         <v>6</v>
       </c>
       <c r="N23">
@@ -3837,8 +5707,14 @@
       <c r="AS23">
         <v>1.5466140507312964</v>
       </c>
+      <c r="AW23" s="29">
+        <v>4299.0230769230766</v>
+      </c>
+      <c r="AX23" s="5">
+        <v>3009.0999999999995</v>
+      </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:50">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3875,7 +5751,7 @@
       <c r="L24">
         <v>8.7999999999999972</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="21">
         <v>3</v>
       </c>
       <c r="N24">
@@ -3974,8 +5850,14 @@
       <c r="AS24">
         <v>-1.3009329464230408E-2</v>
       </c>
+      <c r="AW24" s="29">
+        <v>3005.4666666666667</v>
+      </c>
+      <c r="AX24" s="5">
+        <v>9189.1282051282178</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" s="3" customFormat="1">
+    <row r="25" spans="1:50" s="3" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -4012,7 +5894,7 @@
       <c r="L25" s="3">
         <v>-18.938095238095237</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="21">
         <v>1</v>
       </c>
       <c r="N25" s="3">
@@ -4111,8 +5993,16 @@
       <c r="AS25" s="3">
         <v>8.878426731065539E-2</v>
       </c>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="29">
+        <v>1551.2523809523809</v>
+      </c>
+      <c r="AX25" s="5">
+        <v>13468.974358974352</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" s="3" customFormat="1">
+    <row r="26" spans="1:50" s="3" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -4149,7 +6039,7 @@
       <c r="L26" s="3">
         <v>8.9547619047619023</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="21">
         <v>2</v>
       </c>
       <c r="N26" s="3">
@@ -4248,8 +6138,16 @@
       <c r="AS26" s="3">
         <v>-0.47635450245024213</v>
       </c>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="29">
+        <v>12572.833333333332</v>
+      </c>
+      <c r="AX26" s="5">
+        <v>11803.271794871798</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" s="14" customFormat="1">
+    <row r="27" spans="1:50" s="14" customFormat="1">
       <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
@@ -4286,7 +6184,7 @@
       <c r="L27" s="14">
         <v>-1.9166666666666661</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="21">
         <v>8</v>
       </c>
       <c r="N27" s="14">
@@ -4349,8 +6247,13 @@
       <c r="AG27" s="14">
         <v>1.9520240499640036</v>
       </c>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="24"/>
+      <c r="AW27" s="29">
+        <v>5581.4880952380945</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" s="14" customFormat="1">
+    <row r="28" spans="1:50" s="14" customFormat="1">
       <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
@@ -4387,7 +6290,7 @@
       <c r="L28" s="14">
         <v>3.1071428571428577</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="21">
         <v>9</v>
       </c>
       <c r="N28" s="14">
@@ -4486,8 +6389,16 @@
       <c r="AS28" s="14">
         <v>-0.85408735988100781</v>
       </c>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="29">
+        <v>4744.2023809523798</v>
+      </c>
+      <c r="AX28" s="14">
+        <v>5224.6564102564071</v>
+      </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:50">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +6435,7 @@
       <c r="L29">
         <v>-14.176190476190477</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="21">
         <v>7</v>
       </c>
       <c r="N29">
@@ -4623,8 +6534,14 @@
       <c r="AS29">
         <v>-0.38047516046763663</v>
       </c>
+      <c r="AW29" s="29">
+        <v>5214.5023809523818</v>
+      </c>
+      <c r="AX29" s="5">
+        <v>2623.5846153846146</v>
+      </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:50">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -4661,7 +6578,7 @@
       <c r="L30">
         <v>5.4904761904761896</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="21">
         <v>5</v>
       </c>
       <c r="N30">
@@ -4760,8 +6677,14 @@
       <c r="AS30">
         <v>-1.832495606181747</v>
       </c>
+      <c r="AW30" s="29">
+        <v>6103.0928571428567</v>
+      </c>
+      <c r="AX30" s="5">
+        <v>8245.3025641025579</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" s="10" customFormat="1" ht="15.75" thickBot="1">
+    <row r="31" spans="1:50" s="10" customFormat="1" ht="15.75" thickBot="1">
       <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
@@ -4798,7 +6721,7 @@
       <c r="L31" s="10">
         <v>17.416666666666664</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="22">
         <v>4</v>
       </c>
       <c r="N31" s="10">
@@ -4897,8 +6820,16 @@
       <c r="AS31" s="10">
         <v>0.36820732001139567</v>
       </c>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="29">
+        <v>249.09166666666661</v>
+      </c>
+      <c r="AX31" s="8">
+        <v>10424.417948717957</v>
+      </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:50">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -4935,7 +6866,7 @@
       <c r="L32">
         <v>-7.9595238095238097</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="21">
         <v>6</v>
       </c>
       <c r="N32">
@@ -5034,8 +6965,14 @@
       <c r="AS32">
         <v>-0.4602472125773438</v>
       </c>
+      <c r="AW32" s="29">
+        <v>103.64444444444443</v>
+      </c>
+      <c r="AX32" s="5">
+        <v>743.90256410256416</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" s="14" customFormat="1">
+    <row r="33" spans="1:50" s="14" customFormat="1">
       <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
@@ -5072,7 +7009,7 @@
       <c r="L33" s="14">
         <v>-13.071428571428571</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="21">
         <v>3</v>
       </c>
       <c r="N33" s="14">
@@ -5171,8 +7108,16 @@
       <c r="AS33" s="14">
         <v>1.0998529620778026</v>
       </c>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="24"/>
+      <c r="AW33" s="29">
+        <v>306.64722222222224</v>
+      </c>
+      <c r="AX33" s="14">
+        <v>3224.666666666667</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" s="3" customFormat="1">
+    <row r="34" spans="1:50" s="3" customFormat="1">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -5209,7 +7154,7 @@
       <c r="L34" s="3">
         <v>-12.833333333333332</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="21">
         <v>7</v>
       </c>
       <c r="N34" s="3">
@@ -5308,8 +7253,16 @@
       <c r="AS34" s="3">
         <v>-0.28974637402891923</v>
       </c>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="24"/>
+      <c r="AW34" s="29">
+        <v>2521.9555555555553</v>
+      </c>
+      <c r="AX34" s="5">
+        <v>5363.1820512820514</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" s="3" customFormat="1">
+    <row r="35" spans="1:50" s="3" customFormat="1">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -5346,7 +7299,7 @@
       <c r="L35" s="3">
         <v>11.21428571428571</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="21">
         <v>4</v>
       </c>
       <c r="N35" s="3">
@@ -5445,8 +7398,16 @@
       <c r="AS35" s="3">
         <v>0.84116388945701237</v>
       </c>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="24"/>
+      <c r="AW35" s="29">
+        <v>1129.1305555555552</v>
+      </c>
+      <c r="AX35" s="5">
+        <v>6550.6307692307728</v>
+      </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:50" ht="15.75" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -5483,7 +7444,7 @@
       <c r="L36">
         <v>7.7499999999999991</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="21">
         <v>2</v>
       </c>
       <c r="N36">
@@ -5582,8 +7543,14 @@
       <c r="AS36">
         <v>2.4213295006572375</v>
       </c>
+      <c r="AW36" s="30">
+        <v>1295.5555555555554</v>
+      </c>
+      <c r="AX36" s="5">
+        <v>5069.5333333333347</v>
+      </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:50">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -5620,7 +7587,7 @@
       <c r="L37">
         <v>-16.316666666666666</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="21">
         <v>9</v>
       </c>
       <c r="N37">
@@ -5719,145 +7686,157 @@
       <c r="AS37">
         <v>2.3927825936011313</v>
       </c>
+      <c r="AW37" s="29">
+        <v>2111.8904761904755</v>
+      </c>
+      <c r="AX37" s="5">
+        <v>3444.7666666666669</v>
+      </c>
     </row>
-    <row r="38" spans="1:45">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:50" s="38" customFormat="1">
+      <c r="A38" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="38">
         <v>6</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="38">
         <v>4</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="38">
         <v>2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="38">
         <v>9</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="38">
         <v>62</v>
       </c>
-      <c r="G38" t="b">
+      <c r="G38" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="38">
         <v>35.46</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="38">
         <v>34.21</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="38">
         <v>-1.25</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="38">
         <v>6</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="38">
         <v>0.93333333333333357</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="36">
         <v>10</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="38">
         <v>-15.027522782095954</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="38">
         <v>-1.4624562491523148</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="38">
         <v>-1.0986117484690381</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="38">
         <v>0.45247881572380633</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="38">
         <v>0.15000000000000002</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="38">
         <v>1</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="38">
         <v>1</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="38">
         <v>-2.4495284538272641</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="38">
         <v>-5.3770203069746323</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="38">
         <v>-0.40883442821765192</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="38">
         <v>-0.32956586024898826</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="38">
         <v>-2.1872338431601137</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="38">
         <v>3.0100092175529163</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="38">
         <v>1.0177991190870943</v>
       </c>
-      <c r="AB38">
+      <c r="AB38" s="38">
         <v>0.97070353509998764</v>
       </c>
-      <c r="AC38">
+      <c r="AC38" s="38">
         <v>1.0691138152130522</v>
       </c>
-      <c r="AD38">
+      <c r="AD38" s="38">
         <v>1.6826638954586759</v>
       </c>
-      <c r="AE38">
+      <c r="AE38" s="38">
         <v>1.0275842177144683</v>
       </c>
-      <c r="AF38">
+      <c r="AF38" s="38">
         <v>-3.132290264918252</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" s="38">
         <v>-1.3277453498981384</v>
       </c>
-      <c r="AH38" s="5">
+      <c r="AH38" s="38">
         <v>1788.9128205128206</v>
       </c>
-      <c r="AI38">
+      <c r="AI38" s="38">
         <v>1.4600521192392346</v>
       </c>
-      <c r="AJ38">
+      <c r="AJ38" s="38">
         <v>7.9360620115927746E-2</v>
       </c>
-      <c r="AK38">
+      <c r="AK38" s="38">
         <v>-2.2533884003475042</v>
       </c>
-      <c r="AL38">
+      <c r="AL38" s="38">
         <v>-3.1055394144559703</v>
       </c>
-      <c r="AM38">
+      <c r="AM38" s="38">
         <v>0.94297079345989465</v>
       </c>
-      <c r="AN38">
+      <c r="AN38" s="38">
         <v>0.15278437459831962</v>
       </c>
-      <c r="AO38">
+      <c r="AO38" s="38">
         <v>0.22227984271217224</v>
       </c>
-      <c r="AP38">
+      <c r="AP38" s="38">
         <v>1.0251985826314174</v>
       </c>
-      <c r="AQ38">
+      <c r="AQ38" s="38">
         <v>-0.8049436202876179</v>
       </c>
-      <c r="AR38">
+      <c r="AR38" s="38">
         <v>0.193674146358499</v>
       </c>
-      <c r="AS38">
+      <c r="AS38" s="38">
         <v>1.3690578250979659</v>
       </c>
+      <c r="AW38" s="38">
+        <v>2194.071428571428</v>
+      </c>
+      <c r="AX38" s="38">
+        <v>1788.9128205128206</v>
+      </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:50">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -5894,7 +7873,7 @@
       <c r="L39">
         <v>5.6833333333333327</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="21">
         <v>5</v>
       </c>
       <c r="N39">
@@ -5993,8 +7972,14 @@
       <c r="AS39">
         <v>3.7644763729008273</v>
       </c>
+      <c r="AW39" s="29">
+        <v>3316.6595238095251</v>
+      </c>
+      <c r="AX39" s="5">
+        <v>3598.3179487179505</v>
+      </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:50">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -6031,7 +8016,7 @@
       <c r="L40">
         <v>6.1666666666666661</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="21">
         <v>8</v>
       </c>
       <c r="N40">
@@ -6130,8 +8115,14 @@
       <c r="AS40">
         <v>2.6884802587229593</v>
       </c>
+      <c r="AW40" s="29">
+        <v>1514.2714285714287</v>
+      </c>
+      <c r="AX40" s="5">
+        <v>4299.0230769230766</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" s="12" customFormat="1" ht="15.75" thickBot="1">
+    <row r="41" spans="1:50" s="12" customFormat="1" ht="15.75" thickBot="1">
       <c r="A41" s="11" t="s">
         <v>8</v>
       </c>
@@ -6168,7 +8159,7 @@
       <c r="L41" s="12">
         <v>18.433333333333334</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="22">
         <v>1</v>
       </c>
       <c r="N41" s="12">
@@ -6267,8 +8258,16 @@
       <c r="AS41" s="12">
         <v>-3.8966810695426714E-2</v>
       </c>
+      <c r="AU41" s="27"/>
+      <c r="AV41" s="25"/>
+      <c r="AW41" s="29">
+        <v>1078.5071428571434</v>
+      </c>
+      <c r="AX41" s="12">
+        <v>2882.0794871794869</v>
+      </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:50">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -6305,7 +8304,7 @@
       <c r="L42">
         <v>-21.611111111111111</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="21">
         <v>7</v>
       </c>
       <c r="N42">
@@ -6404,8 +8403,14 @@
       <c r="AS42">
         <v>0.93645320018107092</v>
       </c>
+      <c r="AW42" s="29">
+        <v>3469.1222222222223</v>
+      </c>
+      <c r="AX42" s="5">
+        <v>3005.4666666666667</v>
+      </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:50">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -6442,7 +8447,7 @@
       <c r="L43">
         <v>12.916666666666666</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="21">
         <v>1</v>
       </c>
       <c r="N43">
@@ -6541,8 +8546,14 @@
       <c r="AS43">
         <v>-0.9850741442965758</v>
       </c>
+      <c r="AW43" s="29">
+        <v>5640.94888888889</v>
+      </c>
+      <c r="AX43" s="5">
+        <v>1551.2523809523809</v>
+      </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:50">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -6579,7 +8590,7 @@
       <c r="L44">
         <v>-3.6999999999999993</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="21">
         <v>6</v>
       </c>
       <c r="N44">
@@ -6678,8 +8689,14 @@
       <c r="AS44">
         <v>0.64150730179007787</v>
       </c>
+      <c r="AW44" s="29">
+        <v>743.48444444444408</v>
+      </c>
+      <c r="AX44" s="5">
+        <v>12572.833333333332</v>
+      </c>
     </row>
-    <row r="45" spans="1:45" s="3" customFormat="1">
+    <row r="45" spans="1:50" s="3" customFormat="1">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
@@ -6716,7 +8733,7 @@
       <c r="L45" s="3">
         <v>-3.6643939393939391</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="21">
         <v>2</v>
       </c>
       <c r="N45" s="3">
@@ -6815,8 +8832,14 @@
       <c r="AS45" s="3">
         <v>-1.7775359248502711</v>
       </c>
+      <c r="AU45" s="26"/>
+      <c r="AV45" s="24"/>
+      <c r="AW45" s="31"/>
+      <c r="AX45" s="5">
+        <v>4716.5809523809512</v>
+      </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:50">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -6853,7 +8876,7 @@
       <c r="L46">
         <v>6.9431818181818183</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="21">
         <v>3</v>
       </c>
       <c r="N46">
@@ -6952,145 +8975,152 @@
       <c r="AS46">
         <v>-7.8471239574960799E-2</v>
       </c>
+      <c r="AX46" s="5">
+        <v>5581.4880952380945</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" s="14" customFormat="1">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:50" s="36" customFormat="1">
+      <c r="A47" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="36">
         <v>23</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="36">
         <v>5</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="36">
         <v>2</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="36">
         <v>10</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="36">
         <v>64</v>
       </c>
-      <c r="G47" s="14" t="b">
+      <c r="G47" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="36">
         <v>32.590000000000003</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="36">
         <v>34.18</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="36">
         <v>1.5899999999999963</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="36">
         <v>1</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="36">
         <v>28.149999999999991</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="36">
         <v>4</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="36">
         <v>3.7386035790834509</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="36">
         <v>2.2409213069853049</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="36">
         <v>1.280476765719339</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q47" s="36">
         <v>0.70754903856071272</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="36">
         <v>0.3</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S47" s="36">
         <v>1.2</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="36">
         <v>0.83333333333333337</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="36">
         <v>-1.9906144206640866</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="36">
         <v>-3.3122950826338517E-2</v>
       </c>
-      <c r="W47" s="14">
+      <c r="W47" s="36">
         <v>-2.0477212416960864</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X47" s="36">
         <v>-0.82484915034886019</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Y47" s="36">
         <v>8.8139243007054588</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="Z47" s="36">
         <v>-2.5690797186835157</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AA47" s="36">
         <v>7.289265917094303</v>
       </c>
-      <c r="AB47" s="14">
+      <c r="AB47" s="36">
         <v>-0.81288854982407788</v>
       </c>
-      <c r="AC47" s="14">
+      <c r="AC47" s="36">
         <v>0.29420196797143106</v>
       </c>
-      <c r="AD47" s="14">
+      <c r="AD47" s="36">
         <v>-0.21802626078935242</v>
       </c>
-      <c r="AE47" s="14">
+      <c r="AE47" s="36">
         <v>-0.9975798283999926</v>
       </c>
-      <c r="AF47" s="14">
+      <c r="AF47" s="36">
         <v>0.44932240428723219</v>
       </c>
-      <c r="AG47" s="14">
+      <c r="AG47" s="36">
         <v>0.57972491497044121</v>
       </c>
-      <c r="AH47" s="14">
+      <c r="AH47" s="36">
         <v>7560.2595238095246</v>
       </c>
-      <c r="AI47" s="14">
+      <c r="AI47" s="36">
         <v>1.5344892270986286</v>
       </c>
-      <c r="AJ47" s="14">
+      <c r="AJ47" s="36">
         <v>0.13838684676042551</v>
       </c>
-      <c r="AK47" s="14">
+      <c r="AK47" s="36">
         <v>6.47805567130571</v>
       </c>
-      <c r="AL47" s="14">
+      <c r="AL47" s="36">
         <v>-0.61879827969991807</v>
       </c>
-      <c r="AM47" s="14">
+      <c r="AM47" s="36">
         <v>1.4501991645131239E-2</v>
       </c>
-      <c r="AN47" s="14">
+      <c r="AN47" s="36">
         <v>-1.9236940530651776</v>
       </c>
-      <c r="AO47" s="14">
+      <c r="AO47" s="36">
         <v>1.0693991970038523</v>
       </c>
-      <c r="AP47" s="14">
+      <c r="AP47" s="36">
         <v>5.6391764803456326E-2</v>
       </c>
-      <c r="AQ47" s="14">
+      <c r="AQ47" s="36">
         <v>0.54742616467880945</v>
       </c>
-      <c r="AR47" s="14">
+      <c r="AR47" s="36">
         <v>-0.87076773190980505</v>
       </c>
-      <c r="AS47" s="14">
+      <c r="AS47" s="36">
         <v>-0.7176826165849074</v>
       </c>
+      <c r="AW47" s="37"/>
+      <c r="AX47" s="36">
+        <v>7560.2595238095246</v>
+      </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:50">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -7127,7 +9157,7 @@
       <c r="L48">
         <v>0.38005050505050697</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="21">
         <v>8</v>
       </c>
       <c r="N48">
@@ -7226,8 +9256,11 @@
       <c r="AS48">
         <v>-1.3960209518734064</v>
       </c>
+      <c r="AX48" s="5">
+        <v>4744.2023809523798</v>
+      </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:50">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -7264,7 +9297,7 @@
       <c r="L49">
         <v>-23.114393939393938</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="21">
         <v>10</v>
       </c>
       <c r="N49">
@@ -7363,8 +9396,11 @@
       <c r="AS49">
         <v>0.9762635434307072</v>
       </c>
+      <c r="AX49" s="5">
+        <v>5214.5023809523818</v>
+      </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:50">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
@@ -7401,7 +9437,7 @@
       <c r="L50">
         <v>-15.616666666666665</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="21">
         <v>9</v>
       </c>
       <c r="N50">
@@ -7500,8 +9536,11 @@
       <c r="AS50">
         <v>0.14580691061534123</v>
       </c>
+      <c r="AX50" s="5">
+        <v>6103.0928571428567</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" s="12" customFormat="1" ht="15.75" thickBot="1">
+    <row r="51" spans="1:50" s="12" customFormat="1" ht="15.75" thickBot="1">
       <c r="A51" s="11" t="s">
         <v>20</v>
       </c>
@@ -7538,7 +9577,7 @@
       <c r="L51" s="12">
         <v>19.316666666666663</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="22">
         <v>5</v>
       </c>
       <c r="N51" s="12">
@@ -7637,8 +9676,14 @@
       <c r="AS51" s="12">
         <v>-3.1226968601109926</v>
       </c>
+      <c r="AU51" s="27"/>
+      <c r="AV51" s="25"/>
+      <c r="AW51" s="30"/>
+      <c r="AX51" s="12">
+        <v>1718.516666666666</v>
+      </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:50">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -7675,7 +9720,7 @@
       <c r="L52">
         <v>-14.733333333333333</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="21">
         <v>10</v>
       </c>
       <c r="N52">
@@ -7774,8 +9819,11 @@
       <c r="AS52">
         <v>-5.6781626813899004</v>
       </c>
+      <c r="AX52" s="5">
+        <v>249.09166666666661</v>
+      </c>
     </row>
-    <row r="53" spans="1:45" s="3" customFormat="1">
+    <row r="53" spans="1:50" s="3" customFormat="1">
       <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
@@ -7812,7 +9860,7 @@
       <c r="L53" s="3">
         <v>-7.6666666666666679</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="21">
         <v>1</v>
       </c>
       <c r="N53" s="3">
@@ -7911,8 +9959,14 @@
       <c r="AS53" s="3">
         <v>0.10723883756532922</v>
       </c>
+      <c r="AU53" s="26"/>
+      <c r="AV53" s="24"/>
+      <c r="AW53" s="31"/>
+      <c r="AX53" s="5">
+        <v>5040.5138888888887</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" s="14" customFormat="1">
+    <row r="54" spans="1:50" s="14" customFormat="1">
       <c r="A54" s="13" t="s">
         <v>12</v>
       </c>
@@ -7949,7 +10003,7 @@
       <c r="L54" s="14">
         <v>-17.900000000000002</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54" s="21">
         <v>3</v>
       </c>
       <c r="N54" s="14">
@@ -8048,8 +10102,14 @@
       <c r="AS54" s="14">
         <v>3.5262671468445119</v>
       </c>
+      <c r="AU54" s="26"/>
+      <c r="AV54" s="24"/>
+      <c r="AW54" s="31"/>
+      <c r="AX54" s="14">
+        <v>1994.8555555555547</v>
+      </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:50">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -8086,7 +10146,7 @@
       <c r="L55">
         <v>-0.1666666666666643</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="21">
         <v>8</v>
       </c>
       <c r="N55">
@@ -8185,8 +10245,11 @@
       <c r="AS55">
         <v>-3.4173949813885214</v>
       </c>
+      <c r="AX55" s="5">
+        <v>103.64444444444443</v>
+      </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:50">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -8223,7 +10286,7 @@
       <c r="L56">
         <v>-14</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="21">
         <v>9</v>
       </c>
       <c r="N56">
@@ -8322,8 +10385,11 @@
       <c r="AS56">
         <v>-1.1165572573528868</v>
       </c>
+      <c r="AX56" s="5">
+        <v>306.64722222222224</v>
+      </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:50">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -8360,7 +10426,7 @@
       <c r="L57">
         <v>31.25</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="21">
         <v>7</v>
       </c>
       <c r="N57">
@@ -8459,8 +10525,11 @@
       <c r="AS57">
         <v>-0.33423823756240972</v>
       </c>
+      <c r="AX57" s="5">
+        <v>2521.9555555555553</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" s="14" customFormat="1">
+    <row r="58" spans="1:50" s="14" customFormat="1">
       <c r="A58" s="13" t="s">
         <v>26</v>
       </c>
@@ -8497,7 +10566,7 @@
       <c r="L58" s="14">
         <v>26.833333333333336</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="21">
         <v>5</v>
       </c>
       <c r="N58" s="14">
@@ -8596,8 +10665,14 @@
       <c r="AS58" s="14">
         <v>1.2774778727675618</v>
       </c>
+      <c r="AU58" s="26"/>
+      <c r="AV58" s="24"/>
+      <c r="AW58" s="31"/>
+      <c r="AX58" s="14">
+        <v>2591.1277777777777</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" s="3" customFormat="1">
+    <row r="59" spans="1:50" s="3" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -8634,7 +10709,7 @@
       <c r="L59" s="3">
         <v>16.75</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="21">
         <v>2</v>
       </c>
       <c r="N59" s="3">
@@ -8733,8 +10808,14 @@
       <c r="AS59" s="3">
         <v>-2.378598969961113</v>
       </c>
+      <c r="AU59" s="26"/>
+      <c r="AV59" s="24"/>
+      <c r="AW59" s="31"/>
+      <c r="AX59" s="5">
+        <v>1654.2888888888881</v>
+      </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:50">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -8771,7 +10852,7 @@
       <c r="L60">
         <v>-11.5</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="21">
         <v>6</v>
       </c>
       <c r="N60">
@@ -8870,8 +10951,11 @@
       <c r="AS60">
         <v>-1.5271317091886794</v>
       </c>
+      <c r="AX60" s="5">
+        <v>1129.1305555555552</v>
+      </c>
     </row>
-    <row r="61" spans="1:45" s="7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="61" spans="1:50" s="7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A61" s="6" t="s">
         <v>10</v>
       </c>
@@ -8908,7 +10992,7 @@
       <c r="L61" s="7">
         <v>-8.8666666666666671</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="22">
         <v>4</v>
       </c>
       <c r="N61" s="7">
@@ -9007,8 +11091,14 @@
       <c r="AS61" s="7">
         <v>-0.28257843674281974</v>
       </c>
+      <c r="AU61" s="27"/>
+      <c r="AV61" s="25"/>
+      <c r="AW61" s="30"/>
+      <c r="AX61" s="8">
+        <v>1295.5555555555554</v>
+      </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:50">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -9045,7 +11135,7 @@
       <c r="L62">
         <v>2.7051948051948074</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="21">
         <v>5</v>
       </c>
       <c r="N62">
@@ -9144,8 +11234,11 @@
       <c r="AS62">
         <v>1.8007747279807815</v>
       </c>
+      <c r="AX62" s="5">
+        <v>2111.8904761904755</v>
+      </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:50">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
@@ -9182,7 +11275,7 @@
       <c r="L63">
         <v>6</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="21">
         <v>3</v>
       </c>
       <c r="N63">
@@ -9281,8 +11374,11 @@
       <c r="AS63">
         <v>1.5695172950748446</v>
       </c>
+      <c r="AX63" s="5">
+        <v>2194.071428571428</v>
+      </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:50">
       <c r="A64" s="1" t="s">
         <v>30</v>
       </c>
@@ -9319,7 +11415,7 @@
       <c r="L64">
         <v>-13.399999999999999</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="21">
         <v>8</v>
       </c>
       <c r="N64">
@@ -9418,8 +11514,11 @@
       <c r="AS64">
         <v>0.75593869364718802</v>
       </c>
+      <c r="AX64" s="5">
+        <v>3316.6595238095251</v>
+      </c>
     </row>
-    <row r="65" spans="1:45" s="14" customFormat="1">
+    <row r="65" spans="1:50" s="14" customFormat="1">
       <c r="A65" s="13" t="s">
         <v>29</v>
       </c>
@@ -9456,7 +11555,7 @@
       <c r="L65" s="14">
         <v>-17.749999999999996</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65" s="21">
         <v>2</v>
       </c>
       <c r="N65" s="14">
@@ -9555,8 +11654,14 @@
       <c r="AS65" s="14">
         <v>-2.0867608939811682</v>
       </c>
+      <c r="AU65" s="26"/>
+      <c r="AV65" s="24"/>
+      <c r="AW65" s="31"/>
+      <c r="AX65" s="14">
+        <v>1795.6047619047629</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" s="14" customFormat="1">
+    <row r="66" spans="1:50" s="14" customFormat="1">
       <c r="A66" s="13" t="s">
         <v>25</v>
       </c>
@@ -9593,7 +11698,7 @@
       <c r="L66" s="14">
         <v>-8.0176767676767682</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M66" s="21">
         <v>10</v>
       </c>
       <c r="N66" s="14">
@@ -9692,8 +11797,14 @@
       <c r="AS66" s="14">
         <v>4.0065984348087227</v>
       </c>
+      <c r="AU66" s="26"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="31"/>
+      <c r="AX66" s="14">
+        <v>3228.416666666667</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" s="3" customFormat="1">
+    <row r="67" spans="1:50" s="3" customFormat="1">
       <c r="A67" s="2" t="s">
         <v>28</v>
       </c>
@@ -9730,7 +11841,7 @@
       <c r="L67" s="3">
         <v>39.190476190476197</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="21">
         <v>1</v>
       </c>
       <c r="N67" s="3">
@@ -9829,8 +11940,14 @@
       <c r="AS67" s="3">
         <v>-2.3259443875727803</v>
       </c>
+      <c r="AU67" s="26"/>
+      <c r="AV67" s="24"/>
+      <c r="AW67" s="31"/>
+      <c r="AX67" s="5">
+        <v>2557.9809523809527</v>
+      </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:50">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -9867,7 +11984,7 @@
       <c r="L68">
         <v>-30.404761904761905</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="21">
         <v>7</v>
       </c>
       <c r="N68">
@@ -9966,8 +12083,11 @@
       <c r="AS68">
         <v>0.17834989861328551</v>
       </c>
+      <c r="AX68" s="5">
+        <v>1514.2714285714287</v>
+      </c>
     </row>
-    <row r="69" spans="1:45" s="3" customFormat="1">
+    <row r="69" spans="1:50" s="3" customFormat="1">
       <c r="A69" s="2" t="s">
         <v>31</v>
       </c>
@@ -10004,7 +12124,7 @@
       <c r="L69" s="3">
         <v>-0.40656565656565746</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="21">
         <v>4</v>
       </c>
       <c r="N69" s="3">
@@ -10103,8 +12223,14 @@
       <c r="AS69" s="3">
         <v>-1.2703905026003313</v>
       </c>
+      <c r="AU69" s="26"/>
+      <c r="AV69" s="24"/>
+      <c r="AW69" s="31"/>
+      <c r="AX69" s="5">
+        <v>3109.9285714285716</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" s="3" customFormat="1">
+    <row r="70" spans="1:50" s="3" customFormat="1">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -10141,7 +12267,7 @@
       <c r="L70" s="3">
         <v>31.333333333333339</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="21">
         <v>6</v>
       </c>
       <c r="N70" s="3">
@@ -10240,8 +12366,14 @@
       <c r="AS70" s="3">
         <v>-1.1819566350730759</v>
       </c>
+      <c r="AU70" s="26"/>
+      <c r="AV70" s="24"/>
+      <c r="AW70" s="31"/>
+      <c r="AX70" s="5">
+        <v>2836.9380952380939</v>
+      </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:50">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -10278,7 +12410,7 @@
       <c r="L71">
         <v>-9.25</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="21">
         <v>9</v>
       </c>
       <c r="N71">
@@ -10377,8 +12509,11 @@
       <c r="AS71">
         <v>-0.57468699327680639</v>
       </c>
+      <c r="AX71" s="5">
+        <v>1078.5071428571434</v>
+      </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:50">
       <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
@@ -10415,7 +12550,7 @@
       <c r="L72">
         <v>-37</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="21">
         <v>10</v>
       </c>
       <c r="N72">
@@ -10514,8 +12649,11 @@
       <c r="AS72">
         <v>2.2926386819995743</v>
       </c>
+      <c r="AX72" s="5">
+        <v>3469.1222222222223</v>
+      </c>
     </row>
-    <row r="73" spans="1:45" s="14" customFormat="1">
+    <row r="73" spans="1:50" s="14" customFormat="1">
       <c r="A73" s="13" t="s">
         <v>33</v>
       </c>
@@ -10552,7 +12690,7 @@
       <c r="L73" s="14">
         <v>-1.281944444444445</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M73" s="21">
         <v>9</v>
       </c>
       <c r="N73" s="14">
@@ -10651,8 +12789,14 @@
       <c r="AS73" s="14">
         <v>-0.77699151457384019</v>
       </c>
+      <c r="AU73" s="26"/>
+      <c r="AV73" s="24"/>
+      <c r="AW73" s="31"/>
+      <c r="AX73" s="14">
+        <v>2795.9400000000014</v>
+      </c>
     </row>
-    <row r="74" spans="1:45">
+    <row r="74" spans="1:50">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -10689,7 +12833,7 @@
       <c r="L74">
         <v>3.6111111111111107</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="21">
         <v>2</v>
       </c>
       <c r="N74">
@@ -10788,8 +12932,11 @@
       <c r="AS74">
         <v>0.72494861681445966</v>
       </c>
+      <c r="AX74" s="5">
+        <v>5640.94888888889</v>
+      </c>
     </row>
-    <row r="75" spans="1:45" s="14" customFormat="1">
+    <row r="75" spans="1:50" s="14" customFormat="1">
       <c r="A75" s="13" t="s">
         <v>34</v>
       </c>
@@ -10826,7 +12973,7 @@
       <c r="L75" s="14">
         <v>-12.830952380952382</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M75" s="21">
         <v>4</v>
       </c>
       <c r="N75" s="14">
@@ -10925,8 +13072,14 @@
       <c r="AS75" s="14">
         <v>8.8543920985754976E-2</v>
       </c>
+      <c r="AU75" s="26"/>
+      <c r="AV75" s="24"/>
+      <c r="AW75" s="31"/>
+      <c r="AX75" s="14">
+        <v>9815.5644444444497</v>
+      </c>
     </row>
-    <row r="76" spans="1:45" s="3" customFormat="1">
+    <row r="76" spans="1:50" s="3" customFormat="1">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
@@ -10963,7 +13116,7 @@
       <c r="L76" s="3">
         <v>22.875000000000004</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="21">
         <v>5</v>
       </c>
       <c r="N76" s="3">
@@ -11062,8 +13215,14 @@
       <c r="AS76" s="3">
         <v>0.82605563398743442</v>
       </c>
+      <c r="AU76" s="26"/>
+      <c r="AV76" s="24"/>
+      <c r="AW76" s="31"/>
+      <c r="AX76" s="5">
+        <v>10464.924444444447</v>
+      </c>
     </row>
-    <row r="77" spans="1:45">
+    <row r="77" spans="1:50">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
@@ -11100,7 +13259,7 @@
       <c r="L77">
         <v>-19.527976190476188</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="21">
         <v>8</v>
       </c>
       <c r="N77">
@@ -11199,8 +13358,11 @@
       <c r="AS77">
         <v>0.30800568287283636</v>
       </c>
+      <c r="AX77" s="5">
+        <v>743.48444444444408</v>
+      </c>
     </row>
-    <row r="78" spans="1:45" s="3" customFormat="1">
+    <row r="78" spans="1:50" s="3" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>24</v>
       </c>
@@ -11237,7 +13399,7 @@
       <c r="L78" s="3">
         <v>30.238095238095237</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="21">
         <v>6</v>
       </c>
       <c r="N78" s="3">
@@ -11336,8 +13498,14 @@
       <c r="AS78" s="3">
         <v>0.14756766189504764</v>
       </c>
+      <c r="AU78" s="26"/>
+      <c r="AV78" s="24"/>
+      <c r="AW78" s="31"/>
+      <c r="AX78" s="5">
+        <v>6908.9555555555544</v>
+      </c>
     </row>
-    <row r="79" spans="1:45">
+    <row r="79" spans="1:50">
       <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
@@ -11374,7 +13542,7 @@
       <c r="L79">
         <v>-3.7499999999999973</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="21">
         <v>1</v>
       </c>
       <c r="N79">
@@ -11473,8 +13641,11 @@
       <c r="AS79">
         <v>-1.2059324788757626</v>
       </c>
+      <c r="AX79" s="5">
+        <v>6514.5688888888881</v>
+      </c>
     </row>
-    <row r="80" spans="1:45">
+    <row r="80" spans="1:50">
       <c r="A80" s="1" t="s">
         <v>15</v>
       </c>
@@ -11511,7 +13682,7 @@
       <c r="L80">
         <v>21.166666666666668</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="21">
         <v>3</v>
       </c>
       <c r="N80">
@@ -11610,8 +13781,11 @@
       <c r="AS80">
         <v>3.2461244176412865</v>
       </c>
+      <c r="AX80" s="5">
+        <v>6749.2688888888861</v>
+      </c>
     </row>
-    <row r="81" spans="1:45">
+    <row r="81" spans="1:50">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -11648,7 +13822,7 @@
       <c r="L81">
         <v>-3.5</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="21">
         <v>7</v>
       </c>
       <c r="N81">
@@ -11747,8 +13921,11 @@
       <c r="AS81">
         <v>1.2729098049318985</v>
       </c>
+      <c r="AX81" s="5">
+        <v>3767.9377777777781</v>
+      </c>
     </row>
-    <row r="82" spans="1:45">
+    <row r="82" spans="1:50">
       <c r="A82" s="1" t="s">
         <v>35</v>
       </c>
@@ -11785,7 +13962,7 @@
       <c r="L82">
         <v>-24.2</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="21">
         <v>8</v>
       </c>
       <c r="N82">
@@ -11884,8 +14061,11 @@
       <c r="AS82">
         <v>-0.69196880090672275</v>
       </c>
+      <c r="AX82" s="5">
+        <v>7582.620512820512</v>
+      </c>
     </row>
-    <row r="83" spans="1:45">
+    <row r="83" spans="1:50">
       <c r="A83" s="1" t="s">
         <v>36</v>
       </c>
@@ -11922,7 +14102,7 @@
       <c r="L83">
         <v>-20.277272727272731</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="21">
         <v>10</v>
       </c>
       <c r="N83">
@@ -11983,7 +14163,7 @@
         <v>-0.37363724284975047</v>
       </c>
     </row>
-    <row r="84" spans="1:45">
+    <row r="84" spans="1:50">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -12020,7 +14200,7 @@
       <c r="L84">
         <v>17.469047619047622</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="21">
         <v>4</v>
       </c>
       <c r="N84">
@@ -12084,7 +14264,7 @@
         <v>0.40120303491222697</v>
       </c>
     </row>
-    <row r="85" spans="1:45">
+    <row r="85" spans="1:50">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -12121,7 +14301,7 @@
       <c r="L85">
         <v>-14.357142857142858</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="21">
         <v>2</v>
       </c>
       <c r="N85">
@@ -12220,8 +14400,11 @@
       <c r="AS85">
         <v>1.4460932884609252</v>
       </c>
+      <c r="AX85" s="5">
+        <v>3717.9487179487178</v>
+      </c>
     </row>
-    <row r="86" spans="1:45">
+    <row r="86" spans="1:50">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -12258,7 +14441,7 @@
       <c r="L86">
         <v>9.1909090909090914</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="21">
         <v>1</v>
       </c>
       <c r="N86">
@@ -12357,8 +14540,11 @@
       <c r="AS86">
         <v>3.2534535185456801</v>
       </c>
+      <c r="AX86" s="5">
+        <v>2574.3435897435897</v>
+      </c>
     </row>
-    <row r="87" spans="1:45">
+    <row r="87" spans="1:50">
       <c r="A87" s="1" t="s">
         <v>14</v>
       </c>
@@ -12395,7 +14581,7 @@
       <c r="L87">
         <v>11.700000000000003</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="21">
         <v>6</v>
       </c>
       <c r="N87">
@@ -12494,8 +14680,11 @@
       <c r="AS87">
         <v>0.76093525531259421</v>
       </c>
+      <c r="AX87" s="5">
+        <v>1832.3538461538458</v>
+      </c>
     </row>
-    <row r="88" spans="1:45">
+    <row r="88" spans="1:50">
       <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
@@ -12532,7 +14721,7 @@
       <c r="L88">
         <v>-6.9772727272727257</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="21">
         <v>5</v>
       </c>
       <c r="N88">
@@ -12596,7 +14785,7 @@
         <v>-1.1536045388779401</v>
       </c>
     </row>
-    <row r="89" spans="1:45">
+    <row r="89" spans="1:50">
       <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
@@ -12633,7 +14822,7 @@
       <c r="L89">
         <v>15.305555555555554</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="21">
         <v>9</v>
       </c>
       <c r="N89">
@@ -12697,7 +14886,7 @@
         <v>0.23969354347864913</v>
       </c>
     </row>
-    <row r="90" spans="1:45">
+    <row r="90" spans="1:50">
       <c r="A90" s="1" t="s">
         <v>38</v>
       </c>
@@ -12734,7 +14923,7 @@
       <c r="L90">
         <v>8.5</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="21">
         <v>7</v>
       </c>
       <c r="N90">
@@ -12798,7 +14987,7 @@
         <v>1.3957687322087775</v>
       </c>
     </row>
-    <row r="91" spans="1:45">
+    <row r="91" spans="1:50">
       <c r="A91" s="1" t="s">
         <v>32</v>
       </c>
@@ -12835,7 +15024,7 @@
       <c r="L91">
         <v>-27</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="21">
         <v>10</v>
       </c>
       <c r="N91">
@@ -12934,8 +15123,11 @@
       <c r="AS91">
         <v>4.5339478260516798E-2</v>
       </c>
+      <c r="AX91" s="5">
+        <v>6076.3844444444439</v>
+      </c>
     </row>
-    <row r="92" spans="1:45" s="14" customFormat="1">
+    <row r="92" spans="1:50" s="14" customFormat="1">
       <c r="A92" s="13" t="s">
         <v>36</v>
       </c>
@@ -12972,7 +15164,7 @@
       <c r="L92" s="14">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="M92" s="14">
+      <c r="M92" s="21">
         <v>9</v>
       </c>
       <c r="N92" s="14">
@@ -13071,8 +15263,14 @@
       <c r="AS92" s="14">
         <v>0.85986487523471289</v>
       </c>
+      <c r="AU92" s="26"/>
+      <c r="AV92" s="24"/>
+      <c r="AW92" s="31"/>
+      <c r="AX92" s="14">
+        <v>2337.9222222222215</v>
+      </c>
     </row>
-    <row r="93" spans="1:45">
+    <row r="93" spans="1:50">
       <c r="A93" s="1" t="s">
         <v>22</v>
       </c>
@@ -13109,7 +15307,7 @@
       <c r="L93">
         <v>2.8666666666666671</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="21">
         <v>4</v>
       </c>
       <c r="N93">
@@ -13208,8 +15406,11 @@
       <c r="AS93">
         <v>0.26259528395814308</v>
       </c>
+      <c r="AX93" s="5">
+        <v>3973.068888888889</v>
+      </c>
     </row>
-    <row r="94" spans="1:45" s="14" customFormat="1">
+    <row r="94" spans="1:50" s="14" customFormat="1">
       <c r="A94" s="13" t="s">
         <v>33</v>
       </c>
@@ -13246,7 +15447,7 @@
       <c r="L94" s="14">
         <v>7.6833333333333318</v>
       </c>
-      <c r="M94" s="14">
+      <c r="M94" s="21">
         <v>8</v>
       </c>
       <c r="N94" s="14">
@@ -13345,8 +15546,14 @@
       <c r="AS94" s="14">
         <v>-3.4183944834869502</v>
       </c>
+      <c r="AU94" s="26"/>
+      <c r="AV94" s="24"/>
+      <c r="AW94" s="31"/>
+      <c r="AX94" s="14">
+        <v>2131.1777777777775</v>
+      </c>
     </row>
-    <row r="95" spans="1:45" s="3" customFormat="1">
+    <row r="95" spans="1:50" s="3" customFormat="1">
       <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
@@ -13383,7 +15590,7 @@
       <c r="L95" s="3">
         <v>-5.0833333333333348</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M95" s="21">
         <v>2</v>
       </c>
       <c r="N95" s="3">
@@ -13482,8 +15689,14 @@
       <c r="AS95" s="3">
         <v>0.26095554216269767</v>
       </c>
+      <c r="AU95" s="26"/>
+      <c r="AV95" s="24"/>
+      <c r="AW95" s="31"/>
+      <c r="AX95" s="5">
+        <v>5345.7111111111117</v>
+      </c>
     </row>
-    <row r="96" spans="1:45">
+    <row r="96" spans="1:50">
       <c r="A96" s="1" t="s">
         <v>37</v>
       </c>
@@ -13520,7 +15733,7 @@
       <c r="L96">
         <v>-20.416666666666664</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="21">
         <v>6</v>
       </c>
       <c r="N96">
@@ -13619,145 +15832,154 @@
       <c r="AS96">
         <v>-0.13094442449868557</v>
       </c>
+      <c r="AX96" s="5">
+        <v>3618.3355555555554</v>
+      </c>
     </row>
-    <row r="97" spans="1:45" s="3" customFormat="1">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:50" s="19" customFormat="1">
+      <c r="A97" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="19">
         <v>32</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="19">
         <v>10</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="19">
         <v>5</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="19">
         <v>9</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="19">
         <v>77</v>
       </c>
-      <c r="G97" s="3" t="b">
+      <c r="G97" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="19">
         <v>31.39</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="19">
         <v>32.25</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="19">
         <v>0.85999999999999943</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="19">
         <v>2</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97" s="19">
         <v>24.166666666666664</v>
       </c>
-      <c r="M97" s="3">
+      <c r="M97" s="21">
         <v>3</v>
       </c>
-      <c r="N97" s="3">
+      <c r="N97" s="19">
         <v>14.960427807486631</v>
       </c>
-      <c r="O97" s="3">
+      <c r="O97" s="19">
         <v>1.6473296624969596</v>
       </c>
-      <c r="P97" s="3">
+      <c r="P97" s="19">
         <v>-2.5613295240497176</v>
       </c>
-      <c r="Q97" s="3">
+      <c r="Q97" s="19">
         <v>-1.2735593968763337</v>
       </c>
-      <c r="R97" s="3">
+      <c r="R97" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S97" s="3">
+      <c r="S97" s="19">
         <v>0.7857142857142857</v>
       </c>
-      <c r="T97" s="3">
+      <c r="T97" s="19">
         <v>1</v>
       </c>
-      <c r="U97" s="3">
+      <c r="U97" s="19">
         <v>3.1762164536614002</v>
       </c>
-      <c r="V97" s="3">
+      <c r="V97" s="19">
         <v>0.29819156031464894</v>
       </c>
-      <c r="W97" s="3">
+      <c r="W97" s="19">
         <v>1.3552609077214091</v>
       </c>
-      <c r="X97" s="3">
+      <c r="X97" s="19">
         <v>-1.4603823749624609</v>
       </c>
-      <c r="Y97" s="3">
+      <c r="Y97" s="19">
         <v>0.34090619146654744</v>
       </c>
-      <c r="Z97" s="3">
+      <c r="Z97" s="19">
         <v>-1.0765667928959544</v>
       </c>
-      <c r="AA97" s="3">
+      <c r="AA97" s="19">
         <v>-1.4185106173611828</v>
       </c>
-      <c r="AB97" s="3">
+      <c r="AB97" s="19">
         <v>0.33408027057591205</v>
       </c>
-      <c r="AC97" s="3">
+      <c r="AC97" s="19">
         <v>0.5399356892391094</v>
       </c>
-      <c r="AD97" s="3">
+      <c r="AD97" s="19">
         <v>-0.41609308927276367</v>
       </c>
-      <c r="AE97" s="3">
+      <c r="AE97" s="19">
         <v>0.69065522098952159</v>
       </c>
-      <c r="AF97" s="3">
+      <c r="AF97" s="19">
         <v>-0.3474970922654021</v>
       </c>
-      <c r="AG97" s="3">
+      <c r="AG97" s="19">
         <v>-0.6714557510797784</v>
       </c>
-      <c r="AH97" s="5">
+      <c r="AH97" s="19">
         <v>12595.479999999992</v>
       </c>
-      <c r="AI97" s="3">
+      <c r="AI97" s="19">
         <v>1.7044463223209452</v>
       </c>
-      <c r="AJ97" s="3">
+      <c r="AJ97" s="19">
         <v>0.10321268687920863</v>
       </c>
-      <c r="AK97" s="3">
+      <c r="AK97" s="19">
         <v>1.6457186339798375</v>
       </c>
-      <c r="AL97" s="3">
+      <c r="AL97" s="19">
         <v>-1.7996800929973113E-2</v>
       </c>
-      <c r="AM97" s="3">
+      <c r="AM97" s="19">
         <v>3.7495224870630071</v>
       </c>
-      <c r="AN97" s="3">
+      <c r="AN97" s="19">
         <v>-2.7160187185843876</v>
       </c>
-      <c r="AO97" s="3">
+      <c r="AO97" s="19">
         <v>1.427985467115938</v>
       </c>
-      <c r="AP97" s="3">
+      <c r="AP97" s="19">
         <v>-2.2006384432167265</v>
       </c>
-      <c r="AQ97" s="3">
+      <c r="AQ97" s="19">
         <v>0.52484597547340106</v>
       </c>
-      <c r="AR97" s="3">
+      <c r="AR97" s="19">
         <v>-1.1945848299738346</v>
       </c>
-      <c r="AS97" s="3">
+      <c r="AS97" s="19">
         <v>0.89144268955263239</v>
       </c>
+      <c r="AU97" s="26"/>
+      <c r="AV97" s="24"/>
+      <c r="AW97" s="31"/>
+      <c r="AX97" s="19">
+        <v>12595.479999999992</v>
+      </c>
     </row>
-    <row r="98" spans="1:45" s="3" customFormat="1">
+    <row r="98" spans="1:50" s="3" customFormat="1">
       <c r="A98" s="2" t="s">
         <v>15</v>
       </c>
@@ -13794,7 +16016,7 @@
       <c r="L98" s="3">
         <v>5.6666666666666679</v>
       </c>
-      <c r="M98" s="3">
+      <c r="M98" s="21">
         <v>1</v>
       </c>
       <c r="N98" s="3">
@@ -13893,8 +16115,14 @@
       <c r="AS98" s="3">
         <v>-0.46992908504836128</v>
       </c>
+      <c r="AU98" s="26"/>
+      <c r="AV98" s="24"/>
+      <c r="AW98" s="31"/>
+      <c r="AX98" s="5">
+        <v>7097.1044444444442</v>
+      </c>
     </row>
-    <row r="99" spans="1:45">
+    <row r="99" spans="1:50">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -13931,7 +16159,7 @@
       <c r="L99">
         <v>-6.9166666666666661</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="21">
         <v>7</v>
       </c>
       <c r="N99">
@@ -14030,8 +16258,11 @@
       <c r="AS99">
         <v>-0.78909983358457769</v>
       </c>
+      <c r="AX99" s="5">
+        <v>4696.4955555555534</v>
+      </c>
     </row>
-    <row r="100" spans="1:45">
+    <row r="100" spans="1:50">
       <c r="A100" s="1" t="s">
         <v>38</v>
       </c>
@@ -14068,7 +16299,7 @@
       <c r="L100">
         <v>27.333333333333336</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="21">
         <v>5</v>
       </c>
       <c r="N100">
@@ -14166,9 +16397,13 @@
       </c>
       <c r="AS100">
         <v>0.69785175146133638</v>
+      </c>
+      <c r="AX100" s="5">
+        <v>6233.0088888888868</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/reduced_data.xlsx
+++ b/data/reduced_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\NoSeMaze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B7073-D82C-43A9-9270-5312822D74C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E64C6-362E-4DEE-8C85-8A17BF70FF6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,6 @@
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AV$1</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$AW$1</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$AU$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$AU$2:$AU$100</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$AV$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$AW$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AW$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
@@ -657,7 +651,6 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{BF8E49F0-D2BB-4AC9-AC59-3EC6F979FBC8}">
@@ -742,9 +735,30 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Axis Title</cx:v>
+              <cx:v>Time spent in arena</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Time spent in arena</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
@@ -1895,8 +1909,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="30567967" y="19706944"/>
-              <a:ext cx="3334309" cy="3814764"/>
+              <a:off x="30556761" y="19690135"/>
+              <a:ext cx="3325905" cy="3814764"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1973,8 +1987,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="59039351" y="4280126"/>
-              <a:ext cx="4561114" cy="2751365"/>
+              <a:off x="58972676" y="4259715"/>
+              <a:ext cx="4542064" cy="2743201"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2306,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG18" sqref="BG18"/>
+    <sheetView tabSelected="1" topLeftCell="AP4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC19" sqref="BC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/reduced_data.xlsx
+++ b/data/reduced_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agarwal Lab\Corentin\Python\NoSeMaze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E64C6-362E-4DEE-8C85-8A17BF70FF6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADA8910-CD3A-40C2-B146-7ABD82BEC999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,7 @@
     <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$AW$1</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AX$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AX$2:$AX$100</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$AU$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$AU$2:$AU$100</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$AV$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AV$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$AW$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AV$2:$AV$100</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AW$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AW$2:$AW$100</definedName>
@@ -44,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>Mouse_RFID</t>
   </si>
@@ -306,6 +298,9 @@
   <si>
     <t>All</t>
   </si>
+  <si>
+    <t>RC values</t>
+  </si>
 </sst>
 </file>
 
@@ -475,17 +470,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -523,8 +518,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CF481420-33C5-4BEB-93CA-53BFE9ACEE07}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>RC</cx:v>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>RC values</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -536,7 +531,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{70BCDA28-DBA0-4C96-B679-1D17C29C18CD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Mutants</cx:v>
             </cx:txData>
           </cx:tx>
@@ -549,7 +544,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EA777DA6-40F3-451D-B349-E64FA6013D70}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Others</cx:v>
             </cx:txData>
           </cx:tx>
@@ -631,22 +626,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -656,8 +651,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BF8E49F0-D2BB-4AC9-AC59-3EC6F979FBC8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>RC</cx:v>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>RC values</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -669,7 +664,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{387E8E70-4CBD-4B03-83A9-4BC6ADEF90F4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Mutants</cx:v>
             </cx:txData>
           </cx:tx>
@@ -682,7 +677,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CE993892-6F5A-4607-815A-55A279CCC0B5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Others</cx:v>
             </cx:txData>
           </cx:tx>
@@ -695,7 +690,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F51E9B6B-2EF6-40EE-BA0B-6F9B5854C7C5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>All</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1942,16 +1937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>79601</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>21090</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>517751</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>354465</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>78241</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>183015</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11566</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1987,7 +1982,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="58972676" y="4259715"/>
+              <a:off x="60020426" y="3993015"/>
               <a:ext cx="4542064" cy="2743201"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2320,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC19" sqref="BC19"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2502,8 +2497,11 @@
       <c r="AS1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="AT1" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="AU1" s="32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AV1" s="33" t="s">
         <v>84</v>
@@ -2650,6 +2648,9 @@
       </c>
       <c r="AS2">
         <v>0.34948246529047805</v>
+      </c>
+      <c r="AT2" t="b">
+        <v>0</v>
       </c>
       <c r="AU2" s="26">
         <v>8459.2377777777783</v>
@@ -2800,6 +2801,9 @@
       <c r="AS3">
         <v>1.5468236302370428</v>
       </c>
+      <c r="AT3" t="b">
+        <v>0</v>
+      </c>
       <c r="AU3" s="26">
         <v>16292.339999999995</v>
       </c>
@@ -2949,6 +2953,9 @@
       <c r="AS4">
         <v>-0.40827656418750669</v>
       </c>
+      <c r="AT4" t="b">
+        <v>0</v>
+      </c>
       <c r="AU4" s="26">
         <v>6761.722222222219</v>
       </c>
@@ -3098,6 +3105,9 @@
       <c r="AS5">
         <v>-1.3168224775611159</v>
       </c>
+      <c r="AT5" t="b">
+        <v>0</v>
+      </c>
       <c r="AU5" s="26">
         <v>5220.4022222222202</v>
       </c>
@@ -3247,6 +3257,9 @@
       <c r="AS6" s="16">
         <v>-0.52028715878154586</v>
       </c>
+      <c r="AT6" t="b">
+        <v>1</v>
+      </c>
       <c r="AU6" s="26">
         <v>13468.974358974352</v>
       </c>
@@ -3396,6 +3409,9 @@
       <c r="AS7" s="3">
         <v>-0.84186745867216695</v>
       </c>
+      <c r="AT7" t="b">
+        <v>1</v>
+      </c>
       <c r="AU7" s="26">
         <v>11803.271794871798</v>
       </c>
@@ -3545,6 +3561,9 @@
       <c r="AS8">
         <v>-0.83843962932386018</v>
       </c>
+      <c r="AT8" t="b">
+        <v>0</v>
+      </c>
       <c r="AU8" s="27">
         <v>10424.417948717957</v>
       </c>
@@ -3694,6 +3713,9 @@
       <c r="AS9" s="14">
         <v>-0.1025026531927859</v>
       </c>
+      <c r="AT9" t="b">
+        <v>0</v>
+      </c>
       <c r="AU9" s="26">
         <v>5363.1820512820514</v>
       </c>
@@ -3843,6 +3865,9 @@
       <c r="AS10">
         <v>1.683982158454314</v>
       </c>
+      <c r="AT10" t="b">
+        <v>0</v>
+      </c>
       <c r="AU10" s="26">
         <v>6550.6307692307728</v>
       </c>
@@ -3992,6 +4017,9 @@
       <c r="AS11" s="7">
         <v>-0.53416634287655096</v>
       </c>
+      <c r="AT11" t="b">
+        <v>0</v>
+      </c>
       <c r="AU11" s="26">
         <v>4716.5809523809512</v>
       </c>
@@ -4141,6 +4169,9 @@
       <c r="AS12" s="3">
         <v>2.0552231043316693</v>
       </c>
+      <c r="AT12" t="b">
+        <v>1</v>
+      </c>
       <c r="AU12" s="28">
         <v>7560.2595238095246</v>
       </c>
@@ -4290,6 +4321,9 @@
       <c r="AS13" s="14">
         <v>0.9667014755664155</v>
       </c>
+      <c r="AT13" t="b">
+        <v>0</v>
+      </c>
       <c r="AU13" s="26">
         <v>5040.5138888888887</v>
       </c>
@@ -4439,6 +4473,9 @@
       <c r="AS14" s="3">
         <v>-0.44788644212468565</v>
       </c>
+      <c r="AT14" t="b">
+        <v>1</v>
+      </c>
       <c r="AU14" s="26">
         <v>1654.2888888888881</v>
       </c>
@@ -4588,6 +4625,9 @@
       <c r="AS15" s="3">
         <v>-0.9754904143948252</v>
       </c>
+      <c r="AT15" t="b">
+        <v>1</v>
+      </c>
       <c r="AU15" s="26">
         <v>2557.9809523809527</v>
       </c>
@@ -4737,6 +4777,9 @@
       <c r="AS16">
         <v>-2.5318163406889607</v>
       </c>
+      <c r="AT16" t="b">
+        <v>0</v>
+      </c>
       <c r="AU16" s="26">
         <v>3109.9285714285716</v>
       </c>
@@ -4886,6 +4929,9 @@
       <c r="AS17">
         <v>-0.69254294620224599</v>
       </c>
+      <c r="AT17" t="b">
+        <v>0</v>
+      </c>
       <c r="AU17" s="26">
         <v>2836.9380952380939</v>
       </c>
@@ -5032,6 +5078,9 @@
       <c r="AS18">
         <v>-2.1806177213128044</v>
       </c>
+      <c r="AT18" t="b">
+        <v>0</v>
+      </c>
       <c r="AU18" s="26">
         <v>10464.924444444447</v>
       </c>
@@ -5178,6 +5227,9 @@
       <c r="AS19">
         <v>-0.42964906455375212</v>
       </c>
+      <c r="AT19" t="b">
+        <v>0</v>
+      </c>
       <c r="AU19" s="26">
         <v>6908.9555555555544</v>
       </c>
@@ -5324,6 +5376,9 @@
       <c r="AS20">
         <v>1.1292254059619942</v>
       </c>
+      <c r="AT20" t="b">
+        <v>0</v>
+      </c>
       <c r="AU20" s="26">
         <v>5345.7111111111117</v>
       </c>
@@ -5470,6 +5525,9 @@
       <c r="AS21" s="12">
         <v>-0.16584066964212993</v>
       </c>
+      <c r="AT21" t="b">
+        <v>0</v>
+      </c>
       <c r="AU21" s="26">
         <v>7097.1044444444442</v>
       </c>
@@ -5581,6 +5639,9 @@
       <c r="AG22">
         <v>-1.7121074454103868</v>
       </c>
+      <c r="AT22" t="b">
+        <v>0</v>
+      </c>
       <c r="AW22" s="29">
         <v>3598.3179487179505</v>
       </c>
@@ -5721,6 +5782,9 @@
       <c r="AS23">
         <v>1.5466140507312964</v>
       </c>
+      <c r="AT23" t="b">
+        <v>0</v>
+      </c>
       <c r="AW23" s="29">
         <v>4299.0230769230766</v>
       </c>
@@ -5864,6 +5928,9 @@
       <c r="AS24">
         <v>-1.3009329464230408E-2</v>
       </c>
+      <c r="AT24" t="b">
+        <v>0</v>
+      </c>
       <c r="AW24" s="29">
         <v>3005.4666666666667</v>
       </c>
@@ -6007,6 +6074,9 @@
       <c r="AS25" s="3">
         <v>8.878426731065539E-2</v>
       </c>
+      <c r="AT25" t="b">
+        <v>1</v>
+      </c>
       <c r="AU25" s="26"/>
       <c r="AV25" s="24"/>
       <c r="AW25" s="29">
@@ -6152,6 +6222,9 @@
       <c r="AS26" s="3">
         <v>-0.47635450245024213</v>
       </c>
+      <c r="AT26" t="b">
+        <v>1</v>
+      </c>
       <c r="AU26" s="26"/>
       <c r="AV26" s="24"/>
       <c r="AW26" s="29">
@@ -6261,6 +6334,9 @@
       <c r="AG27" s="14">
         <v>1.9520240499640036</v>
       </c>
+      <c r="AT27" t="b">
+        <v>0</v>
+      </c>
       <c r="AU27" s="26"/>
       <c r="AV27" s="24"/>
       <c r="AW27" s="29">
@@ -6403,6 +6479,9 @@
       <c r="AS28" s="14">
         <v>-0.85408735988100781</v>
       </c>
+      <c r="AT28" t="b">
+        <v>0</v>
+      </c>
       <c r="AU28" s="26"/>
       <c r="AV28" s="24"/>
       <c r="AW28" s="29">
@@ -6548,6 +6627,9 @@
       <c r="AS29">
         <v>-0.38047516046763663</v>
       </c>
+      <c r="AT29" t="b">
+        <v>0</v>
+      </c>
       <c r="AW29" s="29">
         <v>5214.5023809523818</v>
       </c>
@@ -6691,6 +6773,9 @@
       <c r="AS30">
         <v>-1.832495606181747</v>
       </c>
+      <c r="AT30" t="b">
+        <v>0</v>
+      </c>
       <c r="AW30" s="29">
         <v>6103.0928571428567</v>
       </c>
@@ -6834,6 +6919,9 @@
       <c r="AS31" s="10">
         <v>0.36820732001139567</v>
       </c>
+      <c r="AT31" t="b">
+        <v>1</v>
+      </c>
       <c r="AU31" s="27"/>
       <c r="AV31" s="25"/>
       <c r="AW31" s="29">
@@ -6979,6 +7067,9 @@
       <c r="AS32">
         <v>-0.4602472125773438</v>
       </c>
+      <c r="AT32" t="b">
+        <v>0</v>
+      </c>
       <c r="AW32" s="29">
         <v>103.64444444444443</v>
       </c>
@@ -7122,6 +7213,9 @@
       <c r="AS33" s="14">
         <v>1.0998529620778026</v>
       </c>
+      <c r="AT33" t="b">
+        <v>0</v>
+      </c>
       <c r="AU33" s="26"/>
       <c r="AV33" s="24"/>
       <c r="AW33" s="29">
@@ -7267,6 +7361,9 @@
       <c r="AS34" s="3">
         <v>-0.28974637402891923</v>
       </c>
+      <c r="AT34" t="b">
+        <v>1</v>
+      </c>
       <c r="AU34" s="26"/>
       <c r="AV34" s="24"/>
       <c r="AW34" s="29">
@@ -7412,6 +7509,9 @@
       <c r="AS35" s="3">
         <v>0.84116388945701237</v>
       </c>
+      <c r="AT35" t="b">
+        <v>1</v>
+      </c>
       <c r="AU35" s="26"/>
       <c r="AV35" s="24"/>
       <c r="AW35" s="29">
@@ -7557,6 +7657,9 @@
       <c r="AS36">
         <v>2.4213295006572375</v>
       </c>
+      <c r="AT36" t="b">
+        <v>0</v>
+      </c>
       <c r="AW36" s="30">
         <v>1295.5555555555554</v>
       </c>
@@ -7700,6 +7803,9 @@
       <c r="AS37">
         <v>2.3927825936011313</v>
       </c>
+      <c r="AT37" t="b">
+        <v>0</v>
+      </c>
       <c r="AW37" s="29">
         <v>2111.8904761904755</v>
       </c>
@@ -7843,6 +7949,9 @@
       <c r="AS38" s="38">
         <v>1.3690578250979659</v>
       </c>
+      <c r="AT38" t="b">
+        <v>0</v>
+      </c>
       <c r="AW38" s="38">
         <v>2194.071428571428</v>
       </c>
@@ -7986,6 +8095,9 @@
       <c r="AS39">
         <v>3.7644763729008273</v>
       </c>
+      <c r="AT39" t="b">
+        <v>0</v>
+      </c>
       <c r="AW39" s="29">
         <v>3316.6595238095251</v>
       </c>
@@ -8129,6 +8241,9 @@
       <c r="AS40">
         <v>2.6884802587229593</v>
       </c>
+      <c r="AT40" t="b">
+        <v>0</v>
+      </c>
       <c r="AW40" s="29">
         <v>1514.2714285714287</v>
       </c>
@@ -8272,6 +8387,9 @@
       <c r="AS41" s="12">
         <v>-3.8966810695426714E-2</v>
       </c>
+      <c r="AT41" t="b">
+        <v>0</v>
+      </c>
       <c r="AU41" s="27"/>
       <c r="AV41" s="25"/>
       <c r="AW41" s="29">
@@ -8417,6 +8535,9 @@
       <c r="AS42">
         <v>0.93645320018107092</v>
       </c>
+      <c r="AT42" t="b">
+        <v>0</v>
+      </c>
       <c r="AW42" s="29">
         <v>3469.1222222222223</v>
       </c>
@@ -8560,6 +8681,9 @@
       <c r="AS43">
         <v>-0.9850741442965758</v>
       </c>
+      <c r="AT43" t="b">
+        <v>0</v>
+      </c>
       <c r="AW43" s="29">
         <v>5640.94888888889</v>
       </c>
@@ -8703,6 +8827,9 @@
       <c r="AS44">
         <v>0.64150730179007787</v>
       </c>
+      <c r="AT44" t="b">
+        <v>0</v>
+      </c>
       <c r="AW44" s="29">
         <v>743.48444444444408</v>
       </c>
@@ -8845,6 +8972,9 @@
       </c>
       <c r="AS45" s="3">
         <v>-1.7775359248502711</v>
+      </c>
+      <c r="AT45" t="b">
+        <v>1</v>
       </c>
       <c r="AU45" s="26"/>
       <c r="AV45" s="24"/>
@@ -8989,6 +9119,9 @@
       <c r="AS46">
         <v>-7.8471239574960799E-2</v>
       </c>
+      <c r="AT46" t="b">
+        <v>0</v>
+      </c>
       <c r="AX46" s="5">
         <v>5581.4880952380945</v>
       </c>
@@ -9129,6 +9262,9 @@
       <c r="AS47" s="36">
         <v>-0.7176826165849074</v>
       </c>
+      <c r="AT47" t="b">
+        <v>0</v>
+      </c>
       <c r="AW47" s="37"/>
       <c r="AX47" s="36">
         <v>7560.2595238095246</v>
@@ -9270,6 +9406,9 @@
       <c r="AS48">
         <v>-1.3960209518734064</v>
       </c>
+      <c r="AT48" t="b">
+        <v>0</v>
+      </c>
       <c r="AX48" s="5">
         <v>4744.2023809523798</v>
       </c>
@@ -9410,6 +9549,9 @@
       <c r="AS49">
         <v>0.9762635434307072</v>
       </c>
+      <c r="AT49" t="b">
+        <v>0</v>
+      </c>
       <c r="AX49" s="5">
         <v>5214.5023809523818</v>
       </c>
@@ -9550,6 +9692,9 @@
       <c r="AS50">
         <v>0.14580691061534123</v>
       </c>
+      <c r="AT50" t="b">
+        <v>0</v>
+      </c>
       <c r="AX50" s="5">
         <v>6103.0928571428567</v>
       </c>
@@ -9689,6 +9834,9 @@
       </c>
       <c r="AS51" s="12">
         <v>-3.1226968601109926</v>
+      </c>
+      <c r="AT51" t="b">
+        <v>0</v>
       </c>
       <c r="AU51" s="27"/>
       <c r="AV51" s="25"/>
@@ -9833,6 +9981,9 @@
       <c r="AS52">
         <v>-5.6781626813899004</v>
       </c>
+      <c r="AT52" t="b">
+        <v>0</v>
+      </c>
       <c r="AX52" s="5">
         <v>249.09166666666661</v>
       </c>
@@ -9972,6 +10123,9 @@
       </c>
       <c r="AS53" s="3">
         <v>0.10723883756532922</v>
+      </c>
+      <c r="AT53" t="b">
+        <v>1</v>
       </c>
       <c r="AU53" s="26"/>
       <c r="AV53" s="24"/>
@@ -10116,6 +10270,9 @@
       <c r="AS54" s="14">
         <v>3.5262671468445119</v>
       </c>
+      <c r="AT54" t="b">
+        <v>0</v>
+      </c>
       <c r="AU54" s="26"/>
       <c r="AV54" s="24"/>
       <c r="AW54" s="31"/>
@@ -10259,6 +10416,9 @@
       <c r="AS55">
         <v>-3.4173949813885214</v>
       </c>
+      <c r="AT55" t="b">
+        <v>0</v>
+      </c>
       <c r="AX55" s="5">
         <v>103.64444444444443</v>
       </c>
@@ -10399,6 +10559,9 @@
       <c r="AS56">
         <v>-1.1165572573528868</v>
       </c>
+      <c r="AT56" t="b">
+        <v>0</v>
+      </c>
       <c r="AX56" s="5">
         <v>306.64722222222224</v>
       </c>
@@ -10539,6 +10702,9 @@
       <c r="AS57">
         <v>-0.33423823756240972</v>
       </c>
+      <c r="AT57" t="b">
+        <v>0</v>
+      </c>
       <c r="AX57" s="5">
         <v>2521.9555555555553</v>
       </c>
@@ -10678,6 +10844,9 @@
       </c>
       <c r="AS58" s="14">
         <v>1.2774778727675618</v>
+      </c>
+      <c r="AT58" t="b">
+        <v>0</v>
       </c>
       <c r="AU58" s="26"/>
       <c r="AV58" s="24"/>
@@ -10822,6 +10991,9 @@
       <c r="AS59" s="3">
         <v>-2.378598969961113</v>
       </c>
+      <c r="AT59" t="b">
+        <v>1</v>
+      </c>
       <c r="AU59" s="26"/>
       <c r="AV59" s="24"/>
       <c r="AW59" s="31"/>
@@ -10965,6 +11137,9 @@
       <c r="AS60">
         <v>-1.5271317091886794</v>
       </c>
+      <c r="AT60" t="b">
+        <v>0</v>
+      </c>
       <c r="AX60" s="5">
         <v>1129.1305555555552</v>
       </c>
@@ -11104,6 +11279,9 @@
       </c>
       <c r="AS61" s="7">
         <v>-0.28257843674281974</v>
+      </c>
+      <c r="AT61" t="b">
+        <v>0</v>
       </c>
       <c r="AU61" s="27"/>
       <c r="AV61" s="25"/>
@@ -11248,6 +11426,9 @@
       <c r="AS62">
         <v>1.8007747279807815</v>
       </c>
+      <c r="AT62" t="b">
+        <v>0</v>
+      </c>
       <c r="AX62" s="5">
         <v>2111.8904761904755</v>
       </c>
@@ -11388,6 +11569,9 @@
       <c r="AS63">
         <v>1.5695172950748446</v>
       </c>
+      <c r="AT63" t="b">
+        <v>0</v>
+      </c>
       <c r="AX63" s="5">
         <v>2194.071428571428</v>
       </c>
@@ -11528,6 +11712,9 @@
       <c r="AS64">
         <v>0.75593869364718802</v>
       </c>
+      <c r="AT64" t="b">
+        <v>0</v>
+      </c>
       <c r="AX64" s="5">
         <v>3316.6595238095251</v>
       </c>
@@ -11667,6 +11854,9 @@
       </c>
       <c r="AS65" s="14">
         <v>-2.0867608939811682</v>
+      </c>
+      <c r="AT65" t="b">
+        <v>0</v>
       </c>
       <c r="AU65" s="26"/>
       <c r="AV65" s="24"/>
@@ -11811,6 +12001,9 @@
       <c r="AS66" s="14">
         <v>4.0065984348087227</v>
       </c>
+      <c r="AT66" t="b">
+        <v>0</v>
+      </c>
       <c r="AU66" s="26"/>
       <c r="AV66" s="24"/>
       <c r="AW66" s="31"/>
@@ -11954,6 +12147,9 @@
       <c r="AS67" s="3">
         <v>-2.3259443875727803</v>
       </c>
+      <c r="AT67" t="b">
+        <v>1</v>
+      </c>
       <c r="AU67" s="26"/>
       <c r="AV67" s="24"/>
       <c r="AW67" s="31"/>
@@ -12097,6 +12293,9 @@
       <c r="AS68">
         <v>0.17834989861328551</v>
       </c>
+      <c r="AT68" t="b">
+        <v>0</v>
+      </c>
       <c r="AX68" s="5">
         <v>1514.2714285714287</v>
       </c>
@@ -12236,6 +12435,9 @@
       </c>
       <c r="AS69" s="3">
         <v>-1.2703905026003313</v>
+      </c>
+      <c r="AT69" t="b">
+        <v>1</v>
       </c>
       <c r="AU69" s="26"/>
       <c r="AV69" s="24"/>
@@ -12380,6 +12582,9 @@
       <c r="AS70" s="3">
         <v>-1.1819566350730759</v>
       </c>
+      <c r="AT70" t="b">
+        <v>1</v>
+      </c>
       <c r="AU70" s="26"/>
       <c r="AV70" s="24"/>
       <c r="AW70" s="31"/>
@@ -12523,6 +12728,9 @@
       <c r="AS71">
         <v>-0.57468699327680639</v>
       </c>
+      <c r="AT71" t="b">
+        <v>0</v>
+      </c>
       <c r="AX71" s="5">
         <v>1078.5071428571434</v>
       </c>
@@ -12663,6 +12871,9 @@
       <c r="AS72">
         <v>2.2926386819995743</v>
       </c>
+      <c r="AT72" t="b">
+        <v>0</v>
+      </c>
       <c r="AX72" s="5">
         <v>3469.1222222222223</v>
       </c>
@@ -12802,6 +13013,9 @@
       </c>
       <c r="AS73" s="14">
         <v>-0.77699151457384019</v>
+      </c>
+      <c r="AT73" t="b">
+        <v>0</v>
       </c>
       <c r="AU73" s="26"/>
       <c r="AV73" s="24"/>
@@ -12946,6 +13160,9 @@
       <c r="AS74">
         <v>0.72494861681445966</v>
       </c>
+      <c r="AT74" t="b">
+        <v>0</v>
+      </c>
       <c r="AX74" s="5">
         <v>5640.94888888889</v>
       </c>
@@ -13085,6 +13302,9 @@
       </c>
       <c r="AS75" s="14">
         <v>8.8543920985754976E-2</v>
+      </c>
+      <c r="AT75" t="b">
+        <v>0</v>
       </c>
       <c r="AU75" s="26"/>
       <c r="AV75" s="24"/>
@@ -13229,6 +13449,9 @@
       <c r="AS76" s="3">
         <v>0.82605563398743442</v>
       </c>
+      <c r="AT76" t="b">
+        <v>1</v>
+      </c>
       <c r="AU76" s="26"/>
       <c r="AV76" s="24"/>
       <c r="AW76" s="31"/>
@@ -13372,6 +13595,9 @@
       <c r="AS77">
         <v>0.30800568287283636</v>
       </c>
+      <c r="AT77" t="b">
+        <v>0</v>
+      </c>
       <c r="AX77" s="5">
         <v>743.48444444444408</v>
       </c>
@@ -13511,6 +13737,9 @@
       </c>
       <c r="AS78" s="3">
         <v>0.14756766189504764</v>
+      </c>
+      <c r="AT78" t="b">
+        <v>1</v>
       </c>
       <c r="AU78" s="26"/>
       <c r="AV78" s="24"/>
@@ -13655,6 +13884,9 @@
       <c r="AS79">
         <v>-1.2059324788757626</v>
       </c>
+      <c r="AT79" t="b">
+        <v>0</v>
+      </c>
       <c r="AX79" s="5">
         <v>6514.5688888888881</v>
       </c>
@@ -13795,6 +14027,9 @@
       <c r="AS80">
         <v>3.2461244176412865</v>
       </c>
+      <c r="AT80" t="b">
+        <v>0</v>
+      </c>
       <c r="AX80" s="5">
         <v>6749.2688888888861</v>
       </c>
@@ -13935,6 +14170,9 @@
       <c r="AS81">
         <v>1.2729098049318985</v>
       </c>
+      <c r="AT81" t="b">
+        <v>0</v>
+      </c>
       <c r="AX81" s="5">
         <v>3767.9377777777781</v>
       </c>
@@ -14075,6 +14313,9 @@
       <c r="AS82">
         <v>-0.69196880090672275</v>
       </c>
+      <c r="AT82" t="b">
+        <v>0</v>
+      </c>
       <c r="AX82" s="5">
         <v>7582.620512820512</v>
       </c>
@@ -14176,6 +14417,9 @@
       <c r="AG83">
         <v>-0.37363724284975047</v>
       </c>
+      <c r="AT83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:50">
       <c r="A84" s="1" t="s">
@@ -14277,6 +14521,9 @@
       <c r="AG84">
         <v>0.40120303491222697</v>
       </c>
+      <c r="AT84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:50">
       <c r="A85" s="1" t="s">
@@ -14414,6 +14661,9 @@
       <c r="AS85">
         <v>1.4460932884609252</v>
       </c>
+      <c r="AT85" t="b">
+        <v>0</v>
+      </c>
       <c r="AX85" s="5">
         <v>3717.9487179487178</v>
       </c>
@@ -14554,6 +14804,9 @@
       <c r="AS86">
         <v>3.2534535185456801</v>
       </c>
+      <c r="AT86" t="b">
+        <v>0</v>
+      </c>
       <c r="AX86" s="5">
         <v>2574.3435897435897</v>
       </c>
@@ -14694,6 +14947,9 @@
       <c r="AS87">
         <v>0.76093525531259421</v>
       </c>
+      <c r="AT87" t="b">
+        <v>0</v>
+      </c>
       <c r="AX87" s="5">
         <v>1832.3538461538458</v>
       </c>
@@ -14798,6 +15054,9 @@
       <c r="AG88">
         <v>-1.1536045388779401</v>
       </c>
+      <c r="AT88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:50">
       <c r="A89" s="1" t="s">
@@ -14899,6 +15158,9 @@
       <c r="AG89">
         <v>0.23969354347864913</v>
       </c>
+      <c r="AT89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:50">
       <c r="A90" s="1" t="s">
@@ -15000,6 +15262,9 @@
       <c r="AG90">
         <v>1.3957687322087775</v>
       </c>
+      <c r="AT90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:50">
       <c r="A91" s="1" t="s">
@@ -15137,6 +15402,9 @@
       <c r="AS91">
         <v>4.5339478260516798E-2</v>
       </c>
+      <c r="AT91" t="b">
+        <v>0</v>
+      </c>
       <c r="AX91" s="5">
         <v>6076.3844444444439</v>
       </c>
@@ -15276,6 +15544,9 @@
       </c>
       <c r="AS92" s="14">
         <v>0.85986487523471289</v>
+      </c>
+      <c r="AT92" t="b">
+        <v>0</v>
       </c>
       <c r="AU92" s="26"/>
       <c r="AV92" s="24"/>
@@ -15420,6 +15691,9 @@
       <c r="AS93">
         <v>0.26259528395814308</v>
       </c>
+      <c r="AT93" t="b">
+        <v>0</v>
+      </c>
       <c r="AX93" s="5">
         <v>3973.068888888889</v>
       </c>
@@ -15559,6 +15833,9 @@
       </c>
       <c r="AS94" s="14">
         <v>-3.4183944834869502</v>
+      </c>
+      <c r="AT94" t="b">
+        <v>0</v>
       </c>
       <c r="AU94" s="26"/>
       <c r="AV94" s="24"/>
@@ -15703,6 +15980,9 @@
       <c r="AS95" s="3">
         <v>0.26095554216269767</v>
       </c>
+      <c r="AT95" t="b">
+        <v>1</v>
+      </c>
       <c r="AU95" s="26"/>
       <c r="AV95" s="24"/>
       <c r="AW95" s="31"/>
@@ -15846,6 +16126,9 @@
       <c r="AS96">
         <v>-0.13094442449868557</v>
       </c>
+      <c r="AT96" t="b">
+        <v>0</v>
+      </c>
       <c r="AX96" s="5">
         <v>3618.3355555555554</v>
       </c>
@@ -15985,6 +16268,9 @@
       </c>
       <c r="AS97" s="19">
         <v>0.89144268955263239</v>
+      </c>
+      <c r="AT97" t="b">
+        <v>0</v>
       </c>
       <c r="AU97" s="26"/>
       <c r="AV97" s="24"/>
@@ -16129,6 +16415,9 @@
       <c r="AS98" s="3">
         <v>-0.46992908504836128</v>
       </c>
+      <c r="AT98" t="b">
+        <v>1</v>
+      </c>
       <c r="AU98" s="26"/>
       <c r="AV98" s="24"/>
       <c r="AW98" s="31"/>
@@ -16272,6 +16561,9 @@
       <c r="AS99">
         <v>-0.78909983358457769</v>
       </c>
+      <c r="AT99" t="b">
+        <v>0</v>
+      </c>
       <c r="AX99" s="5">
         <v>4696.4955555555534</v>
       </c>
@@ -16411,6 +16703,9 @@
       </c>
       <c r="AS100">
         <v>0.69785175146133638</v>
+      </c>
+      <c r="AT100" t="b">
+        <v>0</v>
       </c>
       <c r="AX100" s="5">
         <v>6233.0088888888868</v>

--- a/data/reduced_data.xlsx
+++ b/data/reduced_data.xlsx
@@ -2328,7 +2328,7 @@
   <dimension ref="A1:AY100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="14">
         <v>36.42</v>
